--- a/Optolink_Logger_v3.xlsx
+++ b/Optolink_Logger_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="510" windowWidth="28455" windowHeight="11445"/>
+    <workbookView xWindow="150" yWindow="510" windowWidth="25080" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Datenpunkte" sheetId="1" r:id="rId1"/>
@@ -1314,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y135" authorId="1">
+    <comment ref="Y136" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1338,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5207" authorId="0">
+    <comment ref="G5208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1347,42 +1347,6 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Bereich -30 bis 40</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S5207" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Bereich -30 bis 40</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W5207" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Bereich -30 bis 40</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5208" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Bereich 0.2 bis 3.5</t>
         </r>
       </text>
     </comment>
@@ -1394,11 +1358,47 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Bereich 0.2 bis 3.5</t>
+          <t>Bereich -30 bis 40</t>
         </r>
       </text>
     </comment>
     <comment ref="W5208" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Bereich -30 bis 40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5209" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Bereich 0.2 bis 3.5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S5209" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Bereich 0.2 bis 3.5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W5209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1415,7 +1415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="459">
   <si>
     <t>V333MW1</t>
   </si>
@@ -2347,15 +2347,6 @@
     <t>Return / flow temperature (17B) low-pass</t>
   </si>
   <si>
-    <t>Room temperature A1M1 low-pass</t>
-  </si>
-  <si>
-    <t>Room temperature M2 lowpass</t>
-  </si>
-  <si>
-    <t>Room temperature M3 low-pass</t>
-  </si>
-  <si>
     <t>Maximum exhaust temperature reached</t>
   </si>
   <si>
@@ -2396,9 +2387,6 @@
   </si>
   <si>
     <t>States of pumps, mixers, etc.</t>
-  </si>
-  <si>
-    <t>circulation pump</t>
   </si>
   <si>
     <t>Mixer M1 position (0 to 100%)</t>
@@ -2492,12 +2480,6 @@
     <t>Hot water temperature (sensor 5)</t>
   </si>
   <si>
-    <t>Hot Water temperature low-pass</t>
-  </si>
-  <si>
-    <t>Hot Water temperature for 2 low-pass</t>
-  </si>
-  <si>
     <t>Hot water tank charging pump</t>
   </si>
   <si>
@@ -2541,9 +2523,6 @@
   </si>
   <si>
     <t>getBoilerTempLP</t>
-  </si>
-  <si>
-    <t>getRoomTempLP</t>
   </si>
   <si>
     <t>getFlowTemp</t>
@@ -2688,9 +2667,6 @@
     <t>SetReducedTempSP</t>
   </si>
   <si>
-    <t>Set hot Water temperature setpoint</t>
-  </si>
-  <si>
     <t>0x6300</t>
   </si>
   <si>
@@ -2728,6 +2704,105 @@
   </si>
   <si>
     <t>bit</t>
+  </si>
+  <si>
+    <t>0..64</t>
+  </si>
+  <si>
+    <t>getCurrentOpMode1</t>
+  </si>
+  <si>
+    <t>getFlowTemp1</t>
+  </si>
+  <si>
+    <t>getCircPumpStatus1</t>
+  </si>
+  <si>
+    <t>getRoomTemp1</t>
+  </si>
+  <si>
+    <t>getCurrentOpMode2</t>
+  </si>
+  <si>
+    <t>getFlowTemp2</t>
+  </si>
+  <si>
+    <t>getCircPumpStatus2</t>
+  </si>
+  <si>
+    <t>getRoomTemp2</t>
+  </si>
+  <si>
+    <t>getCurrentOpMode3</t>
+  </si>
+  <si>
+    <t>getFlowTemp3</t>
+  </si>
+  <si>
+    <t>getCircPumpStatus3</t>
+  </si>
+  <si>
+    <t>getRoomTemp3</t>
+  </si>
+  <si>
+    <t>Hot Water temperature (CTS1)</t>
+  </si>
+  <si>
+    <t>Hot Water temperature (CTS2)</t>
+  </si>
+  <si>
+    <t>getHotWaterTemp1</t>
+  </si>
+  <si>
+    <t>getHotWaterTemp2</t>
+  </si>
+  <si>
+    <t>DHW circulation pump</t>
+  </si>
+  <si>
+    <t>0..127</t>
+  </si>
+  <si>
+    <t>Flow temperature M1 setpoint (read)</t>
+  </si>
+  <si>
+    <t>Flow temperature M2 setpoint (read)</t>
+  </si>
+  <si>
+    <t>Flow temperature M3 setpoint (read)</t>
+  </si>
+  <si>
+    <t>getFlowTempSP1</t>
+  </si>
+  <si>
+    <t>getFlowTempSP2</t>
+  </si>
+  <si>
+    <t>getFlowTempSP3</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Set Hot Water temperature setpoint</t>
+  </si>
+  <si>
+    <t>getBurnerStage1</t>
+  </si>
+  <si>
+    <t>getBurnerStage2</t>
+  </si>
+  <si>
+    <t>0..500</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2812,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2876,6 +2951,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2963,7 +3052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3001,13 +3090,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3038,8 +3125,8 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3053,6 +3140,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3347,13 +3439,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AQ5208"/>
+  <dimension ref="B1:AR5209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V122" sqref="V122"/>
+      <selection pane="bottomRight" activeCell="AS91" sqref="AS91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3402,7 +3494,7 @@
     <col min="42" max="42" width="1.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="18" customHeight="1">
+    <row r="1" spans="2:44" ht="18" customHeight="1">
       <c r="B1" s="10" t="s">
         <v>281</v>
       </c>
@@ -3446,54 +3538,54 @@
       <c r="AO1" s="15"/>
       <c r="AP1" s="15"/>
     </row>
-    <row r="2" spans="2:42">
-      <c r="E2" s="25" t="s">
+    <row r="2" spans="2:44" ht="21.75" customHeight="1">
+      <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="M2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="Q2" s="25" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="Q2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="U2" s="25" t="s">
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="U2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="AA2" s="25" t="s">
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="AA2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AE2" s="27" t="s">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AE2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AI2" s="27" t="s">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AI2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AM2" s="27" t="s">
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AM2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-    </row>
-    <row r="3" spans="2:42" ht="1.5" customHeight="1">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+    </row>
+    <row r="3" spans="2:44" ht="21.75" customHeight="1">
       <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
@@ -3579,8 +3671,14 @@
       <c r="AO3" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:42" ht="25.5">
+      <c r="AQ3" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="AR3" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="2:44" ht="21.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>282</v>
       </c>
@@ -3629,11 +3727,11 @@
       <c r="W4" s="1">
         <v>2</v>
       </c>
-      <c r="X4" s="20" t="s">
-        <v>359</v>
+      <c r="X4" s="19" t="s">
+        <v>353</v>
       </c>
       <c r="Y4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA4" s="7" t="s">
         <v>12</v>
@@ -3666,16 +3764,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:42" ht="12.75" customHeight="1">
-      <c r="X5" s="20"/>
-    </row>
-    <row r="6" spans="2:42" ht="12.75" customHeight="1">
+    <row r="5" spans="2:44" ht="12.75" customHeight="1">
+      <c r="X5" s="19"/>
+    </row>
+    <row r="6" spans="2:44" ht="12.75" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="X6" s="20"/>
-    </row>
-    <row r="7" spans="2:42" ht="12.75" customHeight="1">
+      <c r="X6" s="19"/>
+    </row>
+    <row r="7" spans="2:44" ht="12.75" customHeight="1">
       <c r="B7" s="7" t="s">
         <v>284</v>
       </c>
@@ -3709,11 +3807,11 @@
       <c r="W7" s="7">
         <v>2</v>
       </c>
-      <c r="X7" s="21" t="s">
-        <v>361</v>
+      <c r="X7" s="20" t="s">
+        <v>355</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AI7" t="s">
         <v>24</v>
@@ -3734,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:42" ht="12.75" customHeight="1">
+    <row r="8" spans="2:44" ht="12.75" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>285</v>
       </c>
@@ -3777,16 +3875,16 @@
       <c r="W8" s="7">
         <v>2</v>
       </c>
-      <c r="X8" s="21" t="s">
-        <v>362</v>
+      <c r="X8" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="2:42" ht="12.75" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="2:44" ht="12.75" customHeight="1">
       <c r="B9" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>27</v>
@@ -3827,11 +3925,11 @@
       <c r="W9" s="7">
         <v>2</v>
       </c>
-      <c r="X9" s="21" t="s">
-        <v>363</v>
+      <c r="X9" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AI9" t="s">
         <v>29</v>
@@ -3852,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:42" ht="12.75" customHeight="1">
+    <row r="10" spans="2:44" ht="12.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>286</v>
       </c>
@@ -3886,7 +3984,7 @@
       <c r="S10" s="7">
         <v>2</v>
       </c>
-      <c r="X10" s="20"/>
+      <c r="X10" s="19"/>
       <c r="AA10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3906,7 +4004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:42" ht="12.75" customHeight="1">
+    <row r="11" spans="2:44" ht="12.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>287</v>
       </c>
@@ -3917,7 +4015,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="X11" s="20"/>
+      <c r="X11" s="19"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3931,7 +4029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:42" ht="12.75" customHeight="1">
+    <row r="12" spans="2:44" ht="12.75" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>288</v>
       </c>
@@ -3942,7 +4040,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="X12" s="20"/>
+      <c r="X12" s="19"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3956,7 +4054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:42" ht="12.75" customHeight="1">
+    <row r="13" spans="2:44" ht="12.75" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>289</v>
       </c>
@@ -3981,20 +4079,20 @@
       <c r="S13" s="7">
         <v>2</v>
       </c>
-      <c r="U13" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W13" s="7">
-        <v>2</v>
-      </c>
-      <c r="X13" s="21" t="s">
-        <v>364</v>
+      <c r="U13" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="33">
+        <v>2</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>358</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>35</v>
@@ -4014,8 +4112,11 @@
       <c r="AO13" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:42" ht="12.75" customHeight="1">
+      <c r="AQ13" s="22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="2:44" ht="12.75" customHeight="1">
       <c r="B14" s="7" t="s">
         <v>290</v>
       </c>
@@ -4067,14 +4168,14 @@
       <c r="W14" s="7">
         <v>2</v>
       </c>
-      <c r="X14" s="21" t="s">
-        <v>365</v>
+      <c r="X14" s="45" t="s">
+        <v>359</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="2:42" ht="12.75" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="2:44" ht="12.75" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>291</v>
       </c>
@@ -4117,14 +4218,14 @@
       <c r="W15" s="7">
         <v>2</v>
       </c>
-      <c r="X15" s="21" t="s">
-        <v>366</v>
+      <c r="X15" s="45" t="s">
+        <v>360</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42" ht="12.75" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="2:44" ht="12.75" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>292</v>
       </c>
@@ -4137,7 +4238,7 @@
       <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="X16" s="20"/>
+      <c r="X16" s="19"/>
       <c r="AI16" t="s">
         <v>41</v>
       </c>
@@ -4188,11 +4289,11 @@
       <c r="W17" s="7">
         <v>2</v>
       </c>
-      <c r="X17" s="36" t="s">
-        <v>367</v>
+      <c r="X17" s="34" t="s">
+        <v>361</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>42</v>
@@ -4262,11 +4363,11 @@
       <c r="W18" s="7">
         <v>2</v>
       </c>
-      <c r="X18" s="21" t="s">
-        <v>368</v>
+      <c r="X18" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>44</v>
@@ -4300,7 +4401,7 @@
       <c r="G19" s="7">
         <v>2</v>
       </c>
-      <c r="X19" s="20"/>
+      <c r="X19" s="19"/>
     </row>
     <row r="20" spans="2:41" ht="12.75" customHeight="1">
       <c r="B20" s="7" t="s">
@@ -4315,7 +4416,7 @@
       <c r="G20" s="7">
         <v>2</v>
       </c>
-      <c r="X20" s="20"/>
+      <c r="X20" s="19"/>
     </row>
     <row r="21" spans="2:41" ht="12.75" customHeight="1">
       <c r="B21" s="7" t="s">
@@ -4330,7 +4431,7 @@
       <c r="G21" s="7">
         <v>2</v>
       </c>
-      <c r="X21" s="20"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="2:41" ht="12.75" customHeight="1">
       <c r="B22" s="7" t="s">
@@ -4345,7 +4446,7 @@
       <c r="G22" s="7">
         <v>2</v>
       </c>
-      <c r="X22" s="20"/>
+      <c r="X22" s="19"/>
     </row>
     <row r="23" spans="2:41" ht="12.75" customHeight="1">
       <c r="B23" s="7" t="s">
@@ -4360,7 +4461,7 @@
       <c r="G23" s="7">
         <v>2</v>
       </c>
-      <c r="X23" s="20"/>
+      <c r="X23" s="19"/>
       <c r="AM23" t="s">
         <v>50</v>
       </c>
@@ -4402,7 +4503,7 @@
       <c r="W24" s="7">
         <v>2</v>
       </c>
-      <c r="X24" s="21"/>
+      <c r="X24" s="20"/>
       <c r="Y24" s="7"/>
       <c r="AA24" s="7" t="s">
         <v>51</v>
@@ -4445,7 +4546,7 @@
       <c r="G25" s="7">
         <v>2</v>
       </c>
-      <c r="X25" s="20"/>
+      <c r="X25" s="19"/>
       <c r="AI25" t="s">
         <v>54</v>
       </c>
@@ -4469,7 +4570,7 @@
       <c r="W26" s="7">
         <v>2</v>
       </c>
-      <c r="X26" s="21"/>
+      <c r="X26" s="20"/>
       <c r="Y26" s="7"/>
     </row>
     <row r="27" spans="2:41" ht="12.75" customHeight="1">
@@ -4512,15 +4613,15 @@
       <c r="W27" s="7">
         <v>2</v>
       </c>
-      <c r="X27" s="21" t="s">
-        <v>370</v>
+      <c r="X27" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="2:41" ht="12.75" customHeight="1">
-      <c r="X28" s="20"/>
+      <c r="X28" s="19"/>
     </row>
     <row r="29" spans="2:41" ht="12.75" customHeight="1">
       <c r="B29" s="7" t="s">
@@ -4562,20 +4663,18 @@
       <c r="S29" s="7">
         <v>2</v>
       </c>
-      <c r="U29" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="U29" s="16"/>
       <c r="V29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="W29" s="7">
         <v>2</v>
       </c>
-      <c r="X29" s="36" t="s">
-        <v>372</v>
+      <c r="X29" s="43" t="s">
+        <v>366</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>58</v>
@@ -4597,8 +4696,8 @@
       </c>
     </row>
     <row r="30" spans="2:41" ht="12.75" customHeight="1">
-      <c r="B30" s="8" t="s">
-        <v>356</v>
+      <c r="B30" s="21" t="s">
+        <v>439</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>27</v>
@@ -4639,16 +4738,18 @@
       <c r="S30" s="7">
         <v>2</v>
       </c>
-      <c r="U30" s="7" t="s">
+      <c r="U30" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="V30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W30" s="7">
-        <v>2</v>
-      </c>
-      <c r="X30" s="21"/>
+      <c r="V30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="17">
+        <v>2</v>
+      </c>
+      <c r="X30" s="34" t="s">
+        <v>441</v>
+      </c>
       <c r="Y30" s="7"/>
       <c r="AA30" s="7" t="s">
         <v>59</v>
@@ -4679,8 +4780,8 @@
       </c>
     </row>
     <row r="31" spans="2:41" ht="12.75" customHeight="1">
-      <c r="B31" s="8" t="s">
-        <v>357</v>
+      <c r="B31" s="21" t="s">
+        <v>440</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>30</v>
@@ -4721,16 +4822,18 @@
       <c r="S31" s="7">
         <v>2</v>
       </c>
-      <c r="U31" s="7" t="s">
+      <c r="U31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="V31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W31" s="7">
-        <v>2</v>
-      </c>
-      <c r="X31" s="21"/>
+      <c r="V31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W31" s="17">
+        <v>2</v>
+      </c>
+      <c r="X31" s="34" t="s">
+        <v>442</v>
+      </c>
       <c r="Y31" s="7"/>
       <c r="AA31" s="7" t="s">
         <v>60</v>
@@ -4788,7 +4891,7 @@
       <c r="W32" s="7">
         <v>2</v>
       </c>
-      <c r="X32" s="21"/>
+      <c r="X32" s="20"/>
       <c r="Y32" s="7"/>
       <c r="AE32" s="7" t="s">
         <v>61</v>
@@ -4800,7 +4903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:37" ht="12.75" customHeight="1">
+    <row r="33" spans="2:43" ht="12.75" customHeight="1">
       <c r="B33" s="7" t="s">
         <v>306</v>
       </c>
@@ -4831,16 +4934,18 @@
       <c r="S33" s="7">
         <v>2</v>
       </c>
-      <c r="U33" s="7" t="s">
+      <c r="U33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="V33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W33" s="7">
-        <v>2</v>
-      </c>
-      <c r="X33" s="21"/>
+      <c r="V33" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W33" s="17">
+        <v>2</v>
+      </c>
+      <c r="X33" s="34" t="s">
+        <v>359</v>
+      </c>
       <c r="Y33" s="7"/>
       <c r="AE33" s="7" t="s">
         <v>62</v>
@@ -4851,8 +4956,11 @@
       <c r="AG33" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:37" ht="12.75" customHeight="1">
+      <c r="AQ33" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="2:43" ht="12.75" customHeight="1">
       <c r="B34" s="7" t="s">
         <v>307</v>
       </c>
@@ -4883,21 +4991,26 @@
       <c r="S34" s="7">
         <v>2</v>
       </c>
-      <c r="U34" s="7" t="s">
+      <c r="U34" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="V34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W34" s="7">
-        <v>2</v>
-      </c>
-      <c r="X34" s="21"/>
+      <c r="V34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W34" s="17">
+        <v>2</v>
+      </c>
+      <c r="X34" s="34" t="s">
+        <v>360</v>
+      </c>
       <c r="Y34" s="7"/>
-    </row>
-    <row r="35" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B35" s="7" t="s">
-        <v>308</v>
+      <c r="AQ34" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="2:43" ht="12.75" customHeight="1">
+      <c r="B35" s="21" t="s">
+        <v>445</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>64</v>
@@ -4920,8 +5033,8 @@
       <c r="S35" s="7">
         <v>2</v>
       </c>
-      <c r="U35" s="17" t="s">
-        <v>65</v>
+      <c r="U35" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>23</v>
@@ -4929,11 +5042,11 @@
       <c r="W35" s="7">
         <v>2</v>
       </c>
-      <c r="X35" s="21" t="s">
-        <v>373</v>
+      <c r="X35" s="34" t="s">
+        <v>448</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>65</v>
@@ -4944,10 +5057,13 @@
       <c r="AC35" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B36" s="7" t="s">
-        <v>309</v>
+      <c r="AQ35" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="2:43" ht="12.75" customHeight="1">
+      <c r="B36" s="21" t="s">
+        <v>446</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>66</v>
@@ -4961,7 +5077,18 @@
       <c r="G36" s="7">
         <v>2</v>
       </c>
-      <c r="X36" s="20"/>
+      <c r="U36" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W36" s="7">
+        <v>2</v>
+      </c>
+      <c r="X36" s="44" t="s">
+        <v>449</v>
+      </c>
       <c r="AA36" s="7" t="s">
         <v>67</v>
       </c>
@@ -4971,10 +5098,13 @@
       <c r="AC36" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B37" s="7" t="s">
-        <v>310</v>
+      <c r="AQ36" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="2:43" ht="12.75" customHeight="1">
+      <c r="B37" s="21" t="s">
+        <v>447</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>68</v>
@@ -4985,11 +5115,25 @@
       <c r="G37" s="7">
         <v>2</v>
       </c>
-      <c r="X37" s="20"/>
-    </row>
-    <row r="38" spans="2:37" ht="12.75" customHeight="1">
+      <c r="U37" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W37" s="21">
+        <v>2</v>
+      </c>
+      <c r="X37" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="AQ37" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="2:43" ht="12.75" customHeight="1">
       <c r="B38" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>69</v>
@@ -5018,19 +5162,19 @@
       <c r="W38" s="7">
         <v>2</v>
       </c>
-      <c r="X38" s="21"/>
+      <c r="X38" s="20"/>
       <c r="Y38" s="7"/>
     </row>
-    <row r="39" spans="2:37" ht="12.75" customHeight="1">
-      <c r="X39" s="20"/>
-    </row>
-    <row r="40" spans="2:37" ht="12.75" customHeight="1">
+    <row r="39" spans="2:43" ht="12.75" customHeight="1">
+      <c r="X39" s="19"/>
+    </row>
+    <row r="40" spans="2:43" ht="12.75" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X40" s="20"/>
-    </row>
-    <row r="41" spans="2:37" ht="12.75" customHeight="1">
+        <v>309</v>
+      </c>
+      <c r="X40" s="19"/>
+    </row>
+    <row r="41" spans="2:43" ht="12.75" customHeight="1">
       <c r="B41" s="7" t="s">
         <v>292</v>
       </c>
@@ -5043,9 +5187,9 @@
       <c r="G41" s="7">
         <v>2</v>
       </c>
-      <c r="X41" s="20"/>
-    </row>
-    <row r="42" spans="2:37" ht="12.75" customHeight="1">
+      <c r="X41" s="19"/>
+    </row>
+    <row r="42" spans="2:43" ht="12.75" customHeight="1">
       <c r="B42" s="7" t="s">
         <v>299</v>
       </c>
@@ -5085,8 +5229,8 @@
       <c r="S42" s="7">
         <v>2</v>
       </c>
-      <c r="U42" s="17" t="s">
-        <v>71</v>
+      <c r="U42" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="V42" s="7" t="s">
         <v>23</v>
@@ -5094,11 +5238,11 @@
       <c r="W42" s="7">
         <v>2</v>
       </c>
-      <c r="X42" s="21" t="s">
-        <v>374</v>
+      <c r="X42" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="Y42" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AA42" s="7" t="s">
         <v>71</v>
@@ -5110,11 +5254,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:37" ht="12.75" customHeight="1">
+    <row r="43" spans="2:43" ht="12.75" customHeight="1">
       <c r="B43" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="X43" s="20"/>
+        <v>310</v>
+      </c>
+      <c r="X43" s="19"/>
       <c r="AA43" s="7" t="s">
         <v>72</v>
       </c>
@@ -5125,7 +5269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:37" ht="12.75" customHeight="1">
+    <row r="44" spans="2:43" ht="12.75" customHeight="1">
       <c r="B44" s="7" t="s">
         <v>300</v>
       </c>
@@ -5147,7 +5291,7 @@
       <c r="O44" s="7">
         <v>2</v>
       </c>
-      <c r="X44" s="20"/>
+      <c r="X44" s="19"/>
       <c r="AA44" s="7" t="s">
         <v>73</v>
       </c>
@@ -5158,7 +5302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:37" ht="12.75" customHeight="1">
+    <row r="45" spans="2:43" ht="12.75" customHeight="1">
       <c r="B45" s="7" t="s">
         <v>301</v>
       </c>
@@ -5171,7 +5315,7 @@
       <c r="G45" s="7">
         <v>2</v>
       </c>
-      <c r="X45" s="20"/>
+      <c r="X45" s="19"/>
       <c r="AI45" t="s">
         <v>75</v>
       </c>
@@ -5182,9 +5326,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:37" ht="12.75" customHeight="1">
+    <row r="46" spans="2:43" ht="12.75" customHeight="1">
       <c r="B46" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>76</v>
@@ -5195,11 +5339,11 @@
       <c r="G46" s="7">
         <v>2</v>
       </c>
-      <c r="X46" s="20"/>
-    </row>
-    <row r="47" spans="2:37" ht="12.75" customHeight="1">
+      <c r="X46" s="19"/>
+    </row>
+    <row r="47" spans="2:43" ht="12.75" customHeight="1">
       <c r="B47" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>77</v>
@@ -5228,20 +5372,20 @@
       <c r="S47" s="7">
         <v>2</v>
       </c>
-      <c r="U47" s="17" t="s">
+      <c r="U47" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="V47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W47" s="7">
-        <v>2</v>
-      </c>
-      <c r="X47" s="21" t="s">
-        <v>369</v>
+      <c r="V47" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W47" s="33">
+        <v>2</v>
+      </c>
+      <c r="X47" s="34" t="s">
+        <v>363</v>
       </c>
       <c r="Y47" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>77</v>
@@ -5261,8 +5405,11 @@
       <c r="AG47" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="2:37" ht="12.75" customHeight="1">
+      <c r="AQ47" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="2:43" ht="12.75" customHeight="1">
       <c r="B48" s="7" t="s">
         <v>295</v>
       </c>
@@ -5275,9 +5422,9 @@
       <c r="G48" s="7">
         <v>2</v>
       </c>
-      <c r="X48" s="20"/>
-    </row>
-    <row r="49" spans="2:41" ht="12.75" customHeight="1">
+      <c r="X48" s="19"/>
+    </row>
+    <row r="49" spans="2:43" ht="12.75" customHeight="1">
       <c r="B49" s="7" t="s">
         <v>296</v>
       </c>
@@ -5290,9 +5437,9 @@
       <c r="G49" s="7">
         <v>2</v>
       </c>
-      <c r="X49" s="20"/>
-    </row>
-    <row r="50" spans="2:41" ht="12.75" customHeight="1">
+      <c r="X49" s="19"/>
+    </row>
+    <row r="50" spans="2:43" ht="12.75" customHeight="1">
       <c r="B50" s="7" t="s">
         <v>297</v>
       </c>
@@ -5305,9 +5452,9 @@
       <c r="G50" s="7">
         <v>2</v>
       </c>
-      <c r="X50" s="20"/>
-    </row>
-    <row r="51" spans="2:41" ht="12.75" customHeight="1">
+      <c r="X50" s="19"/>
+    </row>
+    <row r="51" spans="2:43" ht="12.75" customHeight="1">
       <c r="B51" s="7" t="s">
         <v>298</v>
       </c>
@@ -5320,20 +5467,20 @@
       <c r="G51" s="7">
         <v>2</v>
       </c>
-      <c r="X51" s="20"/>
-    </row>
-    <row r="52" spans="2:41" ht="12.75" customHeight="1">
-      <c r="X52" s="20"/>
-    </row>
-    <row r="53" spans="2:41" ht="12.75" customHeight="1">
+      <c r="X51" s="19"/>
+    </row>
+    <row r="52" spans="2:43" ht="12.75" customHeight="1">
+      <c r="X52" s="19"/>
+    </row>
+    <row r="53" spans="2:43" ht="12.75" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="X53" s="20"/>
-    </row>
-    <row r="54" spans="2:41" ht="12.75" customHeight="1">
+        <v>313</v>
+      </c>
+      <c r="X53" s="19"/>
+    </row>
+    <row r="54" spans="2:43" ht="12.75" customHeight="1">
       <c r="B54" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>82</v>
@@ -5362,12 +5509,12 @@
       <c r="W54" s="7">
         <v>1</v>
       </c>
-      <c r="X54" s="21"/>
+      <c r="X54" s="20"/>
       <c r="Y54" s="7"/>
     </row>
-    <row r="55" spans="2:41" ht="12.75" customHeight="1">
+    <row r="55" spans="2:43" ht="12.75" customHeight="1">
       <c r="B55" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>84</v>
@@ -5396,11 +5543,11 @@
       <c r="W55" s="7">
         <v>1</v>
       </c>
-      <c r="X55" s="21" t="s">
-        <v>375</v>
+      <c r="X55" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="Y55" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>86</v>
@@ -5412,9 +5559,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:41" ht="12.75" customHeight="1">
+    <row r="56" spans="2:43" ht="12.75" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>87</v>
@@ -5443,12 +5590,12 @@
       <c r="W56" s="7">
         <v>1</v>
       </c>
-      <c r="X56" s="21"/>
+      <c r="X56" s="20"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="57" spans="2:41" ht="12.75" customHeight="1">
-      <c r="B57" s="22" t="s">
-        <v>403</v>
+    <row r="57" spans="2:43" ht="12.75" customHeight="1">
+      <c r="B57" s="21" t="s">
+        <v>396</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>89</v>
@@ -5468,21 +5615,26 @@
       <c r="S57" s="7">
         <v>1</v>
       </c>
-      <c r="U57" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="V57" s="17" t="s">
+      <c r="U57" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="V57" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="W57" s="33">
+        <v>1</v>
+      </c>
+      <c r="X57" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y57" s="7"/>
+      <c r="AQ57" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="W57" s="17">
-        <v>1</v>
-      </c>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="7"/>
-    </row>
-    <row r="58" spans="2:41" ht="12.75" customHeight="1">
-      <c r="B58" s="22" t="s">
-        <v>404</v>
+    </row>
+    <row r="58" spans="2:43" ht="12.75" customHeight="1">
+      <c r="B58" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>90</v>
@@ -5502,21 +5654,26 @@
       <c r="S58" s="7">
         <v>1</v>
       </c>
-      <c r="U58" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="V58" s="17" t="s">
+      <c r="U58" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="V58" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="W58" s="33">
+        <v>1</v>
+      </c>
+      <c r="X58" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y58" s="7"/>
+      <c r="AQ58" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="W58" s="17">
-        <v>1</v>
-      </c>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="7"/>
-    </row>
-    <row r="59" spans="2:41" ht="12.75" customHeight="1">
+    </row>
+    <row r="59" spans="2:43" ht="12.75" customHeight="1">
       <c r="B59" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>91</v>
@@ -5545,16 +5702,16 @@
       <c r="W59" s="7">
         <v>4</v>
       </c>
-      <c r="X59" s="21" t="s">
-        <v>376</v>
+      <c r="X59" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="Y59" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="60" spans="2:41" ht="12.75" customHeight="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="2:43" ht="12.75" customHeight="1">
       <c r="B60" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>93</v>
@@ -5580,11 +5737,11 @@
       <c r="W60" s="7">
         <v>4</v>
       </c>
-      <c r="X60" s="36" t="s">
-        <v>377</v>
+      <c r="X60" s="34" t="s">
+        <v>370</v>
       </c>
       <c r="Y60" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AA60" s="7" t="s">
         <v>93</v>
@@ -5605,9 +5762,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:41" ht="12.75" customHeight="1">
+    <row r="61" spans="2:43" ht="12.75" customHeight="1">
       <c r="B61" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>94</v>
@@ -5645,11 +5802,11 @@
       <c r="W61" s="17">
         <v>4</v>
       </c>
-      <c r="X61" s="36" t="s">
-        <v>378</v>
+      <c r="X61" s="34" t="s">
+        <v>371</v>
       </c>
       <c r="Y61" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>96</v>
@@ -5679,9 +5836,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:41" ht="12.75" customHeight="1">
+    <row r="62" spans="2:43" ht="12.75" customHeight="1">
       <c r="B62" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>97</v>
@@ -5710,28 +5867,28 @@
       <c r="W62" s="17">
         <v>4</v>
       </c>
-      <c r="X62" s="36" t="s">
+      <c r="X62" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y62" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+      <c r="X63" s="19"/>
+    </row>
+    <row r="64" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+      <c r="B64" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="X64" s="19"/>
+    </row>
+    <row r="65" spans="2:41" ht="12.75" hidden="1" customHeight="1">
+      <c r="B65" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="Y62" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="2:41" ht="12.75" hidden="1" customHeight="1">
-      <c r="X63" s="20"/>
-    </row>
-    <row r="64" spans="2:41" ht="12.75" hidden="1" customHeight="1">
-      <c r="B64" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="30"/>
-      <c r="X64" s="20"/>
-    </row>
-    <row r="65" spans="2:41" ht="12.75" hidden="1" customHeight="1">
-      <c r="B65" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="C65" s="32"/>
+      <c r="C65" s="30"/>
       <c r="M65" s="7" t="s">
         <v>100</v>
       </c>
@@ -5741,7 +5898,7 @@
       <c r="O65" s="7">
         <v>2</v>
       </c>
-      <c r="X65" s="20"/>
+      <c r="X65" s="19"/>
       <c r="AA65" s="7" t="s">
         <v>100</v>
       </c>
@@ -5771,17 +5928,17 @@
       </c>
     </row>
     <row r="66" spans="2:41" ht="12.75" hidden="1" customHeight="1">
-      <c r="B66" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="C66" s="30"/>
+      <c r="B66" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C66" s="28"/>
       <c r="M66" s="7" t="s">
         <v>102</v>
       </c>
       <c r="O66" s="7">
         <v>2</v>
       </c>
-      <c r="X66" s="20"/>
+      <c r="X66" s="19"/>
       <c r="AA66" s="7" t="s">
         <v>102</v>
       </c>
@@ -5808,7 +5965,7 @@
       <c r="O67" s="7">
         <v>1</v>
       </c>
-      <c r="X67" s="20"/>
+      <c r="X67" s="19"/>
       <c r="AA67" s="7" t="s">
         <v>104</v>
       </c>
@@ -5821,7 +5978,7 @@
     </row>
     <row r="68" spans="2:41" ht="12.75" hidden="1" customHeight="1">
       <c r="B68" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M68" s="7" t="s">
         <v>105</v>
@@ -5832,7 +5989,7 @@
       <c r="O68" s="7">
         <v>1</v>
       </c>
-      <c r="X68" s="20"/>
+      <c r="X68" s="19"/>
       <c r="AA68" s="7" t="s">
         <v>105</v>
       </c>
@@ -5845,7 +6002,7 @@
     </row>
     <row r="69" spans="2:41" ht="12.75" hidden="1" customHeight="1">
       <c r="B69" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>106</v>
@@ -5856,7 +6013,7 @@
       <c r="O69" s="7">
         <v>2</v>
       </c>
-      <c r="X69" s="20"/>
+      <c r="X69" s="19"/>
       <c r="AA69" s="7" t="s">
         <v>106</v>
       </c>
@@ -5883,7 +6040,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="X70" s="20"/>
+      <c r="X70" s="19"/>
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
@@ -5899,7 +6056,7 @@
     </row>
     <row r="71" spans="2:41" ht="12.75" hidden="1" customHeight="1">
       <c r="B71" s="6" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>109</v>
@@ -5910,7 +6067,7 @@
       <c r="O71" s="7">
         <v>2</v>
       </c>
-      <c r="X71" s="20"/>
+      <c r="X71" s="19"/>
       <c r="AA71" s="7" t="s">
         <v>109</v>
       </c>
@@ -5932,18 +6089,18 @@
     </row>
     <row r="72" spans="2:41" ht="12.75" hidden="1" customHeight="1">
       <c r="B72" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="N72" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="N72" s="22" t="s">
         <v>110</v>
       </c>
       <c r="O72">
         <v>4</v>
       </c>
-      <c r="X72" s="20"/>
+      <c r="X72" s="19"/>
       <c r="AA72" s="7" t="s">
         <v>111</v>
       </c>
@@ -5953,17 +6110,17 @@
       </c>
     </row>
     <row r="73" spans="2:41" ht="12.75" customHeight="1">
-      <c r="X73" s="20"/>
+      <c r="X73" s="19"/>
     </row>
     <row r="74" spans="2:41" ht="12.75" customHeight="1">
       <c r="B74" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="X74" s="20"/>
+        <v>321</v>
+      </c>
+      <c r="X74" s="19"/>
     </row>
     <row r="75" spans="2:41" ht="12.75" customHeight="1">
       <c r="B75" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>112</v>
@@ -5995,17 +6152,17 @@
       <c r="U75" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="V75" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="W75" s="7">
-        <v>1</v>
-      </c>
-      <c r="X75" s="21" t="s">
-        <v>381</v>
+      <c r="V75" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="W75" s="33">
+        <v>1</v>
+      </c>
+      <c r="X75" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="Y75" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>112</v>
@@ -6018,8 +6175,8 @@
       </c>
     </row>
     <row r="76" spans="2:41" ht="12.75" customHeight="1">
-      <c r="B76" s="7" t="s">
-        <v>325</v>
+      <c r="B76" s="21" t="s">
+        <v>443</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>114</v>
@@ -6051,17 +6208,17 @@
       <c r="U76" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="V76" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="W76" s="7">
-        <v>1</v>
-      </c>
-      <c r="X76" s="21" t="s">
-        <v>380</v>
+      <c r="V76" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="W76" s="33">
+        <v>1</v>
+      </c>
+      <c r="X76" s="34" t="s">
+        <v>373</v>
       </c>
       <c r="Y76" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA76" s="7" t="s">
         <v>114</v>
@@ -6075,7 +6232,7 @@
     </row>
     <row r="77" spans="2:41" ht="12.75" customHeight="1">
       <c r="B77" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>116</v>
@@ -6104,11 +6261,11 @@
       <c r="W77" s="7">
         <v>1</v>
       </c>
-      <c r="X77" s="21" t="s">
-        <v>382</v>
+      <c r="X77" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="Y77" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>116</v>
@@ -6122,7 +6279,7 @@
     </row>
     <row r="78" spans="2:41" ht="12.75" customHeight="1">
       <c r="B78" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>117</v>
@@ -6133,11 +6290,11 @@
       <c r="G78" s="7">
         <v>1</v>
       </c>
-      <c r="X78" s="20"/>
+      <c r="X78" s="19"/>
     </row>
     <row r="79" spans="2:41" ht="12.75" customHeight="1">
       <c r="B79" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>118</v>
@@ -6148,11 +6305,11 @@
       <c r="G79" s="7">
         <v>1</v>
       </c>
-      <c r="X79" s="20"/>
+      <c r="X79" s="19"/>
     </row>
     <row r="80" spans="2:41" ht="12.75" customHeight="1">
       <c r="B80" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>119</v>
@@ -6181,25 +6338,25 @@
       <c r="S80" s="7">
         <v>1</v>
       </c>
-      <c r="U80" s="19" t="s">
+      <c r="U80" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="V80" s="7" t="s">
+      <c r="V80" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="W80" s="7">
-        <v>1</v>
-      </c>
-      <c r="X80" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y80" s="23" t="s">
-        <v>360</v>
+      <c r="W80" s="47">
+        <v>1</v>
+      </c>
+      <c r="X80" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y80" s="47" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="2:38" ht="12.75" customHeight="1">
       <c r="B81" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>122</v>
@@ -6219,7 +6376,7 @@
       <c r="O81" s="7">
         <v>2</v>
       </c>
-      <c r="X81" s="20"/>
+      <c r="X81" s="19"/>
       <c r="AA81" s="7" t="s">
         <v>122</v>
       </c>
@@ -6232,7 +6389,7 @@
     </row>
     <row r="82" spans="2:38" ht="12.75" customHeight="1">
       <c r="B82" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>124</v>
@@ -6243,11 +6400,11 @@
       <c r="G82" s="7">
         <v>1</v>
       </c>
-      <c r="X82" s="20"/>
+      <c r="X82" s="19"/>
     </row>
     <row r="83" spans="2:38" ht="12.75" customHeight="1">
       <c r="B83" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>125</v>
@@ -6276,11 +6433,11 @@
       <c r="W83" s="7">
         <v>1</v>
       </c>
-      <c r="X83" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y83" s="22" t="s">
-        <v>371</v>
+      <c r="X83" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y83" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="AA83" s="7" t="s">
         <v>125</v>
@@ -6294,7 +6451,7 @@
     </row>
     <row r="84" spans="2:38" ht="12.75" customHeight="1">
       <c r="B84" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M84" s="7" t="s">
         <v>126</v>
@@ -6305,11 +6462,11 @@
       <c r="O84" s="7">
         <v>2</v>
       </c>
-      <c r="X84" s="20"/>
+      <c r="X84" s="19"/>
     </row>
     <row r="85" spans="2:38" ht="12.75" customHeight="1">
       <c r="B85" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M85" s="7" t="s">
         <v>127</v>
@@ -6320,11 +6477,11 @@
       <c r="O85" s="7">
         <v>1</v>
       </c>
-      <c r="X85" s="20"/>
+      <c r="X85" s="19"/>
     </row>
     <row r="86" spans="2:38" ht="12.75" customHeight="1">
       <c r="B86" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M86" s="7" t="s">
         <v>129</v>
@@ -6335,7 +6492,7 @@
       <c r="O86" s="7">
         <v>1</v>
       </c>
-      <c r="X86" s="20"/>
+      <c r="X86" s="19"/>
       <c r="AA86" s="7" t="s">
         <v>129</v>
       </c>
@@ -6348,7 +6505,7 @@
     </row>
     <row r="87" spans="2:38" ht="12.75" customHeight="1">
       <c r="B87" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M87" s="7" t="s">
         <v>131</v>
@@ -6359,7 +6516,7 @@
       <c r="O87" s="7">
         <v>1</v>
       </c>
-      <c r="X87" s="20"/>
+      <c r="X87" s="19"/>
       <c r="AA87" s="7" t="s">
         <v>131</v>
       </c>
@@ -6371,17 +6528,17 @@
       </c>
     </row>
     <row r="88" spans="2:38" ht="12.75" customHeight="1">
-      <c r="X88" s="20"/>
+      <c r="X88" s="19"/>
     </row>
     <row r="89" spans="2:38" ht="12.75" customHeight="1">
       <c r="B89" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="X89" s="20"/>
+        <v>333</v>
+      </c>
+      <c r="X89" s="19"/>
     </row>
     <row r="90" spans="2:38" ht="12.75" customHeight="1">
       <c r="B90" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>132</v>
@@ -6428,7 +6585,7 @@
       <c r="W90" s="7">
         <v>1</v>
       </c>
-      <c r="X90" s="21"/>
+      <c r="X90" s="20"/>
       <c r="Y90" s="7"/>
       <c r="AA90" s="7" t="s">
         <v>132</v>
@@ -6442,7 +6599,7 @@
     </row>
     <row r="91" spans="2:38" ht="12.75" customHeight="1">
       <c r="B91" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>134</v>
@@ -6479,7 +6636,7 @@
       <c r="W91" s="7">
         <v>22</v>
       </c>
-      <c r="X91" s="21"/>
+      <c r="X91" s="20"/>
       <c r="Y91" s="7"/>
       <c r="AA91" s="7" t="s">
         <v>134</v>
@@ -6498,7 +6655,7 @@
     </row>
     <row r="92" spans="2:38" ht="12.75" customHeight="1">
       <c r="B92" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>135</v>
@@ -6514,7 +6671,7 @@
       <c r="W92" s="7">
         <v>22</v>
       </c>
-      <c r="X92" s="21"/>
+      <c r="X92" s="20"/>
       <c r="Y92" s="7"/>
       <c r="AA92" s="7" t="s">
         <v>135</v>
@@ -6526,7 +6683,7 @@
     </row>
     <row r="93" spans="2:38" ht="12.75" customHeight="1">
       <c r="B93" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>136</v>
@@ -6535,11 +6692,11 @@
       <c r="G93" s="7">
         <v>22</v>
       </c>
-      <c r="X93" s="20"/>
+      <c r="X93" s="19"/>
     </row>
     <row r="94" spans="2:38" ht="12.75" customHeight="1">
       <c r="B94" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>86</v>
@@ -6586,7 +6743,7 @@
       <c r="W94" s="7">
         <v>2</v>
       </c>
-      <c r="X94" s="21"/>
+      <c r="X94" s="20"/>
       <c r="Y94" s="7"/>
       <c r="AA94" s="7" t="s">
         <v>86</v>
@@ -6600,7 +6757,7 @@
     </row>
     <row r="95" spans="2:38" ht="12.75" customHeight="1">
       <c r="B95" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>138</v>
@@ -6629,7 +6786,7 @@
       <c r="W95" s="7">
         <v>2</v>
       </c>
-      <c r="X95" s="21"/>
+      <c r="X95" s="20"/>
       <c r="Y95" s="7"/>
       <c r="AA95" s="7" t="s">
         <v>138</v>
@@ -6642,17 +6799,17 @@
       </c>
     </row>
     <row r="96" spans="2:38" ht="12.75" hidden="1" customHeight="1">
-      <c r="X96" s="20"/>
-    </row>
-    <row r="97" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+      <c r="X96" s="19"/>
+    </row>
+    <row r="97" spans="2:44" ht="12.75" hidden="1" customHeight="1">
       <c r="B97" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="X97" s="20"/>
-    </row>
-    <row r="98" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+        <v>340</v>
+      </c>
+      <c r="X97" s="19"/>
+    </row>
+    <row r="98" spans="2:44" ht="12.75" hidden="1" customHeight="1">
       <c r="B98" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>139</v>
@@ -6681,7 +6838,7 @@
       <c r="W98" s="7">
         <v>2</v>
       </c>
-      <c r="X98" s="21"/>
+      <c r="X98" s="20"/>
       <c r="Y98" s="7"/>
       <c r="AA98" s="7" t="s">
         <v>139</v>
@@ -6693,21 +6850,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:43" ht="12.75" hidden="1" customHeight="1">
-      <c r="X99" s="20"/>
-    </row>
-    <row r="100" spans="2:43" ht="12.75" customHeight="1">
-      <c r="X100" s="20"/>
-    </row>
-    <row r="101" spans="2:43" ht="24.75" customHeight="1">
-      <c r="B101" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="X101" s="20"/>
-    </row>
-    <row r="102" spans="2:43" ht="12.75" customHeight="1">
+    <row r="99" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+      <c r="X99" s="19"/>
+    </row>
+    <row r="100" spans="2:44" ht="12.75" customHeight="1">
+      <c r="X100" s="19"/>
+    </row>
+    <row r="101" spans="2:44" ht="24.75" customHeight="1">
+      <c r="B101" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="X101" s="19"/>
+    </row>
+    <row r="102" spans="2:44" ht="12.75" customHeight="1">
       <c r="B102" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>140</v>
@@ -6719,8 +6876,8 @@
       <c r="M102" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="N102" s="22" t="s">
-        <v>393</v>
+      <c r="N102" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="O102" s="7">
         <v>1</v>
@@ -6732,20 +6889,20 @@
       <c r="S102" s="7">
         <v>1</v>
       </c>
-      <c r="U102" s="35" t="s">
+      <c r="U102" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="V102" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="W102" s="35">
-        <v>1</v>
-      </c>
-      <c r="X102" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y102" s="22" t="s">
-        <v>360</v>
+      <c r="V102" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="W102" s="33">
+        <v>1</v>
+      </c>
+      <c r="X102" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y102" s="21" t="s">
+        <v>354</v>
       </c>
       <c r="AA102" s="7" t="s">
         <v>140</v>
@@ -6761,10 +6918,13 @@
       <c r="AO102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B103" s="22" t="s">
-        <v>394</v>
+      <c r="AR102" s="22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="103" spans="2:44" ht="12.75" customHeight="1">
+      <c r="B103" s="21" t="s">
+        <v>387</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>142</v>
@@ -6793,20 +6953,20 @@
       <c r="S103" s="7">
         <v>1</v>
       </c>
-      <c r="U103" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="V103" s="35" t="s">
+      <c r="U103" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="V103" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W103" s="35">
-        <v>1</v>
-      </c>
-      <c r="X103" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y103" s="22" t="s">
-        <v>360</v>
+      <c r="W103" s="33">
+        <v>1</v>
+      </c>
+      <c r="X103" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y103" s="21" t="s">
+        <v>354</v>
       </c>
       <c r="AA103" s="7" t="s">
         <v>142</v>
@@ -6818,9 +6978,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B104" s="22" t="s">
-        <v>395</v>
+    <row r="104" spans="2:44" ht="12.75" customHeight="1">
+      <c r="B104" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>143</v>
@@ -6849,20 +7009,20 @@
       <c r="S104" s="7">
         <v>1</v>
       </c>
-      <c r="U104" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="V104" s="35" t="s">
+      <c r="U104" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="V104" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W104" s="35">
-        <v>1</v>
-      </c>
-      <c r="X104" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y104" s="22" t="s">
-        <v>360</v>
+      <c r="W104" s="33">
+        <v>1</v>
+      </c>
+      <c r="X104" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y104" s="21" t="s">
+        <v>354</v>
       </c>
       <c r="AA104" s="7" t="s">
         <v>143</v>
@@ -6874,9 +7034,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:43" ht="12.75" customHeight="1">
+    <row r="105" spans="2:44" ht="12.75" customHeight="1">
       <c r="B105" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E105" t="s">
         <v>144</v>
@@ -6885,10 +7045,10 @@
         <v>1</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="N105" s="34" t="s">
-        <v>397</v>
+        <v>389</v>
+      </c>
+      <c r="N105" s="32" t="s">
+        <v>390</v>
       </c>
       <c r="Q105" t="s">
         <v>144</v>
@@ -6899,25 +7059,25 @@
       <c r="U105" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="V105" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="W105" s="42">
-        <v>2</v>
-      </c>
-      <c r="X105" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y105" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="AQ105" s="34" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="106" spans="2:43" ht="12.75" customHeight="1">
+      <c r="V105" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="W105" s="40">
+        <v>2</v>
+      </c>
+      <c r="X105" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y105" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ105" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" spans="2:44" ht="12.75" customHeight="1">
       <c r="B106" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>145</v>
@@ -6929,10 +7089,10 @@
         <v>1</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="N106" s="34" t="s">
-        <v>399</v>
+        <v>391</v>
+      </c>
+      <c r="N106" s="32" t="s">
+        <v>392</v>
       </c>
       <c r="Q106" s="7" t="s">
         <v>145</v>
@@ -6946,25 +7106,25 @@
       <c r="U106" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="V106" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="W106" s="35">
-        <v>2</v>
-      </c>
-      <c r="X106" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y106" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="AQ106" s="24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="107" spans="2:43" ht="12.75" customHeight="1">
+      <c r="V106" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="W106" s="33">
+        <v>2</v>
+      </c>
+      <c r="X106" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y106" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ106" s="22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="107" spans="2:44" ht="12.75" customHeight="1">
       <c r="B107" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>146</v>
@@ -6976,9 +7136,9 @@
         <v>1</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N107" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="N107" s="32" t="s">
         <v>147</v>
       </c>
       <c r="O107">
@@ -6987,25 +7147,25 @@
       <c r="U107" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="V107" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="W107" s="35">
-        <v>2</v>
-      </c>
-      <c r="X107" s="36" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y107" s="22" t="s">
-        <v>360</v>
+      <c r="V107" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="W107" s="33">
+        <v>2</v>
+      </c>
+      <c r="X107" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y107" s="21" t="s">
+        <v>354</v>
       </c>
       <c r="AQ107" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B108" s="24" t="s">
-        <v>401</v>
+    <row r="108" spans="2:44" ht="12.75" customHeight="1">
+      <c r="B108" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>148</v>
@@ -7019,32 +7179,32 @@
       <c r="M108" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="N108" s="24" t="s">
+      <c r="N108" s="22" t="s">
         <v>147</v>
       </c>
       <c r="O108">
         <v>2</v>
       </c>
-      <c r="U108" s="35" t="s">
+      <c r="U108" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="V108" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="W108" s="35">
-        <v>2</v>
-      </c>
-      <c r="X108" s="36" t="s">
-        <v>420</v>
+      <c r="V108" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="W108" s="33">
+        <v>2</v>
+      </c>
+      <c r="X108" s="34" t="s">
+        <v>413</v>
       </c>
       <c r="Y108" s="7"/>
       <c r="AQ108" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="2:43" ht="12.75" customHeight="1">
+    <row r="109" spans="2:44" ht="12.75" customHeight="1">
       <c r="B109" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>149</v>
@@ -7055,54 +7215,54 @@
       <c r="G109" s="7">
         <v>1</v>
       </c>
-      <c r="U109" s="35"/>
-      <c r="V109" s="43"/>
-      <c r="W109" s="35"/>
-      <c r="X109" s="36"/>
-      <c r="Y109" s="22"/>
+      <c r="U109" s="33"/>
+      <c r="V109" s="41"/>
+      <c r="W109" s="33"/>
+      <c r="X109" s="34"/>
+      <c r="Y109" s="21"/>
       <c r="AM109" s="7"/>
       <c r="AN109" s="7"/>
       <c r="AO109" s="7"/>
       <c r="AQ109" s="7"/>
     </row>
-    <row r="110" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B110" s="24" t="s">
-        <v>421</v>
+    <row r="110" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B110" s="22" t="s">
+        <v>455</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
-      <c r="U110" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="V110" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="W110" s="35">
-        <v>2</v>
-      </c>
-      <c r="X110" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y110" s="22"/>
+      <c r="U110" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="V110" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="W110" s="33">
+        <v>2</v>
+      </c>
+      <c r="X110" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y110" s="21"/>
       <c r="AM110" s="7"/>
       <c r="AN110" s="7"/>
       <c r="AO110" s="7"/>
-      <c r="AQ110" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="111" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+      <c r="AQ110" s="21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1">
       <c r="B111" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="X111" s="20"/>
-    </row>
-    <row r="112" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+        <v>348</v>
+      </c>
+      <c r="X111" s="19"/>
+    </row>
+    <row r="112" spans="2:44" ht="12.75" hidden="1" customHeight="1">
       <c r="B112" t="s">
-        <v>349</v>
-      </c>
-      <c r="X112" s="20"/>
+        <v>345</v>
+      </c>
+      <c r="X112" s="19"/>
       <c r="AI112" t="s">
         <v>150</v>
       </c>
@@ -7113,11 +7273,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+    <row r="113" spans="2:44" ht="12.75" hidden="1" customHeight="1">
       <c r="B113" t="s">
-        <v>350</v>
-      </c>
-      <c r="X113" s="20"/>
+        <v>346</v>
+      </c>
+      <c r="X113" s="19"/>
       <c r="AI113" t="s">
         <v>151</v>
       </c>
@@ -7128,11 +7288,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+    <row r="114" spans="2:44" ht="12.75" hidden="1" customHeight="1">
       <c r="B114" t="s">
-        <v>353</v>
-      </c>
-      <c r="X114" s="20"/>
+        <v>349</v>
+      </c>
+      <c r="X114" s="19"/>
       <c r="AI114" t="s">
         <v>152</v>
       </c>
@@ -7143,11 +7303,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+    <row r="115" spans="2:44" ht="12.75" hidden="1" customHeight="1">
       <c r="B115" t="s">
-        <v>347</v>
-      </c>
-      <c r="X115" s="20"/>
+        <v>343</v>
+      </c>
+      <c r="X115" s="19"/>
       <c r="AI115" t="s">
         <v>153</v>
       </c>
@@ -7158,11 +7318,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+    <row r="116" spans="2:44" ht="12.75" hidden="1" customHeight="1">
       <c r="B116" t="s">
-        <v>348</v>
-      </c>
-      <c r="X116" s="20"/>
+        <v>344</v>
+      </c>
+      <c r="X116" s="19"/>
       <c r="AI116" t="s">
         <v>154</v>
       </c>
@@ -7173,18 +7333,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:43" ht="12.75" customHeight="1">
-      <c r="X117" s="20"/>
-    </row>
-    <row r="118" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B118" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="X118" s="20"/>
-    </row>
-    <row r="119" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B119" s="22" t="s">
-        <v>425</v>
+    <row r="117" spans="2:44" ht="12.75" customHeight="1">
+      <c r="X117" s="19"/>
+    </row>
+    <row r="118" spans="2:44" ht="12.75" customHeight="1">
+      <c r="B118" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="X118" s="19"/>
+    </row>
+    <row r="119" spans="2:44" ht="12.75" customHeight="1">
+      <c r="B119" s="21" t="s">
+        <v>417</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>155</v>
@@ -7214,16 +7374,18 @@
       <c r="S119" s="7">
         <v>1</v>
       </c>
-      <c r="U119" s="37" t="s">
+      <c r="U119" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="V119" s="38" t="s">
+      <c r="V119" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="W119" s="7">
-        <v>1</v>
-      </c>
-      <c r="X119" s="21"/>
+      <c r="W119" s="33">
+        <v>1</v>
+      </c>
+      <c r="X119" s="34" t="s">
+        <v>427</v>
+      </c>
       <c r="Y119" s="7"/>
       <c r="AA119" s="7" t="s">
         <v>155</v>
@@ -7232,10 +7394,13 @@
       <c r="AC119" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B120" s="22" t="s">
-        <v>426</v>
+      <c r="AR119" s="22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="120" spans="2:44" ht="12.75" customHeight="1">
+      <c r="B120" s="21" t="s">
+        <v>418</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>156</v>
@@ -7255,16 +7420,18 @@
       <c r="S120" s="7">
         <v>4</v>
       </c>
-      <c r="U120" s="37" t="s">
+      <c r="U120" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="V120" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W120" s="7">
-        <v>2</v>
-      </c>
-      <c r="X120" s="21"/>
+      <c r="V120" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W120" s="33">
+        <v>2</v>
+      </c>
+      <c r="X120" s="34" t="s">
+        <v>428</v>
+      </c>
       <c r="Y120" s="7"/>
       <c r="AA120" s="7" t="s">
         <v>156</v>
@@ -7275,13 +7442,13 @@
       <c r="AC120" s="7">
         <v>4</v>
       </c>
-      <c r="AQ120" s="24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="121" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B121" s="22" t="s">
-        <v>354</v>
+      <c r="AQ120" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="2:44" ht="12.75" customHeight="1">
+      <c r="B121" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>157</v>
@@ -7304,16 +7471,18 @@
       <c r="S121" s="7">
         <v>1</v>
       </c>
-      <c r="U121" s="37" t="s">
+      <c r="U121" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="V121" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="W121" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="X121" s="21"/>
+      <c r="V121" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="W121" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="X121" s="34" t="s">
+        <v>429</v>
+      </c>
       <c r="Y121" s="7"/>
       <c r="AA121" s="7" t="s">
         <v>157</v>
@@ -7322,13 +7491,11 @@
       <c r="AC121" s="7">
         <v>1</v>
       </c>
-      <c r="AQ121" s="24" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="122" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B122" s="22" t="s">
-        <v>427</v>
+      <c r="AQ121" s="22"/>
+    </row>
+    <row r="122" spans="2:44" ht="12.75" customHeight="1">
+      <c r="B122" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>158</v>
@@ -7344,14 +7511,18 @@
       <c r="S122" s="7">
         <v>1</v>
       </c>
-      <c r="U122" s="37" t="s">
+      <c r="U122" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="V122" s="7"/>
-      <c r="W122" s="7">
-        <v>2</v>
-      </c>
-      <c r="X122" s="21"/>
+      <c r="V122" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="W122" s="33">
+        <v>2</v>
+      </c>
+      <c r="X122" s="34" t="s">
+        <v>430</v>
+      </c>
       <c r="Y122" s="7"/>
       <c r="AA122" s="7" t="s">
         <v>158</v>
@@ -7360,16 +7531,19 @@
       <c r="AC122" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B123" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="X123" s="20"/>
-    </row>
-    <row r="124" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B124" s="22" t="s">
-        <v>425</v>
+      <c r="AQ122" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="123" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B123" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="X123" s="19"/>
+    </row>
+    <row r="124" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B124" s="21" t="s">
+        <v>417</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>155</v>
@@ -7399,14 +7573,18 @@
       <c r="S124" s="7">
         <v>1</v>
       </c>
-      <c r="U124" s="37" t="s">
+      <c r="U124" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="V124" s="7"/>
-      <c r="W124" s="7">
-        <v>1</v>
-      </c>
-      <c r="X124" s="21"/>
+      <c r="V124" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="W124" s="33">
+        <v>1</v>
+      </c>
+      <c r="X124" s="34" t="s">
+        <v>431</v>
+      </c>
       <c r="Y124" s="7"/>
       <c r="AA124" s="7" t="s">
         <v>155</v>
@@ -7416,9 +7594,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B125" s="22" t="s">
-        <v>426</v>
+    <row r="125" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B125" s="21" t="s">
+        <v>418</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>156</v>
@@ -7438,16 +7616,18 @@
       <c r="S125" s="7">
         <v>4</v>
       </c>
-      <c r="U125" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="V125" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W125" s="7">
-        <v>4</v>
-      </c>
-      <c r="X125" s="21"/>
+      <c r="U125" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="V125" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W125" s="33">
+        <v>2</v>
+      </c>
+      <c r="X125" s="34" t="s">
+        <v>432</v>
+      </c>
       <c r="Y125" s="7"/>
       <c r="AA125" s="7" t="s">
         <v>156</v>
@@ -7458,10 +7638,13 @@
       <c r="AC125" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B126" s="22" t="s">
-        <v>354</v>
+      <c r="AQ125" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B126" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>157</v>
@@ -7484,14 +7667,18 @@
       <c r="S126" s="7">
         <v>1</v>
       </c>
-      <c r="U126" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="V126" s="7"/>
-      <c r="W126" s="7">
-        <v>1</v>
-      </c>
-      <c r="X126" s="21"/>
+      <c r="U126" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="V126" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="W126" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="X126" s="34" t="s">
+        <v>433</v>
+      </c>
       <c r="Y126" s="7"/>
       <c r="AA126" s="7" t="s">
         <v>157</v>
@@ -7500,10 +7687,11 @@
       <c r="AC126" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B127" s="22" t="s">
-        <v>427</v>
+      <c r="AQ126" s="22"/>
+    </row>
+    <row r="127" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B127" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>158</v>
@@ -7519,14 +7707,18 @@
       <c r="S127" s="7">
         <v>1</v>
       </c>
-      <c r="U127" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="V127" s="7"/>
-      <c r="W127" s="7">
-        <v>1</v>
-      </c>
-      <c r="X127" s="21"/>
+      <c r="U127" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="V127" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="W127" s="33">
+        <v>2</v>
+      </c>
+      <c r="X127" s="34" t="s">
+        <v>434</v>
+      </c>
       <c r="Y127" s="7"/>
       <c r="AA127" s="7" t="s">
         <v>158</v>
@@ -7535,16 +7727,19 @@
       <c r="AC127" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B128" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="X128" s="20"/>
-    </row>
-    <row r="129" spans="2:37" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B129" s="22" t="s">
-        <v>425</v>
+      <c r="AQ127" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="128" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B128" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="X128" s="19"/>
+    </row>
+    <row r="129" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B129" s="21" t="s">
+        <v>417</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>155</v>
@@ -7574,14 +7769,18 @@
       <c r="S129" s="7">
         <v>1</v>
       </c>
-      <c r="U129" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="V129" s="7"/>
-      <c r="W129" s="7">
-        <v>1</v>
-      </c>
-      <c r="X129" s="21"/>
+      <c r="U129" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="V129" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="W129" s="33">
+        <v>1</v>
+      </c>
+      <c r="X129" s="34" t="s">
+        <v>435</v>
+      </c>
       <c r="Y129" s="7"/>
       <c r="AA129" s="7" t="s">
         <v>155</v>
@@ -7591,9 +7790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:37" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B130" s="22" t="s">
-        <v>426</v>
+    <row r="130" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B130" s="21" t="s">
+        <v>418</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>156</v>
@@ -7613,16 +7812,18 @@
       <c r="S130" s="7">
         <v>4</v>
       </c>
-      <c r="U130" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="V130" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W130" s="7">
-        <v>4</v>
-      </c>
-      <c r="X130" s="21"/>
+      <c r="U130" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="V130" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W130" s="33">
+        <v>2</v>
+      </c>
+      <c r="X130" s="34" t="s">
+        <v>436</v>
+      </c>
       <c r="Y130" s="7"/>
       <c r="AA130" s="7" t="s">
         <v>156</v>
@@ -7633,10 +7834,13 @@
       <c r="AC130" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="2:37" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B131" s="22" t="s">
-        <v>354</v>
+      <c r="AQ130" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="131" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B131" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>157</v>
@@ -7659,14 +7863,18 @@
       <c r="S131" s="7">
         <v>1</v>
       </c>
-      <c r="U131" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="V131" s="7"/>
-      <c r="W131" s="7">
-        <v>1</v>
-      </c>
-      <c r="X131" s="21"/>
+      <c r="U131" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="V131" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="W131" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="X131" s="34" t="s">
+        <v>437</v>
+      </c>
       <c r="Y131" s="7"/>
       <c r="AA131" s="7" t="s">
         <v>157</v>
@@ -7675,10 +7883,11 @@
       <c r="AC131" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:37" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B132" s="22" t="s">
-        <v>427</v>
+      <c r="AQ131" s="22"/>
+    </row>
+    <row r="132" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B132" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>158</v>
@@ -7694,14 +7903,18 @@
       <c r="S132" s="7">
         <v>1</v>
       </c>
-      <c r="U132" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="V132" s="7"/>
-      <c r="W132" s="7">
-        <v>1</v>
-      </c>
-      <c r="X132" s="21"/>
+      <c r="U132" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="V132" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="W132" s="33">
+        <v>2</v>
+      </c>
+      <c r="X132" s="34" t="s">
+        <v>438</v>
+      </c>
       <c r="Y132" s="7"/>
       <c r="AA132" s="7" t="s">
         <v>158</v>
@@ -7710,252 +7923,255 @@
       <c r="AC132" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="2:37" ht="12.75" customHeight="1">
-      <c r="B133" s="7"/>
-      <c r="E133" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="AQ132" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="133" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B133" s="21"/>
+      <c r="E133" s="7"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="G133" s="7"/>
+      <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
-      <c r="S133" s="7">
-        <v>1</v>
-      </c>
-      <c r="U133" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="V133" s="7"/>
-      <c r="W133" s="7">
-        <v>1</v>
-      </c>
-      <c r="X133" s="21"/>
+      <c r="S133" s="7"/>
       <c r="Y133" s="7"/>
-      <c r="AA133" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="AA133" s="7"/>
       <c r="AB133" s="7"/>
-      <c r="AC133" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="2:37" ht="12.75" customHeight="1">
+      <c r="AC133" s="7"/>
+      <c r="AQ133" s="22"/>
+    </row>
+    <row r="134" spans="2:43" ht="12.75" customHeight="1">
       <c r="B134" s="7"/>
       <c r="E134" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F134" s="7"/>
       <c r="G134" s="7">
-        <v>2</v>
-      </c>
-      <c r="M134" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="N134" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O134" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q134" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="R134" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="R134" s="7"/>
       <c r="S134" s="7">
-        <v>2</v>
-      </c>
-      <c r="U134" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="V134" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="U134" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="V134" s="7"/>
       <c r="W134" s="7">
-        <v>2</v>
-      </c>
-      <c r="X134" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="X134" s="20"/>
       <c r="Y134" s="7"/>
       <c r="AA134" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB134" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="AB134" s="7"/>
       <c r="AC134" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:37" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:43" ht="12.75" customHeight="1">
       <c r="B135" s="7"/>
       <c r="E135" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="7">
+        <v>2</v>
+      </c>
+      <c r="M135" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="N135" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O135" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q135" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="R135" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S135" s="7">
+        <v>2</v>
+      </c>
+      <c r="U135" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="V135" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W135" s="7">
+        <v>2</v>
+      </c>
+      <c r="X135" s="20"/>
+      <c r="Y135" s="7"/>
+      <c r="AA135" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB135" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC135" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:43" ht="12.75" customHeight="1">
+      <c r="B136" s="7"/>
+      <c r="E136" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G135" s="7">
-        <v>1</v>
-      </c>
-      <c r="M135" s="7" t="s">
+      <c r="G136" s="7">
+        <v>1</v>
+      </c>
+      <c r="M136" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="O135" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="7" t="s">
+      <c r="O136" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="S135" s="7">
-        <v>1</v>
-      </c>
-      <c r="U135" s="17" t="s">
+      <c r="S136" s="7">
+        <v>1</v>
+      </c>
+      <c r="U136" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="W135" s="7">
-        <v>1</v>
-      </c>
-      <c r="X135" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y135" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA135" s="7" t="s">
+      <c r="W136" s="7">
+        <v>1</v>
+      </c>
+      <c r="X136" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y136" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA136" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="AC135" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:37">
-      <c r="B137" s="2" t="s">
+      <c r="AC136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:43">
+      <c r="B138" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="2:37" ht="25.5">
-      <c r="B138" s="7" t="s">
+    <row r="139" spans="2:43" ht="25.5">
+      <c r="B139" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AI138" t="s">
+      <c r="AI139" t="s">
         <v>164</v>
       </c>
-      <c r="AJ138" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="2:37" ht="25.5">
-      <c r="B139" s="7" t="s">
+      <c r="AJ139" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:43" ht="25.5">
+      <c r="B140" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="AI139" t="s">
+      <c r="AI140" t="s">
         <v>166</v>
       </c>
-      <c r="AJ139" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="2:37" ht="25.5">
-      <c r="B140" s="7" t="s">
+      <c r="AJ140" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:43" ht="25.5">
+      <c r="B141" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AI140" t="s">
+      <c r="AI141" t="s">
         <v>168</v>
       </c>
-      <c r="AJ140" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="2:37" ht="25.5">
-      <c r="B141" s="7" t="s">
+      <c r="AJ141" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:43" ht="25.5">
+      <c r="B142" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AI141" t="s">
+      <c r="AI142" t="s">
         <v>170</v>
       </c>
-      <c r="AJ141" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="2:37" ht="25.5">
-      <c r="B142" s="7" t="s">
+      <c r="AJ142" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:43" ht="25.5">
+      <c r="B143" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="AI142" t="s">
+      <c r="AI143" t="s">
         <v>172</v>
       </c>
-      <c r="AJ142" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="2:37" ht="25.5">
-      <c r="B143" s="7" t="s">
+      <c r="AJ143" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:43" ht="25.5">
+      <c r="B144" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AI143" t="s">
+      <c r="AI144" t="s">
         <v>174</v>
       </c>
-      <c r="AJ143" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="2:37" ht="25.5">
-      <c r="B144" t="s">
+      <c r="AJ144" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:37" ht="25.5">
+      <c r="B145" t="s">
         <v>175</v>
       </c>
-      <c r="AI144" t="s">
+      <c r="AI145" t="s">
         <v>176</v>
       </c>
-      <c r="AJ144" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="2:37" ht="25.5">
-      <c r="B145" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI145" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ145" s="7" t="s">
-        <v>95</v>
+      <c r="AJ145" t="s">
+        <v>23</v>
       </c>
       <c r="AK145">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="2:37" ht="25.5">
       <c r="B146" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AI146" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AJ146" s="7" t="s">
         <v>95</v>
@@ -7966,10 +8182,10 @@
     </row>
     <row r="147" spans="2:37" ht="25.5">
       <c r="B147" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AI147" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AJ147" s="7" t="s">
         <v>95</v>
@@ -7980,10 +8196,10 @@
     </row>
     <row r="148" spans="2:37" ht="25.5">
       <c r="B148" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI148" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AJ148" s="7" t="s">
         <v>95</v>
@@ -7994,10 +8210,10 @@
     </row>
     <row r="149" spans="2:37" ht="25.5">
       <c r="B149" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AI149" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AJ149" s="7" t="s">
         <v>95</v>
@@ -8008,10 +8224,10 @@
     </row>
     <row r="150" spans="2:37" ht="25.5">
       <c r="B150" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI150" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AJ150" s="7" t="s">
         <v>95</v>
@@ -8022,10 +8238,10 @@
     </row>
     <row r="151" spans="2:37" ht="25.5">
       <c r="B151" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AI151" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AJ151" s="7" t="s">
         <v>95</v>
@@ -8036,10 +8252,10 @@
     </row>
     <row r="152" spans="2:37" ht="25.5">
       <c r="B152" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AI152" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AJ152" s="7" t="s">
         <v>95</v>
@@ -8050,10 +8266,10 @@
     </row>
     <row r="153" spans="2:37" ht="25.5">
       <c r="B153" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AI153" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AJ153" s="7" t="s">
         <v>95</v>
@@ -8064,10 +8280,10 @@
     </row>
     <row r="154" spans="2:37" ht="25.5">
       <c r="B154" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AI154" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AJ154" s="7" t="s">
         <v>95</v>
@@ -8078,10 +8294,10 @@
     </row>
     <row r="155" spans="2:37" ht="25.5">
       <c r="B155" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI155" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AJ155" s="7" t="s">
         <v>95</v>
@@ -8092,10 +8308,10 @@
     </row>
     <row r="156" spans="2:37" ht="25.5">
       <c r="B156" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AI156" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AJ156" s="7" t="s">
         <v>95</v>
@@ -8106,10 +8322,13 @@
     </row>
     <row r="157" spans="2:37" ht="25.5">
       <c r="B157" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI157" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="AJ157" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="AK157">
         <v>4</v>
@@ -8117,10 +8336,10 @@
     </row>
     <row r="158" spans="2:37" ht="25.5">
       <c r="B158" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AI158" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AK158">
         <v>4</v>
@@ -8128,10 +8347,10 @@
     </row>
     <row r="159" spans="2:37" ht="25.5">
       <c r="B159" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI159" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK159">
         <v>4</v>
@@ -8139,10 +8358,10 @@
     </row>
     <row r="160" spans="2:37" ht="25.5">
       <c r="B160" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AI160" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AK160">
         <v>4</v>
@@ -8150,10 +8369,10 @@
     </row>
     <row r="161" spans="2:37" ht="25.5">
       <c r="B161" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AI161" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK161">
         <v>4</v>
@@ -8161,10 +8380,10 @@
     </row>
     <row r="162" spans="2:37" ht="25.5">
       <c r="B162" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI162" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AK162">
         <v>4</v>
@@ -8172,10 +8391,10 @@
     </row>
     <row r="163" spans="2:37" ht="25.5">
       <c r="B163" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI163" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AK163">
         <v>4</v>
@@ -8183,10 +8402,10 @@
     </row>
     <row r="164" spans="2:37" ht="25.5">
       <c r="B164" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI164" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK164">
         <v>4</v>
@@ -8194,10 +8413,10 @@
     </row>
     <row r="165" spans="2:37" ht="25.5">
       <c r="B165" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AI165" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AK165">
         <v>4</v>
@@ -8205,10 +8424,10 @@
     </row>
     <row r="166" spans="2:37" ht="25.5">
       <c r="B166" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AI166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AK166">
         <v>4</v>
@@ -8216,10 +8435,10 @@
     </row>
     <row r="167" spans="2:37" ht="25.5">
       <c r="B167" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AI167" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AK167">
         <v>4</v>
@@ -8227,10 +8446,10 @@
     </row>
     <row r="168" spans="2:37" ht="25.5">
       <c r="B168" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AI168" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AK168">
         <v>4</v>
@@ -8238,24 +8457,21 @@
     </row>
     <row r="169" spans="2:37" ht="25.5">
       <c r="B169" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="2:37" ht="25.5">
+      <c r="B170" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="AI169" t="s">
+      <c r="AI170" t="s">
         <v>226</v>
-      </c>
-      <c r="AJ169" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="2:37" ht="25.5">
-      <c r="B170" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI170" t="s">
-        <v>228</v>
       </c>
       <c r="AJ170" t="s">
         <v>88</v>
@@ -8266,10 +8482,10 @@
     </row>
     <row r="171" spans="2:37" ht="25.5">
       <c r="B171" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AI171" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AJ171" t="s">
         <v>88</v>
@@ -8279,11 +8495,11 @@
       </c>
     </row>
     <row r="172" spans="2:37" ht="25.5">
-      <c r="B172" s="7" t="s">
-        <v>231</v>
+      <c r="B172" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="AI172" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AJ172" t="s">
         <v>88</v>
@@ -8294,10 +8510,10 @@
     </row>
     <row r="173" spans="2:37" ht="25.5">
       <c r="B173" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AI173" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AJ173" t="s">
         <v>88</v>
@@ -8308,10 +8524,10 @@
     </row>
     <row r="174" spans="2:37" ht="25.5">
       <c r="B174" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AI174" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ174" t="s">
         <v>88</v>
@@ -8322,10 +8538,10 @@
     </row>
     <row r="175" spans="2:37" ht="25.5">
       <c r="B175" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AI175" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AJ175" t="s">
         <v>88</v>
@@ -8336,10 +8552,10 @@
     </row>
     <row r="176" spans="2:37" ht="25.5">
       <c r="B176" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AI176" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AJ176" t="s">
         <v>88</v>
@@ -8350,10 +8566,10 @@
     </row>
     <row r="177" spans="2:41" ht="25.5">
       <c r="B177" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AI177" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AJ177" t="s">
         <v>88</v>
@@ -8364,10 +8580,10 @@
     </row>
     <row r="178" spans="2:41" ht="25.5">
       <c r="B178" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AI178" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AJ178" t="s">
         <v>88</v>
@@ -8378,10 +8594,10 @@
     </row>
     <row r="179" spans="2:41" ht="25.5">
       <c r="B179" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AI179" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AJ179" t="s">
         <v>88</v>
@@ -8392,10 +8608,10 @@
     </row>
     <row r="180" spans="2:41" ht="25.5">
       <c r="B180" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AI180" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AJ180" t="s">
         <v>88</v>
@@ -8404,34 +8620,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:41">
-      <c r="B181" s="7"/>
+    <row r="181" spans="2:41" ht="25.5">
+      <c r="B181" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK181">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="2:41">
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="7"/>
+    </row>
+    <row r="183" spans="2:41">
+      <c r="B183" s="2" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="183" spans="2:41" ht="25.5">
-      <c r="B183" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="AM183" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN183" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO183">
-        <v>2</v>
       </c>
     </row>
     <row r="184" spans="2:41" ht="25.5">
       <c r="B184" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM184" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN184" t="s">
         <v>23</v>
@@ -8442,10 +8658,10 @@
     </row>
     <row r="185" spans="2:41" ht="25.5">
       <c r="B185" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM185" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="AN185" t="s">
         <v>23</v>
@@ -8456,10 +8672,10 @@
     </row>
     <row r="186" spans="2:41" ht="25.5">
       <c r="B186" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM186" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AN186" t="s">
         <v>23</v>
@@ -8470,10 +8686,10 @@
     </row>
     <row r="187" spans="2:41" ht="25.5">
       <c r="B187" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM187" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AN187" t="s">
         <v>23</v>
@@ -8484,10 +8700,10 @@
     </row>
     <row r="188" spans="2:41" ht="25.5">
       <c r="B188" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM188" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AN188" t="s">
         <v>23</v>
@@ -8498,24 +8714,24 @@
     </row>
     <row r="189" spans="2:41" ht="25.5">
       <c r="B189" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AM189" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AN189" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="AO189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="2:41" ht="25.5">
       <c r="B190" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AM190" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AN190" t="s">
         <v>130</v>
@@ -8526,24 +8742,24 @@
     </row>
     <row r="191" spans="2:41" ht="25.5">
       <c r="B191" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AM191" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AN191" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="AO191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="2:41" ht="25.5">
       <c r="B192" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AM192" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AN192" t="s">
         <v>266</v>
@@ -8554,31 +8770,42 @@
     </row>
     <row r="193" spans="2:41" ht="25.5">
       <c r="B193" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AM193" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AN193" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="AO193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="2:41" ht="25.5">
       <c r="B194" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM194" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN194" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:41" ht="25.5">
+      <c r="B195" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="AM194" t="s">
+      <c r="AM195" t="s">
         <v>272</v>
       </c>
-      <c r="AO194">
+      <c r="AO195">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="2:41">
-      <c r="B195" s="7"/>
     </row>
     <row r="196" spans="2:41">
       <c r="B196" s="7"/>
@@ -8631,8 +8858,11 @@
     <row r="212" spans="2:2">
       <c r="B212" s="7"/>
     </row>
-    <row r="5207" spans="7:23" ht="12.75" customHeight="1"/>
+    <row r="213" spans="2:2">
+      <c r="B213" s="7"/>
+    </row>
     <row r="5208" spans="7:23" ht="12.75" customHeight="1"/>
+    <row r="5209" spans="7:23" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AA2:AC2"/>

--- a/Optolink_Logger_v3.xlsx
+++ b/Optolink_Logger_v3.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Viessmann-Control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="510" windowWidth="25080" windowHeight="11445"/>
   </bookViews>
@@ -18,10 +23,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
-    <author>Simon Bunn</author>
   </authors>
   <commentList>
-    <comment ref="V3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="0">
+    <comment ref="AF3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN3" authorId="0">
+    <comment ref="AN3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB11" authorId="0">
+    <comment ref="AB11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,56 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y13" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Always returns 200, i.e 20 degrees</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y14" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Always returns 200, i.e. 20.0 degrees C
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N26" authorId="0">
+    <comment ref="N26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N30" authorId="0">
+    <comment ref="N30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,32 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y35" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-always returns 200 i.e. 20.0 degrees
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB42" authorId="0">
+    <comment ref="AB42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,105 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y55" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-return FF, i.e. 255
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y59" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-always returns zero
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y60" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-always returns FD 71 which is 29181</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y61" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-does seem to record hours, but unclear what is the diifference between Hours1 and Hours2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC70" authorId="0">
+    <comment ref="AC70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,81 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y75" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-always 1?
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y76" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Always 1?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y77" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Always returns "FF" or 255
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O78" authorId="0">
+    <comment ref="O78" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O79" authorId="0">
+    <comment ref="O79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -401,31 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y80" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Always 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O82" authorId="0">
+    <comment ref="O82" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O83" authorId="0">
+    <comment ref="O83" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -454,32 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y83" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Always returns "FF" or 255
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G89" authorId="0">
+    <comment ref="G89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K89" authorId="0">
+    <comment ref="K89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -507,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O89" authorId="0">
+    <comment ref="O89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -519,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S89" authorId="0">
+    <comment ref="S89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -533,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W89" authorId="0">
+    <comment ref="W89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC89" authorId="0">
+    <comment ref="AC89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL89" authorId="0">
+    <comment ref="AL89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G90" authorId="0">
+    <comment ref="G90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W90" authorId="0">
+    <comment ref="W90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC90" authorId="0">
+    <comment ref="AC90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G91" authorId="0">
+    <comment ref="G91" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -631,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G92" authorId="0">
+    <comment ref="G92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K92" authorId="0">
+    <comment ref="K92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -657,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O92" authorId="0">
+    <comment ref="O92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S92" authorId="0">
+    <comment ref="S92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W92" authorId="0">
+    <comment ref="W92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC92" authorId="0">
+    <comment ref="AC92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K93" authorId="0">
+    <comment ref="K93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -722,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S93" authorId="0">
+    <comment ref="S93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W93" authorId="0">
+    <comment ref="W93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -748,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC93" authorId="0">
+    <comment ref="AC93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G100" authorId="0">
+    <comment ref="G100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O100" authorId="0">
+    <comment ref="O100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S100" authorId="0">
+    <comment ref="S100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -811,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W100" authorId="0">
+    <comment ref="W100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -828,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC100" authorId="0">
+    <comment ref="AC100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -845,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO100" authorId="0">
+    <comment ref="AO100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -860,79 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y102" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Can read and write, but has no effect on boiler</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y103" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-doesn't seem to do anything</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y104" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-doesn't seem to do anything</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G114" authorId="0">
+    <comment ref="G114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K114" authorId="0">
+    <comment ref="K114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -964,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O114" authorId="0">
+    <comment ref="O114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -980,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S114" authorId="0">
+    <comment ref="S114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W114" authorId="0">
+    <comment ref="W114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1012,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC114" authorId="0">
+    <comment ref="AC114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1028,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G116" authorId="0">
+    <comment ref="G116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K116" authorId="0">
+    <comment ref="K116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1056,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S116" authorId="0">
+    <comment ref="S116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1070,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W116" authorId="0">
+    <comment ref="W116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1084,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC116" authorId="0">
+    <comment ref="AC116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1098,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G117" authorId="0">
+    <comment ref="G117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1113,7 +750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S117" authorId="0">
+    <comment ref="S117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1128,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W117" authorId="0">
+    <comment ref="W117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1143,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC117" authorId="0">
+    <comment ref="AC117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1158,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G118" authorId="0">
+    <comment ref="G118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1171,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S118" authorId="0">
+    <comment ref="S118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1184,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W118" authorId="0">
+    <comment ref="W118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1197,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC118" authorId="0">
+    <comment ref="AC118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G123" authorId="0">
+    <comment ref="G123" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1223,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S123" authorId="0">
+    <comment ref="S123" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1236,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W123" authorId="0">
+    <comment ref="W123" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1249,7 +886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC123" authorId="0">
+    <comment ref="AC123" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1262,7 +899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G128" authorId="0">
+    <comment ref="G128" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1275,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S128" authorId="0">
+    <comment ref="S128" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1288,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W128" authorId="0">
+    <comment ref="W128" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1301,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC128" authorId="0">
+    <comment ref="AC128" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1314,31 +951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y136" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Simon Bunn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-always returns FF or -1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5208" authorId="0">
+    <comment ref="G5208" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1350,7 +963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5208" authorId="0">
+    <comment ref="S5208" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1362,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5208" authorId="0">
+    <comment ref="W5208" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1374,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5209" authorId="0">
+    <comment ref="G5209" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1386,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5209" authorId="0">
+    <comment ref="S5209" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5209" authorId="0">
+    <comment ref="W5209" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1415,7 +1028,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="470">
   <si>
     <t>V333MW1</t>
   </si>
@@ -2519,15 +2132,9 @@
     <t>getBoilerTemp2</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>getBoilerTempLP</t>
   </si>
   <si>
-    <t>getFlowTemp</t>
-  </si>
-  <si>
     <t>getBurnerOutput</t>
   </si>
   <si>
@@ -2544,9 +2151,6 @@
   </si>
   <si>
     <t>getCircPumpStatus</t>
-  </si>
-  <si>
-    <t>getPumpStatusSp</t>
   </si>
   <si>
     <t>getMixerPosition</t>
@@ -2803,16 +2407,58 @@
   </si>
   <si>
     <t>0..500</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>-60..60</t>
+  </si>
+  <si>
+    <t>UT2</t>
+  </si>
+  <si>
+    <t>0.00 .. 127.00</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>0..1,1500,000</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>getPumpStatus</t>
+  </si>
+  <si>
+    <t>/1</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>SetPartyTemp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2907,19 +2553,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -2929,19 +2562,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -3052,7 +2672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3090,14 +2710,51 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3110,48 +2767,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1115" name="Rectangle 91" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3197,7 +2879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3229,9 +2911,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3263,6 +2946,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3438,17 +3122,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AR5209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="T100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS91" sqref="AS91"/>
+      <selection pane="bottomRight" activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
@@ -3492,9 +3176,10 @@
     <col min="40" max="40" width="6.140625" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="2.42578125" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="18" customHeight="1">
+    <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>281</v>
       </c>
@@ -3538,54 +3223,54 @@
       <c r="AO1" s="15"/>
       <c r="AP1" s="15"/>
     </row>
-    <row r="2" spans="2:44" ht="21.75" customHeight="1">
-      <c r="E2" s="23" t="s">
+    <row r="2" spans="2:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="I2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="Q2" s="23" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="I2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="M2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="Q2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="U2" s="23" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="U2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="AA2" s="23" t="s">
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="AA2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AE2" s="25" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AE2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AI2" s="25" t="s">
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AI2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AM2" s="25" t="s">
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AM2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-    </row>
-    <row r="3" spans="2:44" ht="21.75" customHeight="1">
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+    </row>
+    <row r="3" spans="2:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
@@ -3672,13 +3357,13 @@
         <v>11</v>
       </c>
       <c r="AQ3" s="22" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AR3" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="2:44" ht="21.75" customHeight="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="2:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>282</v>
       </c>
@@ -3764,16 +3449,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:44" ht="12.75" customHeight="1">
+    <row r="5" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="2:44" ht="12.75" customHeight="1">
+    <row r="6" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>283</v>
       </c>
       <c r="X6" s="19"/>
-    </row>
-    <row r="7" spans="2:44" ht="12.75" customHeight="1">
+      <c r="Y6" s="23"/>
+    </row>
+    <row r="7" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>284</v>
       </c>
@@ -3810,7 +3496,7 @@
       <c r="X7" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="Y7" s="23" t="s">
         <v>354</v>
       </c>
       <c r="AI7" t="s">
@@ -3831,8 +3517,11 @@
       <c r="AO7" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:44" ht="12.75" customHeight="1">
+      <c r="AR7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>285</v>
       </c>
@@ -3878,11 +3567,14 @@
       <c r="X8" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="Y8" s="8" t="s">
+      <c r="Y8" s="23" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="9" spans="2:44" ht="12.75" customHeight="1">
+      <c r="AR8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>351</v>
       </c>
@@ -3928,7 +3620,7 @@
       <c r="X9" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Y9" s="8" t="s">
+      <c r="Y9" s="23" t="s">
         <v>354</v>
       </c>
       <c r="AI9" t="s">
@@ -3949,8 +3641,11 @@
       <c r="AO9" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:44" ht="12.75" customHeight="1">
+      <c r="AR9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>286</v>
       </c>
@@ -3985,6 +3680,7 @@
         <v>2</v>
       </c>
       <c r="X10" s="19"/>
+      <c r="Y10" s="23"/>
       <c r="AA10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4004,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:44" ht="12.75" customHeight="1">
+    <row r="11" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>287</v>
       </c>
@@ -4016,6 +3712,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="X11" s="19"/>
+      <c r="Y11" s="23"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -4029,7 +3726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:44" ht="12.75" customHeight="1">
+    <row r="12" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>288</v>
       </c>
@@ -4041,6 +3738,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="X12" s="19"/>
+      <c r="Y12" s="23"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -4054,7 +3752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:44" ht="12.75" customHeight="1">
+    <row r="13" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>289</v>
       </c>
@@ -4079,19 +3777,19 @@
       <c r="S13" s="7">
         <v>2</v>
       </c>
-      <c r="U13" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="V13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W13" s="33">
-        <v>2</v>
-      </c>
-      <c r="X13" s="34" t="s">
+      <c r="U13" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="V13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="30">
+        <v>2</v>
+      </c>
+      <c r="X13" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="Y13" s="8" t="s">
+      <c r="Y13" s="23" t="s">
         <v>354</v>
       </c>
       <c r="AA13" s="7" t="s">
@@ -4113,10 +3811,13 @@
         <v>2</v>
       </c>
       <c r="AQ13" s="22" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="2:44" ht="12.75" customHeight="1">
+        <v>455</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>290</v>
       </c>
@@ -4168,14 +3869,12 @@
       <c r="W14" s="7">
         <v>2</v>
       </c>
-      <c r="X14" s="45" t="s">
+      <c r="X14" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="Y14" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="2:44" ht="12.75" customHeight="1">
+      <c r="Y14" s="23"/>
+    </row>
+    <row r="15" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>291</v>
       </c>
@@ -4218,14 +3917,12 @@
       <c r="W15" s="7">
         <v>2</v>
       </c>
-      <c r="X15" s="45" t="s">
+      <c r="X15" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="Y15" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="16" spans="2:44" ht="12.75" customHeight="1">
+      <c r="Y15" s="23"/>
+    </row>
+    <row r="16" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>292</v>
       </c>
@@ -4239,6 +3936,7 @@
         <v>2</v>
       </c>
       <c r="X16" s="19"/>
+      <c r="Y16" s="23"/>
       <c r="AI16" t="s">
         <v>41</v>
       </c>
@@ -4249,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:41" ht="12.75" customHeight="1">
+    <row r="17" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>293</v>
       </c>
@@ -4289,12 +3987,10 @@
       <c r="W17" s="7">
         <v>2</v>
       </c>
-      <c r="X17" s="34" t="s">
+      <c r="X17" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="Y17" s="8" t="s">
-        <v>354</v>
-      </c>
+      <c r="Y17" s="23"/>
       <c r="AA17" s="7" t="s">
         <v>42</v>
       </c>
@@ -4322,8 +4018,14 @@
       <c r="AO17" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:41" ht="12.75" customHeight="1">
+      <c r="AQ17" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>294</v>
       </c>
@@ -4366,9 +4068,7 @@
       <c r="X18" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="Y18" s="8" t="s">
-        <v>354</v>
-      </c>
+      <c r="Y18" s="23"/>
       <c r="AA18" s="7" t="s">
         <v>44</v>
       </c>
@@ -4387,8 +4087,14 @@
       <c r="AG18" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:41" ht="12.75" customHeight="1">
+      <c r="AQ18" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>295</v>
       </c>
@@ -4402,8 +4108,9 @@
         <v>2</v>
       </c>
       <c r="X19" s="19"/>
-    </row>
-    <row r="20" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y19" s="23"/>
+    </row>
+    <row r="20" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>296</v>
       </c>
@@ -4417,8 +4124,9 @@
         <v>2</v>
       </c>
       <c r="X20" s="19"/>
-    </row>
-    <row r="21" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y20" s="23"/>
+    </row>
+    <row r="21" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>297</v>
       </c>
@@ -4432,8 +4140,9 @@
         <v>2</v>
       </c>
       <c r="X21" s="19"/>
-    </row>
-    <row r="22" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y21" s="23"/>
+    </row>
+    <row r="22" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>298</v>
       </c>
@@ -4447,8 +4156,9 @@
         <v>2</v>
       </c>
       <c r="X22" s="19"/>
-    </row>
-    <row r="23" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y22" s="23"/>
+    </row>
+    <row r="23" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>299</v>
       </c>
@@ -4462,6 +4172,7 @@
         <v>2</v>
       </c>
       <c r="X23" s="19"/>
+      <c r="Y23" s="23"/>
       <c r="AM23" t="s">
         <v>50</v>
       </c>
@@ -4472,7 +4183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:41" ht="12.75" customHeight="1">
+    <row r="24" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>300</v>
       </c>
@@ -4504,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="X24" s="20"/>
-      <c r="Y24" s="7"/>
+      <c r="Y24" s="23"/>
       <c r="AA24" s="7" t="s">
         <v>51</v>
       </c>
@@ -4533,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="12.75" customHeight="1">
+    <row r="25" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>301</v>
       </c>
@@ -4547,6 +4258,7 @@
         <v>2</v>
       </c>
       <c r="X25" s="19"/>
+      <c r="Y25" s="23"/>
       <c r="AI25" t="s">
         <v>54</v>
       </c>
@@ -4557,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:41" ht="12.75" customHeight="1">
+    <row r="26" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>302</v>
       </c>
@@ -4571,9 +4283,9 @@
         <v>2</v>
       </c>
       <c r="X26" s="20"/>
-      <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y26" s="23"/>
+    </row>
+    <row r="27" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>303</v>
       </c>
@@ -4616,14 +4328,19 @@
       <c r="X27" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="Y27" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y27" s="23"/>
+      <c r="AQ27" t="s">
+        <v>459</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X28" s="19"/>
-    </row>
-    <row r="29" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y28" s="23"/>
+    </row>
+    <row r="29" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>304</v>
       </c>
@@ -4670,12 +4387,10 @@
       <c r="W29" s="7">
         <v>2</v>
       </c>
-      <c r="X29" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y29" s="8" t="s">
-        <v>354</v>
-      </c>
+      <c r="X29" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y29" s="23"/>
       <c r="AA29" s="7" t="s">
         <v>58</v>
       </c>
@@ -4695,9 +4410,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:41" ht="12.75" customHeight="1">
+    <row r="30" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>27</v>
@@ -4747,10 +4462,12 @@
       <c r="W30" s="17">
         <v>2</v>
       </c>
-      <c r="X30" s="34" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y30" s="7"/>
+      <c r="X30" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y30" s="23" t="s">
+        <v>354</v>
+      </c>
       <c r="AA30" s="7" t="s">
         <v>59</v>
       </c>
@@ -4779,9 +4496,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:41" ht="12.75" customHeight="1">
+    <row r="31" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>30</v>
@@ -4831,10 +4548,12 @@
       <c r="W31" s="17">
         <v>2</v>
       </c>
-      <c r="X31" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y31" s="7"/>
+      <c r="X31" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y31" s="23" t="s">
+        <v>354</v>
+      </c>
       <c r="AA31" s="7" t="s">
         <v>60</v>
       </c>
@@ -4857,7 +4576,7 @@
       <c r="AN31" s="7"/>
       <c r="AO31" s="7"/>
     </row>
-    <row r="32" spans="2:41" ht="12.75" customHeight="1">
+    <row r="32" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>305</v>
       </c>
@@ -4892,7 +4611,7 @@
         <v>2</v>
       </c>
       <c r="X32" s="20"/>
-      <c r="Y32" s="7"/>
+      <c r="Y32" s="23"/>
       <c r="AE32" s="7" t="s">
         <v>61</v>
       </c>
@@ -4903,7 +4622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:43" ht="12.75" customHeight="1">
+    <row r="33" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>306</v>
       </c>
@@ -4943,10 +4662,12 @@
       <c r="W33" s="17">
         <v>2</v>
       </c>
-      <c r="X33" s="34" t="s">
+      <c r="X33" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="Y33" s="7"/>
+      <c r="Y33" s="23" t="s">
+        <v>354</v>
+      </c>
       <c r="AE33" s="7" t="s">
         <v>62</v>
       </c>
@@ -4957,10 +4678,13 @@
         <v>2</v>
       </c>
       <c r="AQ33" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="34" spans="2:43" ht="12.75" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>307</v>
       </c>
@@ -5000,17 +4724,22 @@
       <c r="W34" s="17">
         <v>2</v>
       </c>
-      <c r="X34" s="34" t="s">
+      <c r="X34" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="Y34" s="7"/>
+      <c r="Y34" s="23" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ34" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="35" spans="2:43" ht="12.75" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>64</v>
@@ -5033,7 +4762,7 @@
       <c r="S35" s="7">
         <v>2</v>
       </c>
-      <c r="U35" s="37" t="s">
+      <c r="U35" s="34" t="s">
         <v>71</v>
       </c>
       <c r="V35" s="7" t="s">
@@ -5042,12 +4771,10 @@
       <c r="W35" s="7">
         <v>2</v>
       </c>
-      <c r="X35" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="Y35" s="8" t="s">
-        <v>354</v>
-      </c>
+      <c r="X35" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y35" s="23"/>
       <c r="AA35" s="7" t="s">
         <v>65</v>
       </c>
@@ -5058,12 +4785,12 @@
         <v>2</v>
       </c>
       <c r="AQ35" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="2:43" ht="12.75" customHeight="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>66</v>
@@ -5086,9 +4813,10 @@
       <c r="W36" s="7">
         <v>2</v>
       </c>
-      <c r="X36" s="44" t="s">
-        <v>449</v>
-      </c>
+      <c r="X36" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y36" s="23"/>
       <c r="AA36" s="7" t="s">
         <v>67</v>
       </c>
@@ -5099,12 +4827,12 @@
         <v>2</v>
       </c>
       <c r="AQ36" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="21" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B37" s="21" t="s">
-        <v>447</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>68</v>
@@ -5124,14 +4852,15 @@
       <c r="W37" s="21">
         <v>2</v>
       </c>
-      <c r="X37" s="44" t="s">
-        <v>450</v>
-      </c>
+      <c r="X37" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y37" s="23"/>
       <c r="AQ37" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="38" spans="2:43" ht="12.75" customHeight="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>308</v>
       </c>
@@ -5163,18 +4892,20 @@
         <v>2</v>
       </c>
       <c r="X38" s="20"/>
-      <c r="Y38" s="7"/>
-    </row>
-    <row r="39" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y38" s="23"/>
+    </row>
+    <row r="39" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X39" s="19"/>
-    </row>
-    <row r="40" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y39" s="23"/>
+    </row>
+    <row r="40" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>309</v>
       </c>
       <c r="X40" s="19"/>
-    </row>
-    <row r="41" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y40" s="23"/>
+    </row>
+    <row r="41" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>292</v>
       </c>
@@ -5188,8 +4919,9 @@
         <v>2</v>
       </c>
       <c r="X41" s="19"/>
-    </row>
-    <row r="42" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y41" s="23"/>
+    </row>
+    <row r="42" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>299</v>
       </c>
@@ -5229,21 +4961,11 @@
       <c r="S42" s="7">
         <v>2</v>
       </c>
-      <c r="U42" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="V42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W42" s="7">
-        <v>2</v>
-      </c>
-      <c r="X42" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y42" s="8" t="s">
-        <v>365</v>
-      </c>
+      <c r="U42" s="23"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="23"/>
       <c r="AA42" s="7" t="s">
         <v>71</v>
       </c>
@@ -5254,11 +4976,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:43" ht="12.75" customHeight="1">
+    <row r="43" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>310</v>
       </c>
       <c r="X43" s="19"/>
+      <c r="Y43" s="23"/>
       <c r="AA43" s="7" t="s">
         <v>72</v>
       </c>
@@ -5269,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:43" ht="12.75" customHeight="1">
+    <row r="44" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>300</v>
       </c>
@@ -5292,6 +5015,7 @@
         <v>2</v>
       </c>
       <c r="X44" s="19"/>
+      <c r="Y44" s="23"/>
       <c r="AA44" s="7" t="s">
         <v>73</v>
       </c>
@@ -5302,7 +5026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:43" ht="12.75" customHeight="1">
+    <row r="45" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>301</v>
       </c>
@@ -5316,6 +5040,7 @@
         <v>2</v>
       </c>
       <c r="X45" s="19"/>
+      <c r="Y45" s="23"/>
       <c r="AI45" t="s">
         <v>75</v>
       </c>
@@ -5326,7 +5051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:43" ht="12.75" customHeight="1">
+    <row r="46" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>311</v>
       </c>
@@ -5340,8 +5065,9 @@
         <v>2</v>
       </c>
       <c r="X46" s="19"/>
-    </row>
-    <row r="47" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y46" s="23"/>
+    </row>
+    <row r="47" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>312</v>
       </c>
@@ -5372,20 +5098,20 @@
       <c r="S47" s="7">
         <v>2</v>
       </c>
-      <c r="U47" s="33" t="s">
+      <c r="U47" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="V47" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W47" s="33">
-        <v>2</v>
-      </c>
-      <c r="X47" s="34" t="s">
+      <c r="V47" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W47" s="30">
+        <v>2</v>
+      </c>
+      <c r="X47" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="Y47" s="8" t="s">
-        <v>365</v>
+      <c r="Y47" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>77</v>
@@ -5406,10 +5132,13 @@
         <v>2</v>
       </c>
       <c r="AQ47" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="2:43" ht="12.75" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="AR47" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="48" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>295</v>
       </c>
@@ -5423,8 +5152,9 @@
         <v>2</v>
       </c>
       <c r="X48" s="19"/>
-    </row>
-    <row r="49" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y48" s="23"/>
+    </row>
+    <row r="49" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>296</v>
       </c>
@@ -5438,8 +5168,9 @@
         <v>2</v>
       </c>
       <c r="X49" s="19"/>
-    </row>
-    <row r="50" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y49" s="23"/>
+    </row>
+    <row r="50" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>297</v>
       </c>
@@ -5453,8 +5184,9 @@
         <v>2</v>
       </c>
       <c r="X50" s="19"/>
-    </row>
-    <row r="51" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y50" s="23"/>
+    </row>
+    <row r="51" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>298</v>
       </c>
@@ -5468,17 +5200,20 @@
         <v>2</v>
       </c>
       <c r="X51" s="19"/>
-    </row>
-    <row r="52" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y51" s="23"/>
+    </row>
+    <row r="52" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X52" s="19"/>
-    </row>
-    <row r="53" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y52" s="23"/>
+    </row>
+    <row r="53" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>313</v>
       </c>
       <c r="X53" s="19"/>
-    </row>
-    <row r="54" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y53" s="23"/>
+    </row>
+    <row r="54" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>314</v>
       </c>
@@ -5510,9 +5245,9 @@
         <v>1</v>
       </c>
       <c r="X54" s="20"/>
-      <c r="Y54" s="7"/>
-    </row>
-    <row r="55" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y54" s="23"/>
+    </row>
+    <row r="55" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>315</v>
       </c>
@@ -5544,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y55" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="Y55" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>86</v>
@@ -5558,8 +5293,11 @@
       <c r="AC55" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:43" ht="12.75" customHeight="1">
+      <c r="AR55" s="22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>316</v>
       </c>
@@ -5591,11 +5329,11 @@
         <v>1</v>
       </c>
       <c r="X56" s="20"/>
-      <c r="Y56" s="7"/>
-    </row>
-    <row r="57" spans="2:43" ht="12.75" customHeight="1">
+      <c r="Y56" s="23"/>
+    </row>
+    <row r="57" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>89</v>
@@ -5615,26 +5353,29 @@
       <c r="S57" s="7">
         <v>1</v>
       </c>
-      <c r="U57" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="V57" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="W57" s="33">
-        <v>1</v>
-      </c>
-      <c r="X57" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y57" s="7"/>
+      <c r="U57" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="V57" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="W57" s="30">
+        <v>1</v>
+      </c>
+      <c r="X57" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y57" s="23"/>
       <c r="AQ57" s="22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="2:43" ht="12.75" customHeight="1">
+      <c r="AR57" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>90</v>
@@ -5654,24 +5395,27 @@
       <c r="S58" s="7">
         <v>1</v>
       </c>
-      <c r="U58" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="V58" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="W58" s="33">
-        <v>1</v>
-      </c>
-      <c r="X58" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y58" s="7"/>
+      <c r="U58" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="V58" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="W58" s="30">
+        <v>1</v>
+      </c>
+      <c r="X58" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y58" s="23"/>
       <c r="AQ58" s="22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="2:43" ht="12.75" customHeight="1">
+      <c r="AR58" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>317</v>
       </c>
@@ -5703,13 +5447,11 @@
         <v>4</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y59" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" spans="2:43" ht="12.75" customHeight="1">
+        <v>367</v>
+      </c>
+      <c r="Y59" s="23"/>
+    </row>
+    <row r="60" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>318</v>
       </c>
@@ -5737,11 +5479,11 @@
       <c r="W60" s="7">
         <v>4</v>
       </c>
-      <c r="X60" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y60" s="8" t="s">
-        <v>365</v>
+      <c r="X60" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y60" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="AA60" s="7" t="s">
         <v>93</v>
@@ -5761,8 +5503,14 @@
       <c r="AO60" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="2:43" ht="12.75" customHeight="1">
+      <c r="AQ60" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="AR60" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>319</v>
       </c>
@@ -5802,10 +5550,10 @@
       <c r="W61" s="17">
         <v>4</v>
       </c>
-      <c r="X61" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y61" s="8" t="s">
+      <c r="X61" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y61" s="22" t="s">
         <v>354</v>
       </c>
       <c r="AA61" s="7" t="s">
@@ -5835,8 +5583,11 @@
       <c r="AO61" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="2:43" ht="12.75" customHeight="1">
+      <c r="AR61" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>320</v>
       </c>
@@ -5867,28 +5618,33 @@
       <c r="W62" s="17">
         <v>4</v>
       </c>
-      <c r="X62" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y62" s="8" t="s">
+      <c r="X62" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y62" s="22" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="63" spans="2:43" ht="12.75" hidden="1" customHeight="1">
+      <c r="AR62" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X63" s="19"/>
-    </row>
-    <row r="64" spans="2:43" ht="12.75" hidden="1" customHeight="1">
-      <c r="B64" s="27" t="s">
+      <c r="Y63" s="23"/>
+    </row>
+    <row r="64" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="28"/>
+      <c r="C64" s="25"/>
       <c r="X64" s="19"/>
-    </row>
-    <row r="65" spans="2:41" ht="12.75" hidden="1" customHeight="1">
-      <c r="B65" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="C65" s="30"/>
+      <c r="Y64" s="23"/>
+    </row>
+    <row r="65" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="27"/>
       <c r="M65" s="7" t="s">
         <v>100</v>
       </c>
@@ -5899,6 +5655,7 @@
         <v>2</v>
       </c>
       <c r="X65" s="19"/>
+      <c r="Y65" s="23"/>
       <c r="AA65" s="7" t="s">
         <v>100</v>
       </c>
@@ -5927,11 +5684,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:41" ht="12.75" hidden="1" customHeight="1">
-      <c r="B66" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="C66" s="28"/>
+    <row r="66" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C66" s="25"/>
       <c r="M66" s="7" t="s">
         <v>102</v>
       </c>
@@ -5939,6 +5696,7 @@
         <v>2</v>
       </c>
       <c r="X66" s="19"/>
+      <c r="Y66" s="23"/>
       <c r="AA66" s="7" t="s">
         <v>102</v>
       </c>
@@ -5952,7 +5710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:41" ht="12.75" hidden="1" customHeight="1">
+    <row r="67" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>103</v>
       </c>
@@ -5966,6 +5724,7 @@
         <v>1</v>
       </c>
       <c r="X67" s="19"/>
+      <c r="Y67" s="23"/>
       <c r="AA67" s="7" t="s">
         <v>104</v>
       </c>
@@ -5976,9 +5735,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:41" ht="12.75" hidden="1" customHeight="1">
+    <row r="68" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M68" s="7" t="s">
         <v>105</v>
@@ -5990,6 +5749,7 @@
         <v>1</v>
       </c>
       <c r="X68" s="19"/>
+      <c r="Y68" s="23"/>
       <c r="AA68" s="7" t="s">
         <v>105</v>
       </c>
@@ -6000,9 +5760,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:41" ht="12.75" hidden="1" customHeight="1">
+    <row r="69" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>106</v>
@@ -6014,6 +5774,7 @@
         <v>2</v>
       </c>
       <c r="X69" s="19"/>
+      <c r="Y69" s="23"/>
       <c r="AA69" s="7" t="s">
         <v>106</v>
       </c>
@@ -6033,7 +5794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:41" ht="12.75" hidden="1" customHeight="1">
+    <row r="70" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>108</v>
       </c>
@@ -6041,6 +5802,7 @@
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
       <c r="X70" s="19"/>
+      <c r="Y70" s="23"/>
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
@@ -6054,9 +5816,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:41" ht="12.75" hidden="1" customHeight="1">
+    <row r="71" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>109</v>
@@ -6068,6 +5830,7 @@
         <v>2</v>
       </c>
       <c r="X71" s="19"/>
+      <c r="Y71" s="23"/>
       <c r="AA71" s="7" t="s">
         <v>109</v>
       </c>
@@ -6087,12 +5850,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:41" ht="12.75" hidden="1" customHeight="1">
+    <row r="72" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N72" s="22" t="s">
         <v>110</v>
@@ -6101,6 +5864,7 @@
         <v>4</v>
       </c>
       <c r="X72" s="19"/>
+      <c r="Y72" s="23"/>
       <c r="AA72" s="7" t="s">
         <v>111</v>
       </c>
@@ -6109,16 +5873,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:41" ht="12.75" customHeight="1">
+    <row r="73" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X73" s="19"/>
-    </row>
-    <row r="74" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y73" s="23"/>
+    </row>
+    <row r="74" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>321</v>
       </c>
       <c r="X74" s="19"/>
-    </row>
-    <row r="75" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y74" s="23"/>
+    </row>
+    <row r="75" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
         <v>352</v>
       </c>
@@ -6152,16 +5918,16 @@
       <c r="U75" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="V75" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="W75" s="33">
-        <v>1</v>
-      </c>
-      <c r="X75" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y75" s="8" t="s">
+      <c r="V75" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="W75" s="30">
+        <v>1</v>
+      </c>
+      <c r="X75" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y75" s="22" t="s">
         <v>354</v>
       </c>
       <c r="AA75" s="7" t="s">
@@ -6173,10 +5939,16 @@
       <c r="AC75" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:41" ht="12.75" customHeight="1">
+      <c r="AQ75" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR75" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>114</v>
@@ -6208,16 +5980,16 @@
       <c r="U76" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="V76" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="W76" s="33">
-        <v>1</v>
-      </c>
-      <c r="X76" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y76" s="8" t="s">
+      <c r="V76" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="W76" s="30">
+        <v>1</v>
+      </c>
+      <c r="X76" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y76" s="22" t="s">
         <v>354</v>
       </c>
       <c r="AA76" s="7" t="s">
@@ -6229,8 +6001,14 @@
       <c r="AC76" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:41" ht="12.75" customHeight="1">
+      <c r="AQ76" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR76" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>322</v>
       </c>
@@ -6262,10 +6040,10 @@
         <v>1</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y77" s="8" t="s">
-        <v>365</v>
+        <v>372</v>
+      </c>
+      <c r="Y77" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>116</v>
@@ -6276,8 +6054,14 @@
       <c r="AC77" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:41" ht="12.75" customHeight="1">
+      <c r="AQ77" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR77" s="22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>323</v>
       </c>
@@ -6291,8 +6075,9 @@
         <v>1</v>
       </c>
       <c r="X78" s="19"/>
-    </row>
-    <row r="79" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y78" s="23"/>
+    </row>
+    <row r="79" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>324</v>
       </c>
@@ -6306,8 +6091,9 @@
         <v>1</v>
       </c>
       <c r="X79" s="19"/>
-    </row>
-    <row r="80" spans="2:41" ht="12.75" customHeight="1">
+      <c r="Y79" s="23"/>
+    </row>
+    <row r="80" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>325</v>
       </c>
@@ -6338,23 +6124,21 @@
       <c r="S80" s="7">
         <v>1</v>
       </c>
-      <c r="U80" s="46" t="s">
+      <c r="U80" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="V80" s="47" t="s">
+      <c r="V80" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="W80" s="47">
-        <v>1</v>
-      </c>
-      <c r="X80" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y80" s="47" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="2:38" ht="12.75" customHeight="1">
+      <c r="W80" s="43">
+        <v>1</v>
+      </c>
+      <c r="X80" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y80" s="23"/>
+    </row>
+    <row r="81" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>326</v>
       </c>
@@ -6377,6 +6161,7 @@
         <v>2</v>
       </c>
       <c r="X81" s="19"/>
+      <c r="Y81" s="23"/>
       <c r="AA81" s="7" t="s">
         <v>122</v>
       </c>
@@ -6387,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:38" ht="12.75" customHeight="1">
+    <row r="82" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>327</v>
       </c>
@@ -6401,8 +6186,9 @@
         <v>1</v>
       </c>
       <c r="X82" s="19"/>
-    </row>
-    <row r="83" spans="2:38" ht="12.75" customHeight="1">
+      <c r="Y82" s="23"/>
+    </row>
+    <row r="83" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
         <v>328</v>
       </c>
@@ -6434,10 +6220,10 @@
         <v>1</v>
       </c>
       <c r="X83" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y83" s="21" t="s">
-        <v>365</v>
+        <v>374</v>
+      </c>
+      <c r="Y83" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="AA83" s="7" t="s">
         <v>125</v>
@@ -6448,8 +6234,14 @@
       <c r="AC83" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="2:38" ht="12.75" customHeight="1">
+      <c r="AQ83" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR83" s="22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="84" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
         <v>329</v>
       </c>
@@ -6463,8 +6255,9 @@
         <v>2</v>
       </c>
       <c r="X84" s="19"/>
-    </row>
-    <row r="85" spans="2:38" ht="12.75" customHeight="1">
+      <c r="Y84" s="23"/>
+    </row>
+    <row r="85" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="7" t="s">
         <v>330</v>
       </c>
@@ -6478,8 +6271,9 @@
         <v>1</v>
       </c>
       <c r="X85" s="19"/>
-    </row>
-    <row r="86" spans="2:38" ht="12.75" customHeight="1">
+      <c r="Y85" s="23"/>
+    </row>
+    <row r="86" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
         <v>331</v>
       </c>
@@ -6493,6 +6287,7 @@
         <v>1</v>
       </c>
       <c r="X86" s="19"/>
+      <c r="Y86" s="23"/>
       <c r="AA86" s="7" t="s">
         <v>129</v>
       </c>
@@ -6503,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:38" ht="12.75" customHeight="1">
+    <row r="87" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
         <v>332</v>
       </c>
@@ -6517,6 +6312,7 @@
         <v>1</v>
       </c>
       <c r="X87" s="19"/>
+      <c r="Y87" s="23"/>
       <c r="AA87" s="7" t="s">
         <v>131</v>
       </c>
@@ -6527,16 +6323,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:38" ht="12.75" customHeight="1">
+    <row r="88" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X88" s="19"/>
-    </row>
-    <row r="89" spans="2:38" ht="12.75" customHeight="1">
+      <c r="Y88" s="23"/>
+    </row>
+    <row r="89" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>333</v>
       </c>
       <c r="X89" s="19"/>
-    </row>
-    <row r="90" spans="2:38" ht="12.75" customHeight="1">
+      <c r="Y89" s="23"/>
+    </row>
+    <row r="90" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
         <v>334</v>
       </c>
@@ -6586,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="X90" s="20"/>
-      <c r="Y90" s="7"/>
+      <c r="Y90" s="23"/>
       <c r="AA90" s="7" t="s">
         <v>132</v>
       </c>
@@ -6597,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:38" ht="12.75" customHeight="1">
+    <row r="91" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>335</v>
       </c>
@@ -6629,15 +6427,11 @@
       <c r="S91" s="7">
         <v>22</v>
       </c>
-      <c r="U91" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="U91" s="7"/>
       <c r="V91" s="7"/>
-      <c r="W91" s="7">
-        <v>22</v>
-      </c>
+      <c r="W91" s="7"/>
       <c r="X91" s="20"/>
-      <c r="Y91" s="7"/>
+      <c r="Y91" s="23"/>
       <c r="AA91" s="7" t="s">
         <v>134</v>
       </c>
@@ -6653,7 +6447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="2:38" ht="12.75" customHeight="1">
+    <row r="92" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
         <v>336</v>
       </c>
@@ -6664,15 +6458,11 @@
       <c r="G92" s="7">
         <v>22</v>
       </c>
-      <c r="U92" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="U92" s="7"/>
       <c r="V92" s="7"/>
-      <c r="W92" s="7">
-        <v>22</v>
-      </c>
+      <c r="W92" s="7"/>
       <c r="X92" s="20"/>
-      <c r="Y92" s="7"/>
+      <c r="Y92" s="23"/>
       <c r="AA92" s="7" t="s">
         <v>135</v>
       </c>
@@ -6681,7 +6471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="2:38" ht="12.75" customHeight="1">
+    <row r="93" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>337</v>
       </c>
@@ -6693,8 +6483,9 @@
         <v>22</v>
       </c>
       <c r="X93" s="19"/>
-    </row>
-    <row r="94" spans="2:38" ht="12.75" customHeight="1">
+      <c r="Y93" s="23"/>
+    </row>
+    <row r="94" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
         <v>338</v>
       </c>
@@ -6734,17 +6525,11 @@
       <c r="S94" s="7">
         <v>2</v>
       </c>
-      <c r="U94" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="V94" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W94" s="7">
-        <v>2</v>
-      </c>
+      <c r="U94" s="7"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="7"/>
       <c r="X94" s="20"/>
-      <c r="Y94" s="7"/>
+      <c r="Y94" s="23"/>
       <c r="AA94" s="7" t="s">
         <v>86</v>
       </c>
@@ -6755,7 +6540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:38" ht="12.75" customHeight="1">
+    <row r="95" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
         <v>339</v>
       </c>
@@ -6777,17 +6562,11 @@
       <c r="S95" s="7">
         <v>2</v>
       </c>
-      <c r="U95" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="V95" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W95" s="7">
-        <v>2</v>
-      </c>
+      <c r="U95" s="7"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="7"/>
       <c r="X95" s="20"/>
-      <c r="Y95" s="7"/>
+      <c r="Y95" s="23"/>
       <c r="AA95" s="7" t="s">
         <v>138</v>
       </c>
@@ -6798,16 +6577,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:38" ht="12.75" hidden="1" customHeight="1">
+    <row r="96" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X96" s="19"/>
-    </row>
-    <row r="97" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+      <c r="Y96" s="23"/>
+    </row>
+    <row r="97" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>340</v>
       </c>
       <c r="X97" s="19"/>
-    </row>
-    <row r="98" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+      <c r="Y97" s="23"/>
+    </row>
+    <row r="98" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
         <v>341</v>
       </c>
@@ -6839,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="X98" s="20"/>
-      <c r="Y98" s="7"/>
+      <c r="Y98" s="23"/>
       <c r="AA98" s="7" t="s">
         <v>139</v>
       </c>
@@ -6850,19 +6631,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="99" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X99" s="19"/>
-    </row>
-    <row r="100" spans="2:44" ht="12.75" customHeight="1">
+      <c r="Y99" s="23"/>
+    </row>
+    <row r="100" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X100" s="19"/>
-    </row>
-    <row r="101" spans="2:44" ht="24.75" customHeight="1">
-      <c r="B101" s="38" t="s">
-        <v>406</v>
+      <c r="Y100" s="23"/>
+    </row>
+    <row r="101" spans="2:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="35" t="s">
+        <v>403</v>
       </c>
       <c r="X101" s="19"/>
-    </row>
-    <row r="102" spans="2:44" ht="12.75" customHeight="1">
+      <c r="Y101" s="23"/>
+    </row>
+    <row r="102" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
         <v>342</v>
       </c>
@@ -6877,7 +6661,7 @@
         <v>141</v>
       </c>
       <c r="N102" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O102" s="7">
         <v>1</v>
@@ -6889,19 +6673,19 @@
       <c r="S102" s="7">
         <v>1</v>
       </c>
-      <c r="U102" s="33" t="s">
+      <c r="U102" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="V102" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="W102" s="33">
-        <v>1</v>
-      </c>
-      <c r="X102" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="Y102" s="21" t="s">
+      <c r="V102" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="W102" s="30">
+        <v>1</v>
+      </c>
+      <c r="X102" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y102" s="22" t="s">
         <v>354</v>
       </c>
       <c r="AA102" s="7" t="s">
@@ -6918,13 +6702,16 @@
       <c r="AO102">
         <v>1</v>
       </c>
+      <c r="AQ102" s="22" t="s">
+        <v>397</v>
+      </c>
       <c r="AR102" s="22" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="103" spans="2:44" ht="12.75" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="21" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>142</v>
@@ -6953,19 +6740,19 @@
       <c r="S103" s="7">
         <v>1</v>
       </c>
-      <c r="U103" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="V103" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="W103" s="33">
-        <v>1</v>
-      </c>
-      <c r="X103" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y103" s="21" t="s">
+      <c r="U103" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="V103" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="W103" s="30">
+        <v>1</v>
+      </c>
+      <c r="X103" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y103" s="22" t="s">
         <v>354</v>
       </c>
       <c r="AA103" s="7" t="s">
@@ -6977,10 +6764,16 @@
       <c r="AC103" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:44" ht="12.75" customHeight="1">
+      <c r="AQ103" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR103" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="104" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>143</v>
@@ -7009,19 +6802,19 @@
       <c r="S104" s="7">
         <v>1</v>
       </c>
-      <c r="U104" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="V104" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="W104" s="33">
-        <v>1</v>
-      </c>
-      <c r="X104" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y104" s="21" t="s">
+      <c r="U104" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="V104" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="W104" s="30">
+        <v>1</v>
+      </c>
+      <c r="X104" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y104" s="22" t="s">
         <v>354</v>
       </c>
       <c r="AA104" s="7" t="s">
@@ -7033,8 +6826,14 @@
       <c r="AC104" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:44" ht="12.75" customHeight="1">
+      <c r="AQ104" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR104" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="105" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>343</v>
       </c>
@@ -7045,10 +6844,10 @@
         <v>1</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="N105" s="32" t="s">
-        <v>390</v>
+        <v>386</v>
+      </c>
+      <c r="N105" s="29" t="s">
+        <v>387</v>
       </c>
       <c r="Q105" t="s">
         <v>144</v>
@@ -7059,23 +6858,26 @@
       <c r="U105" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="V105" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="W105" s="40">
-        <v>2</v>
-      </c>
-      <c r="X105" s="39" t="s">
-        <v>407</v>
+      <c r="V105" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="W105" s="37">
+        <v>2</v>
+      </c>
+      <c r="X105" s="36" t="s">
+        <v>404</v>
       </c>
       <c r="Y105" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="AQ105" s="32" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="106" spans="2:44" ht="12.75" customHeight="1">
+      <c r="AQ105" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="AR105" s="22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>344</v>
       </c>
@@ -7089,10 +6891,10 @@
         <v>1</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="N106" s="32" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="N106" s="29" t="s">
+        <v>389</v>
       </c>
       <c r="Q106" s="7" t="s">
         <v>145</v>
@@ -7106,23 +6908,26 @@
       <c r="U106" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="V106" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="W106" s="33">
-        <v>2</v>
-      </c>
-      <c r="X106" s="34" t="s">
+      <c r="V106" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="W106" s="30">
+        <v>2</v>
+      </c>
+      <c r="X106" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y106" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ106" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="Y106" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ106" s="22" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="107" spans="2:44" ht="12.75" customHeight="1">
+      <c r="AR106" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="107" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>345</v>
       </c>
@@ -7136,9 +6941,9 @@
         <v>1</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="N107" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="N107" s="29" t="s">
         <v>147</v>
       </c>
       <c r="O107">
@@ -7147,25 +6952,28 @@
       <c r="U107" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="V107" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="W107" s="33">
-        <v>2</v>
-      </c>
-      <c r="X107" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y107" s="21" t="s">
+      <c r="V107" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="W107" s="30">
+        <v>2</v>
+      </c>
+      <c r="X107" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y107" s="22" t="s">
         <v>354</v>
       </c>
       <c r="AQ107" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="108" spans="2:44" ht="12.75" customHeight="1">
+      <c r="AR107" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="108" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>148</v>
@@ -7185,24 +6993,29 @@
       <c r="O108">
         <v>2</v>
       </c>
-      <c r="U108" s="33" t="s">
+      <c r="U108" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="V108" s="32" t="s">
+      <c r="V108" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="W108" s="30">
+        <v>2</v>
+      </c>
+      <c r="X108" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="W108" s="33">
-        <v>2</v>
-      </c>
-      <c r="X108" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y108" s="7"/>
+      <c r="Y108" s="22" t="s">
+        <v>354</v>
+      </c>
       <c r="AQ108" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1">
+      <c r="AR108" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>347</v>
       </c>
@@ -7215,54 +7028,76 @@
       <c r="G109" s="7">
         <v>1</v>
       </c>
-      <c r="U109" s="33"/>
-      <c r="V109" s="41"/>
-      <c r="W109" s="33"/>
-      <c r="X109" s="34"/>
-      <c r="Y109" s="21"/>
+      <c r="U109" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="V109" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="W109" s="30">
+        <v>2</v>
+      </c>
+      <c r="X109" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y109" s="22" t="s">
+        <v>354</v>
+      </c>
       <c r="AM109" s="7"/>
       <c r="AN109" s="7"/>
       <c r="AO109" s="7"/>
-      <c r="AQ109" s="7"/>
-    </row>
-    <row r="110" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="AQ109" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR109" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
-      <c r="U110" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="V110" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="W110" s="33">
-        <v>2</v>
-      </c>
-      <c r="X110" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y110" s="21"/>
+      <c r="U110" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="V110" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="W110" s="30">
+        <v>2</v>
+      </c>
+      <c r="X110" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y110" s="22" t="s">
+        <v>354</v>
+      </c>
       <c r="AM110" s="7"/>
       <c r="AN110" s="7"/>
       <c r="AO110" s="7"/>
       <c r="AQ110" s="21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+        <v>413</v>
+      </c>
+      <c r="AR110" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="5" t="s">
         <v>348</v>
       </c>
       <c r="X111" s="19"/>
-    </row>
-    <row r="112" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+      <c r="Y111" s="23"/>
+    </row>
+    <row r="112" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>345</v>
       </c>
       <c r="X112" s="19"/>
+      <c r="Y112" s="23"/>
       <c r="AI112" t="s">
         <v>150</v>
       </c>
@@ -7273,11 +7108,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="113" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>346</v>
       </c>
       <c r="X113" s="19"/>
+      <c r="Y113" s="23"/>
       <c r="AI113" t="s">
         <v>151</v>
       </c>
@@ -7288,11 +7124,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="114" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>349</v>
       </c>
       <c r="X114" s="19"/>
+      <c r="Y114" s="23"/>
       <c r="AI114" t="s">
         <v>152</v>
       </c>
@@ -7303,11 +7140,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="115" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>343</v>
       </c>
       <c r="X115" s="19"/>
+      <c r="Y115" s="23"/>
       <c r="AI115" t="s">
         <v>153</v>
       </c>
@@ -7318,11 +7156,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="116" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>344</v>
       </c>
       <c r="X116" s="19"/>
+      <c r="Y116" s="23"/>
       <c r="AI116" t="s">
         <v>154</v>
       </c>
@@ -7333,18 +7172,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:44" ht="12.75" customHeight="1">
+    <row r="117" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X117" s="19"/>
-    </row>
-    <row r="118" spans="2:44" ht="12.75" customHeight="1">
-      <c r="B118" s="42" t="s">
-        <v>420</v>
+      <c r="Y117" s="23"/>
+    </row>
+    <row r="118" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="39" t="s">
+        <v>417</v>
       </c>
       <c r="X118" s="19"/>
-    </row>
-    <row r="119" spans="2:44" ht="12.75" customHeight="1">
+      <c r="Y118" s="23"/>
+    </row>
+    <row r="119" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>155</v>
@@ -7374,19 +7215,21 @@
       <c r="S119" s="7">
         <v>1</v>
       </c>
-      <c r="U119" s="35" t="s">
+      <c r="U119" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="V119" s="36" t="s">
+      <c r="V119" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="W119" s="33">
-        <v>1</v>
-      </c>
-      <c r="X119" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y119" s="7"/>
+      <c r="W119" s="30">
+        <v>1</v>
+      </c>
+      <c r="X119" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y119" s="22" t="s">
+        <v>354</v>
+      </c>
       <c r="AA119" s="7" t="s">
         <v>155</v>
       </c>
@@ -7394,13 +7237,16 @@
       <c r="AC119" s="7">
         <v>1</v>
       </c>
+      <c r="AQ119" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="AR119" s="22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="120" spans="2:44" ht="12.75" customHeight="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="120" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>156</v>
@@ -7420,19 +7266,21 @@
       <c r="S120" s="7">
         <v>4</v>
       </c>
-      <c r="U120" s="35" t="s">
+      <c r="U120" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="V120" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W120" s="33">
-        <v>2</v>
-      </c>
-      <c r="X120" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y120" s="7"/>
+      <c r="V120" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W120" s="30">
+        <v>2</v>
+      </c>
+      <c r="X120" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y120" s="22" t="s">
+        <v>354</v>
+      </c>
       <c r="AA120" s="7" t="s">
         <v>156</v>
       </c>
@@ -7443,10 +7291,13 @@
         <v>4</v>
       </c>
       <c r="AQ120" s="22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="2:44" ht="12.75" customHeight="1">
+        <v>420</v>
+      </c>
+      <c r="AR120" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="21" t="s">
         <v>350</v>
       </c>
@@ -7471,19 +7322,21 @@
       <c r="S121" s="7">
         <v>1</v>
       </c>
-      <c r="U121" s="35" t="s">
+      <c r="U121" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="V121" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="W121" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="X121" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y121" s="7"/>
+      <c r="V121" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="W121" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="X121" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y121" s="22" t="s">
+        <v>354</v>
+      </c>
       <c r="AA121" s="7" t="s">
         <v>157</v>
       </c>
@@ -7493,9 +7346,9 @@
       </c>
       <c r="AQ121" s="22"/>
     </row>
-    <row r="122" spans="2:44" ht="12.75" customHeight="1">
+    <row r="122" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>158</v>
@@ -7511,19 +7364,19 @@
       <c r="S122" s="7">
         <v>1</v>
       </c>
-      <c r="U122" s="35" t="s">
+      <c r="U122" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="V122" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="W122" s="33">
-        <v>2</v>
-      </c>
-      <c r="X122" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="Y122" s="7"/>
+      <c r="V122" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="W122" s="30">
+        <v>2</v>
+      </c>
+      <c r="X122" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y122" s="23"/>
       <c r="AA122" s="7" t="s">
         <v>158</v>
       </c>
@@ -7532,18 +7385,22 @@
         <v>1</v>
       </c>
       <c r="AQ122" s="22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="123" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B123" s="42" t="s">
-        <v>421</v>
+        <v>423</v>
+      </c>
+      <c r="AR122" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="39" t="s">
+        <v>418</v>
       </c>
       <c r="X123" s="19"/>
-    </row>
-    <row r="124" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="Y123" s="23"/>
+    </row>
+    <row r="124" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>155</v>
@@ -7573,19 +7430,19 @@
       <c r="S124" s="7">
         <v>1</v>
       </c>
-      <c r="U124" s="35" t="s">
+      <c r="U124" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="V124" s="36" t="s">
+      <c r="V124" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="W124" s="33">
-        <v>1</v>
-      </c>
-      <c r="X124" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y124" s="7"/>
+      <c r="W124" s="30">
+        <v>1</v>
+      </c>
+      <c r="X124" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y124" s="23"/>
       <c r="AA124" s="7" t="s">
         <v>155</v>
       </c>
@@ -7594,9 +7451,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+    <row r="125" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>156</v>
@@ -7616,19 +7473,19 @@
       <c r="S125" s="7">
         <v>4</v>
       </c>
-      <c r="U125" s="35" t="s">
+      <c r="U125" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="V125" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W125" s="33">
-        <v>2</v>
-      </c>
-      <c r="X125" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y125" s="7"/>
+      <c r="V125" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W125" s="30">
+        <v>2</v>
+      </c>
+      <c r="X125" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y125" s="23"/>
       <c r="AA125" s="7" t="s">
         <v>156</v>
       </c>
@@ -7639,10 +7496,13 @@
         <v>4</v>
       </c>
       <c r="AQ125" s="22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="126" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+        <v>420</v>
+      </c>
+      <c r="AR125" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="126" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="21" t="s">
         <v>350</v>
       </c>
@@ -7667,19 +7527,19 @@
       <c r="S126" s="7">
         <v>1</v>
       </c>
-      <c r="U126" s="35" t="s">
+      <c r="U126" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="V126" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="W126" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="X126" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y126" s="7"/>
+      <c r="V126" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="W126" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="X126" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y126" s="23"/>
       <c r="AA126" s="7" t="s">
         <v>157</v>
       </c>
@@ -7689,9 +7549,9 @@
       </c>
       <c r="AQ126" s="22"/>
     </row>
-    <row r="127" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
+    <row r="127" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>158</v>
@@ -7707,19 +7567,19 @@
       <c r="S127" s="7">
         <v>1</v>
       </c>
-      <c r="U127" s="35" t="s">
+      <c r="U127" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="V127" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="W127" s="33">
-        <v>2</v>
-      </c>
-      <c r="X127" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y127" s="7"/>
+      <c r="V127" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="W127" s="30">
+        <v>2</v>
+      </c>
+      <c r="X127" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y127" s="23"/>
       <c r="AA127" s="7" t="s">
         <v>158</v>
       </c>
@@ -7728,18 +7588,22 @@
         <v>1</v>
       </c>
       <c r="AQ127" s="22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="128" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B128" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="AR127" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="128" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="39" t="s">
+        <v>419</v>
       </c>
       <c r="X128" s="19"/>
-    </row>
-    <row r="129" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="Y128" s="23"/>
+    </row>
+    <row r="129" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>155</v>
@@ -7769,19 +7633,19 @@
       <c r="S129" s="7">
         <v>1</v>
       </c>
-      <c r="U129" s="35" t="s">
+      <c r="U129" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="V129" s="36" t="s">
+      <c r="V129" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="W129" s="33">
-        <v>1</v>
-      </c>
-      <c r="X129" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y129" s="7"/>
+      <c r="W129" s="30">
+        <v>1</v>
+      </c>
+      <c r="X129" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y129" s="23"/>
       <c r="AA129" s="7" t="s">
         <v>155</v>
       </c>
@@ -7790,9 +7654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+    <row r="130" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>156</v>
@@ -7812,19 +7676,19 @@
       <c r="S130" s="7">
         <v>4</v>
       </c>
-      <c r="U130" s="35" t="s">
+      <c r="U130" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="V130" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W130" s="33">
-        <v>2</v>
-      </c>
-      <c r="X130" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y130" s="7"/>
+      <c r="V130" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W130" s="30">
+        <v>2</v>
+      </c>
+      <c r="X130" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y130" s="23"/>
       <c r="AA130" s="7" t="s">
         <v>156</v>
       </c>
@@ -7835,10 +7699,13 @@
         <v>4</v>
       </c>
       <c r="AQ130" s="22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="131" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+        <v>420</v>
+      </c>
+      <c r="AR130" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="21" t="s">
         <v>350</v>
       </c>
@@ -7863,19 +7730,19 @@
       <c r="S131" s="7">
         <v>1</v>
       </c>
-      <c r="U131" s="35" t="s">
+      <c r="U131" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="V131" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="W131" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="X131" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y131" s="7"/>
+      <c r="V131" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="W131" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="X131" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y131" s="23"/>
       <c r="AA131" s="7" t="s">
         <v>157</v>
       </c>
@@ -7885,9 +7752,9 @@
       </c>
       <c r="AQ131" s="22"/>
     </row>
-    <row r="132" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+    <row r="132" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>158</v>
@@ -7903,19 +7770,19 @@
       <c r="S132" s="7">
         <v>1</v>
       </c>
-      <c r="U132" s="35" t="s">
+      <c r="U132" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="V132" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="W132" s="33">
-        <v>2</v>
-      </c>
-      <c r="X132" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y132" s="7"/>
+      <c r="V132" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="W132" s="30">
+        <v>2</v>
+      </c>
+      <c r="X132" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y132" s="23"/>
       <c r="AA132" s="7" t="s">
         <v>158</v>
       </c>
@@ -7924,10 +7791,13 @@
         <v>1</v>
       </c>
       <c r="AQ132" s="22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="133" spans="2:43" s="16" customFormat="1" ht="12.75" customHeight="1">
+        <v>423</v>
+      </c>
+      <c r="AR132" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="133" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="21"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
@@ -7935,13 +7805,13 @@
       <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
       <c r="S133" s="7"/>
-      <c r="Y133" s="7"/>
+      <c r="Y133" s="23"/>
       <c r="AA133" s="7"/>
       <c r="AB133" s="7"/>
       <c r="AC133" s="7"/>
       <c r="AQ133" s="22"/>
     </row>
-    <row r="134" spans="2:43" ht="12.75" customHeight="1">
+    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7"/>
       <c r="E134" s="7" t="s">
         <v>159</v>
@@ -7965,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="X134" s="20"/>
-      <c r="Y134" s="7"/>
+      <c r="Y134" s="23"/>
       <c r="AA134" s="7" t="s">
         <v>159</v>
       </c>
@@ -7974,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:43" ht="12.75" customHeight="1">
+    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="E135" s="7" t="s">
         <v>160</v>
@@ -8013,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="X135" s="20"/>
-      <c r="Y135" s="7"/>
+      <c r="Y135" s="23"/>
       <c r="AA135" s="7" t="s">
         <v>160</v>
       </c>
@@ -8024,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="2:43" ht="12.75" customHeight="1">
+    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
       <c r="E136" s="7" t="s">
         <v>161</v>
@@ -8051,11 +7921,9 @@
         <v>1</v>
       </c>
       <c r="X136" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y136" s="21" t="s">
-        <v>365</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="Y136" s="23"/>
       <c r="AA136" s="7" t="s">
         <v>161</v>
       </c>
@@ -8063,15 +7931,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:43">
+    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y137" s="23"/>
+    </row>
+    <row r="138" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="139" spans="2:43" ht="25.5">
+      <c r="Y138" s="23"/>
+    </row>
+    <row r="139" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
         <v>163</v>
       </c>
+      <c r="Y139" s="23"/>
       <c r="AI139" t="s">
         <v>164</v>
       </c>
@@ -8082,10 +7955,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="2:43" ht="25.5">
+    <row r="140" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="Y140" s="23"/>
       <c r="AI140" t="s">
         <v>166</v>
       </c>
@@ -8096,10 +7970,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="2:43" ht="25.5">
+    <row r="141" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B141" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="Y141" s="23"/>
       <c r="AI141" t="s">
         <v>168</v>
       </c>
@@ -8110,10 +7985,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="2:43" ht="25.5">
+    <row r="142" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
         <v>169</v>
       </c>
+      <c r="Y142" s="23"/>
       <c r="AI142" t="s">
         <v>170</v>
       </c>
@@ -8124,10 +8000,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:43" ht="25.5">
+    <row r="143" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
         <v>171</v>
       </c>
+      <c r="Y143" s="23"/>
       <c r="AI143" t="s">
         <v>172</v>
       </c>
@@ -8138,10 +8015,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="2:43" ht="25.5">
+    <row r="144" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
         <v>173</v>
       </c>
+      <c r="Y144" s="23"/>
       <c r="AI144" t="s">
         <v>174</v>
       </c>
@@ -8152,10 +8030,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="2:37" ht="25.5">
+    <row r="145" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>175</v>
       </c>
+      <c r="Y145" s="23"/>
       <c r="AI145" t="s">
         <v>176</v>
       </c>
@@ -8166,10 +8045,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="2:37" ht="25.5">
+    <row r="146" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="Y146" s="23"/>
       <c r="AI146" t="s">
         <v>178</v>
       </c>
@@ -8180,10 +8060,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:37" ht="25.5">
+    <row r="147" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="Y147" s="23"/>
       <c r="AI147" t="s">
         <v>180</v>
       </c>
@@ -8194,7 +8075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:37" ht="25.5">
+    <row r="148" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
         <v>181</v>
       </c>
@@ -8208,7 +8089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:37" ht="25.5">
+    <row r="149" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
         <v>183</v>
       </c>
@@ -8222,7 +8103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:37" ht="25.5">
+    <row r="150" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
         <v>185</v>
       </c>
@@ -8236,7 +8117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:37" ht="25.5">
+    <row r="151" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
         <v>187</v>
       </c>
@@ -8250,7 +8131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:37" ht="25.5">
+    <row r="152" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B152" s="7" t="s">
         <v>189</v>
       </c>
@@ -8264,7 +8145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:37" ht="25.5">
+    <row r="153" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B153" s="7" t="s">
         <v>191</v>
       </c>
@@ -8278,7 +8159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:37" ht="25.5">
+    <row r="154" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B154" s="7" t="s">
         <v>193</v>
       </c>
@@ -8292,7 +8173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:37" ht="25.5">
+    <row r="155" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B155" s="7" t="s">
         <v>195</v>
       </c>
@@ -8306,7 +8187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:37" ht="25.5">
+    <row r="156" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
         <v>197</v>
       </c>
@@ -8320,7 +8201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:37" ht="25.5">
+    <row r="157" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B157" s="7" t="s">
         <v>199</v>
       </c>
@@ -8334,7 +8215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:37" ht="25.5">
+    <row r="158" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B158" s="7" t="s">
         <v>201</v>
       </c>
@@ -8345,7 +8226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:37" ht="25.5">
+    <row r="159" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B159" s="7" t="s">
         <v>203</v>
       </c>
@@ -8356,7 +8237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:37" ht="25.5">
+    <row r="160" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B160" s="7" t="s">
         <v>205</v>
       </c>
@@ -8367,7 +8248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:37" ht="25.5">
+    <row r="161" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B161" s="7" t="s">
         <v>207</v>
       </c>
@@ -8378,7 +8259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:37" ht="25.5">
+    <row r="162" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
         <v>209</v>
       </c>
@@ -8389,7 +8270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:37" ht="25.5">
+    <row r="163" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B163" s="7" t="s">
         <v>211</v>
       </c>
@@ -8400,7 +8281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:37" ht="25.5">
+    <row r="164" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B164" s="7" t="s">
         <v>213</v>
       </c>
@@ -8411,7 +8292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:37" ht="25.5">
+    <row r="165" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B165" s="7" t="s">
         <v>215</v>
       </c>
@@ -8422,7 +8303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:37" ht="25.5">
+    <row r="166" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B166" s="7" t="s">
         <v>217</v>
       </c>
@@ -8433,7 +8314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:37" ht="25.5">
+    <row r="167" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B167" s="7" t="s">
         <v>219</v>
       </c>
@@ -8444,7 +8325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:37" ht="25.5">
+    <row r="168" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B168" s="7" t="s">
         <v>221</v>
       </c>
@@ -8455,7 +8336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:37" ht="25.5">
+    <row r="169" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B169" s="7" t="s">
         <v>223</v>
       </c>
@@ -8466,7 +8347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:37" ht="25.5">
+    <row r="170" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B170" s="7" t="s">
         <v>225</v>
       </c>
@@ -8480,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:37" ht="25.5">
+    <row r="171" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
         <v>227</v>
       </c>
@@ -8494,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:37" ht="25.5">
+    <row r="172" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
         <v>229</v>
       </c>
@@ -8508,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:37" ht="25.5">
+    <row r="173" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B173" s="7" t="s">
         <v>231</v>
       </c>
@@ -8522,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:37" ht="25.5">
+    <row r="174" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B174" s="7" t="s">
         <v>233</v>
       </c>
@@ -8536,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:37" ht="25.5">
+    <row r="175" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B175" s="7" t="s">
         <v>235</v>
       </c>
@@ -8550,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:37" ht="25.5">
+    <row r="176" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B176" s="7" t="s">
         <v>237</v>
       </c>
@@ -8564,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:41" ht="25.5">
+    <row r="177" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B177" s="7" t="s">
         <v>239</v>
       </c>
@@ -8578,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:41" ht="25.5">
+    <row r="178" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B178" s="7" t="s">
         <v>241</v>
       </c>
@@ -8592,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:41" ht="25.5">
+    <row r="179" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B179" s="7" t="s">
         <v>243</v>
       </c>
@@ -8606,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:41" ht="25.5">
+    <row r="180" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B180" s="7" t="s">
         <v>245</v>
       </c>
@@ -8620,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:41" ht="25.5">
+    <row r="181" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B181" s="7" t="s">
         <v>247</v>
       </c>
@@ -8634,15 +8515,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:41">
+    <row r="182" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:41">
+    <row r="183" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B183" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="2:41" ht="25.5">
+    <row r="184" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B184" s="7" t="s">
         <v>250</v>
       </c>
@@ -8656,7 +8537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="2:41" ht="25.5">
+    <row r="185" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B185" s="7" t="s">
         <v>251</v>
       </c>
@@ -8670,7 +8551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="2:41" ht="25.5">
+    <row r="186" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B186" s="7" t="s">
         <v>252</v>
       </c>
@@ -8684,7 +8565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="2:41" ht="25.5">
+    <row r="187" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B187" s="7" t="s">
         <v>254</v>
       </c>
@@ -8698,7 +8579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="2:41" ht="25.5">
+    <row r="188" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B188" s="7" t="s">
         <v>256</v>
       </c>
@@ -8712,7 +8593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="2:41" ht="25.5">
+    <row r="189" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B189" s="7" t="s">
         <v>258</v>
       </c>
@@ -8726,7 +8607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="2:41" ht="25.5">
+    <row r="190" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B190" s="7" t="s">
         <v>260</v>
       </c>
@@ -8740,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:41" ht="25.5">
+    <row r="191" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B191" s="7" t="s">
         <v>262</v>
       </c>
@@ -8754,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:41" ht="25.5">
+    <row r="192" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B192" s="7" t="s">
         <v>264</v>
       </c>
@@ -8768,7 +8649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:41" ht="25.5">
+    <row r="193" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B193" s="7" t="s">
         <v>267</v>
       </c>
@@ -8782,7 +8663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:41" ht="25.5">
+    <row r="194" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B194" s="7" t="s">
         <v>269</v>
       </c>
@@ -8796,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:41" ht="25.5">
+    <row r="195" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B195" s="7" t="s">
         <v>271</v>
       </c>
@@ -8807,62 +8688,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:41">
+    <row r="196" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:41">
+    <row r="197" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:41">
+    <row r="198" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:41">
+    <row r="199" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:41">
+    <row r="200" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:41">
+    <row r="201" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:41">
+    <row r="202" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:41">
+    <row r="203" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:41">
+    <row r="204" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:41">
+    <row r="205" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:41">
+    <row r="206" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:41">
+    <row r="207" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:41">
+    <row r="208" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="7"/>
     </row>
-    <row r="5208" spans="7:23" ht="12.75" customHeight="1"/>
-    <row r="5209" spans="7:23" ht="12.75" customHeight="1"/>
+    <row r="5208" spans="7:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5209" spans="7:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AA2:AC2"/>
@@ -8877,17 +8758,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
@@ -8895,7 +8777,7 @@
     <col min="5" max="5" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="12.75" customHeight="1">
+    <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>273</v>
       </c>
@@ -8909,7 +8791,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="12.75" customHeight="1">
+    <row r="4" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>276</v>
       </c>
@@ -8923,7 +8805,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="12.75" customHeight="1">
+    <row r="5" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>278</v>
       </c>

--- a/Optolink_Logger_v3.xlsx
+++ b/Optolink_Logger_v3.xlsx
@@ -1028,7 +1028,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="462">
   <si>
     <t>V333MW1</t>
   </si>
@@ -1199,9 +1199,6 @@
     <t>0x0115</t>
   </si>
   <si>
-    <t>0x3902</t>
-  </si>
-  <si>
     <t>0xA309</t>
   </si>
   <si>
@@ -1945,9 +1942,6 @@
     <t>Return temperature M2</t>
   </si>
   <si>
-    <t>boiler temperature</t>
-  </si>
-  <si>
     <t>Boiler temperature low-pass</t>
   </si>
   <si>
@@ -2129,12 +2123,6 @@
     <t>getBoilerTemp3</t>
   </si>
   <si>
-    <t>getBoilerTemp2</t>
-  </si>
-  <si>
-    <t>getBoilerTempLP</t>
-  </si>
-  <si>
     <t>getBurnerOutput</t>
   </si>
   <si>
@@ -2154,9 +2142,6 @@
   </si>
   <si>
     <t>getMixerPosition</t>
-  </si>
-  <si>
-    <t>getHeatingPumpStatus</t>
   </si>
   <si>
     <t>getThrottlePosition</t>
@@ -2376,15 +2361,6 @@
     <t>Flow temperature M3 setpoint (read)</t>
   </si>
   <si>
-    <t>getFlowTempSP1</t>
-  </si>
-  <si>
-    <t>getFlowTempSP2</t>
-  </si>
-  <si>
-    <t>getFlowTempSP3</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -2415,12 +2391,6 @@
     <t>-60..60</t>
   </si>
   <si>
-    <t>UT2</t>
-  </si>
-  <si>
-    <t>0.00 .. 127.00</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
@@ -2449,6 +2419,12 @@
   </si>
   <si>
     <t>SetPartyTemp</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>DT</t>
   </si>
 </sst>
 </file>
@@ -2672,7 +2648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2737,7 +2713,6 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2751,10 +2726,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2767,10 +2750,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2818,6 +2804,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 91"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9591675" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -3126,10 +3160,10 @@
   <dimension ref="B1:AR5209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="T100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="U24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V42" sqref="V42"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3158,7 +3192,7 @@
     <col min="22" max="22" width="7.140625" customWidth="1"/>
     <col min="23" max="23" width="3" customWidth="1"/>
     <col min="24" max="24" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.7109375" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" customWidth="1"/>
     <col min="26" max="26" width="1.7109375" customWidth="1"/>
     <col min="27" max="27" width="7.5703125" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
@@ -3181,7 +3215,7 @@
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="14"/>
       <c r="E1" s="14"/>
@@ -3224,51 +3258,51 @@
       <c r="AP1" s="15"/>
     </row>
     <row r="2" spans="2:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="I2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="M2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="Q2" s="44" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="I2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="M2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="Q2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="U2" s="44" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="U2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="AA2" s="44" t="s">
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="AA2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AE2" s="46" t="s">
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AE2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AI2" s="46" t="s">
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AI2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AM2" s="46" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AM2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
     </row>
     <row r="3" spans="2:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="9" t="s">
@@ -3317,7 +3351,9 @@
         <v>11</v>
       </c>
       <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
+      <c r="Y3" s="49" t="s">
+        <v>460</v>
+      </c>
       <c r="AA3" s="9" t="s">
         <v>9</v>
       </c>
@@ -3357,15 +3393,15 @@
         <v>11</v>
       </c>
       <c r="AQ3" s="22" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AR3" s="22" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="2:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
@@ -3413,10 +3449,10 @@
         <v>2</v>
       </c>
       <c r="X4" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="AA4" s="7" t="s">
         <v>12</v>
@@ -3448,20 +3484,24 @@
       <c r="AN4" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="AR4" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="5" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X5" s="19"/>
+      <c r="Y5" s="42"/>
     </row>
     <row r="6" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X6" s="19"/>
-      <c r="Y6" s="23"/>
+      <c r="Y6" s="42"/>
     </row>
     <row r="7" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
@@ -3494,10 +3534,10 @@
         <v>2</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y7" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="Y7" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="AI7" t="s">
         <v>24</v>
@@ -3518,12 +3558,12 @@
         <v>2</v>
       </c>
       <c r="AR7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -3565,18 +3605,18 @@
         <v>2</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y8" s="23" t="s">
         <v>354</v>
       </c>
+      <c r="Y8" s="42" t="s">
+        <v>352</v>
+      </c>
       <c r="AR8" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>27</v>
@@ -3618,10 +3658,10 @@
         <v>2</v>
       </c>
       <c r="X9" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y9" s="23" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="Y9" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="AI9" t="s">
         <v>29</v>
@@ -3642,12 +3682,12 @@
         <v>2</v>
       </c>
       <c r="AR9" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>30</v>
@@ -3680,7 +3720,7 @@
         <v>2</v>
       </c>
       <c r="X10" s="19"/>
-      <c r="Y10" s="23"/>
+      <c r="Y10" s="42"/>
       <c r="AA10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3702,7 +3742,7 @@
     </row>
     <row r="11" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" s="7"/>
       <c r="I11" s="7"/>
@@ -3712,7 +3752,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="X11" s="19"/>
-      <c r="Y11" s="23"/>
+      <c r="Y11" s="42"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -3728,7 +3768,7 @@
     </row>
     <row r="12" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C12" s="7"/>
       <c r="I12" s="7"/>
@@ -3738,7 +3778,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="X12" s="19"/>
-      <c r="Y12" s="23"/>
+      <c r="Y12" s="42"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -3754,7 +3794,7 @@
     </row>
     <row r="13" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>34</v>
@@ -3778,7 +3818,7 @@
         <v>2</v>
       </c>
       <c r="U13" s="30" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="V13" s="30" t="s">
         <v>23</v>
@@ -3787,10 +3827,10 @@
         <v>2</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y13" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
+      </c>
+      <c r="Y13" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>35</v>
@@ -3811,15 +3851,15 @@
         <v>2</v>
       </c>
       <c r="AQ13" s="22" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AR13" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>36</v>
@@ -3869,14 +3909,12 @@
       <c r="W14" s="7">
         <v>2</v>
       </c>
-      <c r="X14" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y14" s="23"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="42"/>
     </row>
     <row r="15" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>38</v>
@@ -3917,14 +3955,12 @@
       <c r="W15" s="7">
         <v>2</v>
       </c>
-      <c r="X15" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y15" s="23"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="42"/>
     </row>
     <row r="16" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>40</v>
@@ -3936,7 +3972,7 @@
         <v>2</v>
       </c>
       <c r="X16" s="19"/>
-      <c r="Y16" s="23"/>
+      <c r="Y16" s="42"/>
       <c r="AI16" t="s">
         <v>41</v>
       </c>
@@ -3949,7 +3985,7 @@
     </row>
     <row r="17" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>42</v>
@@ -3988,9 +4024,11 @@
         <v>2</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y17" s="23"/>
+        <v>359</v>
+      </c>
+      <c r="Y17" s="42" t="s">
+        <v>352</v>
+      </c>
       <c r="AA17" s="7" t="s">
         <v>42</v>
       </c>
@@ -4018,16 +4056,16 @@
       <c r="AO17" s="7">
         <v>2</v>
       </c>
-      <c r="AQ17" s="48" t="s">
-        <v>457</v>
+      <c r="AQ17" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="AR17" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>44</v>
@@ -4066,9 +4104,11 @@
         <v>2</v>
       </c>
       <c r="X18" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y18" s="23"/>
+        <v>360</v>
+      </c>
+      <c r="Y18" s="42" t="s">
+        <v>352</v>
+      </c>
       <c r="AA18" s="7" t="s">
         <v>44</v>
       </c>
@@ -4087,16 +4127,16 @@
       <c r="AG18" s="7">
         <v>2</v>
       </c>
-      <c r="AQ18" s="48" t="s">
-        <v>457</v>
+      <c r="AQ18" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="AR18" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -4108,11 +4148,11 @@
         <v>2</v>
       </c>
       <c r="X19" s="19"/>
-      <c r="Y19" s="23"/>
+      <c r="Y19" s="42"/>
     </row>
     <row r="20" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>47</v>
@@ -4124,11 +4164,11 @@
         <v>2</v>
       </c>
       <c r="X20" s="19"/>
-      <c r="Y20" s="23"/>
+      <c r="Y20" s="42"/>
     </row>
     <row r="21" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>48</v>
@@ -4140,11 +4180,11 @@
         <v>2</v>
       </c>
       <c r="X21" s="19"/>
-      <c r="Y21" s="23"/>
+      <c r="Y21" s="42"/>
     </row>
     <row r="22" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>49</v>
@@ -4156,11 +4196,11 @@
         <v>2</v>
       </c>
       <c r="X22" s="19"/>
-      <c r="Y22" s="23"/>
+      <c r="Y22" s="42"/>
     </row>
     <row r="23" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -4172,7 +4212,7 @@
         <v>2</v>
       </c>
       <c r="X23" s="19"/>
-      <c r="Y23" s="23"/>
+      <c r="Y23" s="42"/>
       <c r="AM23" t="s">
         <v>50</v>
       </c>
@@ -4185,7 +4225,7 @@
     </row>
     <row r="24" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>51</v>
@@ -4205,17 +4245,11 @@
       <c r="O24" s="7">
         <v>2</v>
       </c>
-      <c r="U24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W24" s="7">
-        <v>2</v>
-      </c>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="20"/>
-      <c r="Y24" s="23"/>
+      <c r="Y24" s="42"/>
       <c r="AA24" s="7" t="s">
         <v>51</v>
       </c>
@@ -4246,7 +4280,7 @@
     </row>
     <row r="25" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>53</v>
@@ -4258,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="X25" s="19"/>
-      <c r="Y25" s="23"/>
+      <c r="Y25" s="42"/>
       <c r="AI25" t="s">
         <v>54</v>
       </c>
@@ -4271,26 +4305,20 @@
     </row>
     <row r="26" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="U26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="42"/>
+    </row>
+    <row r="27" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W26" s="7">
-        <v>2</v>
-      </c>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="23"/>
-    </row>
-    <row r="27" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -4299,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>46</v>
@@ -4308,7 +4336,7 @@
         <v>2</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>46</v>
@@ -4316,36 +4344,22 @@
       <c r="S27" s="7">
         <v>2</v>
       </c>
-      <c r="U27" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="W27" s="7">
-        <v>2</v>
-      </c>
-      <c r="X27" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y27" s="23"/>
-      <c r="AQ27" t="s">
-        <v>459</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>458</v>
-      </c>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="42"/>
     </row>
     <row r="28" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X28" s="19"/>
-      <c r="Y28" s="23"/>
+      <c r="Y28" s="42"/>
     </row>
     <row r="29" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>23</v>
@@ -4354,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>23</v>
@@ -4363,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>23</v>
@@ -4372,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>23</v>
@@ -4381,18 +4395,12 @@
         <v>2</v>
       </c>
       <c r="U29" s="16"/>
-      <c r="V29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W29" s="7">
-        <v>2</v>
-      </c>
-      <c r="X29" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y29" s="23"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="42"/>
       <c r="AA29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB29" s="7" t="s">
         <v>23</v>
@@ -4401,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF29" s="7" t="s">
         <v>23</v>
@@ -4412,99 +4420,102 @@
     </row>
     <row r="30" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="7">
+        <v>2</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="7">
+        <v>2</v>
+      </c>
+      <c r="U30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="V30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="17">
+        <v>2</v>
+      </c>
+      <c r="X30" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y30" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG30" s="7">
+        <v>2</v>
+      </c>
+      <c r="AM30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="7">
-        <v>2</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="7">
-        <v>2</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="7">
-        <v>2</v>
-      </c>
-      <c r="U30" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="V30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="W30" s="17">
-        <v>2</v>
-      </c>
-      <c r="X30" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y30" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC30" s="7">
-        <v>2</v>
-      </c>
-      <c r="AE30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG30" s="7">
-        <v>2</v>
-      </c>
-      <c r="AM30" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="AN30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AO30" s="7">
         <v>2</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>23</v>
@@ -4513,7 +4524,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>23</v>
@@ -4522,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>23</v>
@@ -4531,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>23</v>
@@ -4540,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V31" s="17" t="s">
         <v>23</v>
@@ -4549,13 +4560,13 @@
         <v>2</v>
       </c>
       <c r="X31" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y31" s="23" t="s">
-        <v>354</v>
+        <v>434</v>
+      </c>
+      <c r="Y31" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB31" s="7" t="s">
         <v>23</v>
@@ -4564,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="AE31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF31" s="7" t="s">
         <v>23</v>
@@ -4575,16 +4586,19 @@
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
       <c r="AO31" s="7"/>
+      <c r="AR31" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="32" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>23</v>
@@ -4593,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R32" s="7" t="s">
         <v>23</v>
@@ -4601,19 +4615,13 @@
       <c r="S32" s="7">
         <v>2</v>
       </c>
-      <c r="U32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W32" s="7">
-        <v>2</v>
-      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
       <c r="X32" s="20"/>
-      <c r="Y32" s="23"/>
+      <c r="Y32" s="42"/>
       <c r="AE32" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF32" s="7" t="s">
         <v>23</v>
@@ -4624,10 +4632,10 @@
     </row>
     <row r="33" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>23</v>
@@ -4636,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>23</v>
@@ -4645,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>23</v>
@@ -4654,7 +4662,7 @@
         <v>2</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V33" s="17" t="s">
         <v>23</v>
@@ -4663,13 +4671,13 @@
         <v>2</v>
       </c>
       <c r="X33" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y33" s="23" t="s">
-        <v>354</v>
+        <v>357</v>
+      </c>
+      <c r="Y33" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="AE33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF33" s="7" t="s">
         <v>23</v>
@@ -4678,18 +4686,18 @@
         <v>2</v>
       </c>
       <c r="AQ33" s="22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AR33" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>23</v>
@@ -4698,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>23</v>
@@ -4707,7 +4715,7 @@
         <v>2</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R34" s="7" t="s">
         <v>23</v>
@@ -4716,7 +4724,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V34" s="17" t="s">
         <v>23</v>
@@ -4725,28 +4733,28 @@
         <v>2</v>
       </c>
       <c r="X34" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y34" s="23" t="s">
-        <v>354</v>
+        <v>358</v>
+      </c>
+      <c r="Y34" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="AQ34" s="22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AR34" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F35" s="7" t="s">
         <v>23</v>
       </c>
@@ -4754,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>23</v>
@@ -4762,21 +4770,13 @@
       <c r="S35" s="7">
         <v>2</v>
       </c>
-      <c r="U35" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W35" s="7">
-        <v>2</v>
-      </c>
-      <c r="X35" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y35" s="23"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="42"/>
       <c r="AA35" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB35" s="7" t="s">
         <v>23</v>
@@ -4784,41 +4784,31 @@
       <c r="AC35" s="7">
         <v>2</v>
       </c>
-      <c r="AQ35" s="22" t="s">
-        <v>441</v>
-      </c>
+      <c r="AQ35" s="22"/>
     </row>
     <row r="36" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="F36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="7">
         <v>2</v>
       </c>
-      <c r="U36" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="V36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W36" s="7">
-        <v>2</v>
-      </c>
-      <c r="X36" s="49" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y36" s="23"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="42"/>
       <c r="AA36" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB36" s="7" t="s">
         <v>23</v>
@@ -4826,16 +4816,14 @@
       <c r="AC36" s="7">
         <v>2</v>
       </c>
-      <c r="AQ36" s="22" t="s">
-        <v>441</v>
-      </c>
+      <c r="AQ36" s="22"/>
     </row>
     <row r="37" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>23</v>
@@ -4843,29 +4831,19 @@
       <c r="G37" s="7">
         <v>2</v>
       </c>
-      <c r="U37" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="V37" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="W37" s="21">
-        <v>2</v>
-      </c>
-      <c r="X37" s="49" t="s">
-        <v>447</v>
-      </c>
-      <c r="Y37" s="23"/>
-      <c r="AQ37" s="22" t="s">
-        <v>441</v>
-      </c>
+      <c r="U37" s="22"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="42"/>
+      <c r="AQ37" s="22"/>
     </row>
     <row r="38" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>23</v>
@@ -4874,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R38" s="7" t="s">
         <v>23</v>
@@ -4882,35 +4860,29 @@
       <c r="S38" s="7">
         <v>2</v>
       </c>
-      <c r="U38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W38" s="7">
-        <v>2</v>
-      </c>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
       <c r="X38" s="20"/>
-      <c r="Y38" s="23"/>
+      <c r="Y38" s="42"/>
     </row>
     <row r="39" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X39" s="19"/>
-      <c r="Y39" s="23"/>
+      <c r="Y39" s="42"/>
     </row>
     <row r="40" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X40" s="19"/>
-      <c r="Y40" s="23"/>
+      <c r="Y40" s="42"/>
     </row>
     <row r="41" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>23</v>
@@ -4919,14 +4891,14 @@
         <v>2</v>
       </c>
       <c r="X41" s="19"/>
-      <c r="Y41" s="23"/>
+      <c r="Y41" s="42"/>
     </row>
     <row r="42" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>23</v>
@@ -4935,7 +4907,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>23</v>
@@ -4944,7 +4916,7 @@
         <v>2</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>23</v>
@@ -4953,7 +4925,7 @@
         <v>2</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R42" s="7" t="s">
         <v>23</v>
@@ -4964,10 +4936,10 @@
       <c r="U42" s="23"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="23"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="42"/>
       <c r="AA42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB42" s="7" t="s">
         <v>23</v>
@@ -4978,12 +4950,12 @@
     </row>
     <row r="43" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="X43" s="19"/>
-      <c r="Y43" s="23"/>
+      <c r="Y43" s="42"/>
       <c r="AA43" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB43" s="7" t="s">
         <v>23</v>
@@ -4994,10 +4966,10 @@
     </row>
     <row r="44" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
@@ -5006,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N44" s="7" t="s">
         <v>23</v>
@@ -5015,9 +4987,9 @@
         <v>2</v>
       </c>
       <c r="X44" s="19"/>
-      <c r="Y44" s="23"/>
+      <c r="Y44" s="42"/>
       <c r="AA44" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB44" s="7" t="s">
         <v>23</v>
@@ -5028,21 +5000,21 @@
     </row>
     <row r="45" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2</v>
+      </c>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="42"/>
+      <c r="AI45" t="s">
         <v>74</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="7">
-        <v>2</v>
-      </c>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="23"/>
-      <c r="AI45" t="s">
-        <v>75</v>
       </c>
       <c r="AJ45" t="s">
         <v>23</v>
@@ -5053,10 +5025,10 @@
     </row>
     <row r="46" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>23</v>
@@ -5065,14 +5037,14 @@
         <v>2</v>
       </c>
       <c r="X46" s="19"/>
-      <c r="Y46" s="23"/>
+      <c r="Y46" s="42"/>
     </row>
     <row r="47" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>23</v>
@@ -5081,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>23</v>
@@ -5090,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>23</v>
@@ -5099,7 +5071,7 @@
         <v>2</v>
       </c>
       <c r="U47" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V47" s="30" t="s">
         <v>23</v>
@@ -5108,13 +5080,13 @@
         <v>2</v>
       </c>
       <c r="X47" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y47" s="22" t="s">
-        <v>354</v>
+        <v>361</v>
+      </c>
+      <c r="Y47" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA47" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB47" s="7" t="s">
         <v>23</v>
@@ -5123,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="AE47" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF47" s="7" t="s">
         <v>23</v>
@@ -5132,18 +5104,18 @@
         <v>2</v>
       </c>
       <c r="AQ47" s="22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AR47" s="22" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>46</v>
@@ -5152,14 +5124,14 @@
         <v>2</v>
       </c>
       <c r="X48" s="19"/>
-      <c r="Y48" s="23"/>
+      <c r="Y48" s="42"/>
     </row>
     <row r="49" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>46</v>
@@ -5168,14 +5140,14 @@
         <v>2</v>
       </c>
       <c r="X49" s="19"/>
-      <c r="Y49" s="23"/>
+      <c r="Y49" s="42"/>
     </row>
     <row r="50" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>46</v>
@@ -5184,14 +5156,14 @@
         <v>2</v>
       </c>
       <c r="X50" s="19"/>
-      <c r="Y50" s="23"/>
+      <c r="Y50" s="42"/>
     </row>
     <row r="51" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>46</v>
@@ -5200,474 +5172,466 @@
         <v>2</v>
       </c>
       <c r="X51" s="19"/>
-      <c r="Y51" s="23"/>
+      <c r="Y51" s="42"/>
     </row>
     <row r="52" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X52" s="19"/>
-      <c r="Y52" s="23"/>
+      <c r="Y52" s="42"/>
     </row>
     <row r="53" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="X53" s="19"/>
-      <c r="Y53" s="23"/>
+      <c r="Y53" s="42"/>
     </row>
     <row r="54" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J54" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="K54" s="7">
         <v>1</v>
       </c>
       <c r="Q54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R54" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="R54" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="S54" s="7">
         <v>1</v>
       </c>
-      <c r="U54" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="V54" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="W54" s="7">
-        <v>1</v>
-      </c>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
       <c r="X54" s="20"/>
-      <c r="Y54" s="23"/>
+      <c r="Y54" s="42"/>
     </row>
     <row r="55" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S55" s="7">
+        <v>1</v>
+      </c>
+      <c r="U55" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W55" s="7">
+        <v>1</v>
+      </c>
+      <c r="X55" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y55" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA55" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="7" t="s">
+      <c r="AB55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="R55" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S55" s="7">
-        <v>1</v>
-      </c>
-      <c r="U55" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="V55" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W55" s="7">
-        <v>1</v>
-      </c>
-      <c r="X55" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y55" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA55" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB55" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="AC55" s="7">
         <v>1</v>
       </c>
       <c r="AR55" s="22" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I56" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J56" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="K56" s="7">
         <v>1</v>
       </c>
       <c r="Q56" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R56" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="R56" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="S56" s="7">
         <v>1</v>
       </c>
-      <c r="U56" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="V56" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="W56" s="7">
-        <v>1</v>
-      </c>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
       <c r="X56" s="20"/>
-      <c r="Y56" s="23"/>
+      <c r="Y56" s="42"/>
     </row>
     <row r="57" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K57" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="R57" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S57" s="7">
         <v>1</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="V57" s="32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="W57" s="30">
         <v>1</v>
       </c>
       <c r="X57" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y57" s="23"/>
+        <v>445</v>
+      </c>
+      <c r="Y57" s="42" t="s">
+        <v>352</v>
+      </c>
       <c r="AQ57" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR57" s="22" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K58" s="7">
         <v>1</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S58" s="7">
         <v>1</v>
       </c>
       <c r="U58" s="32" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="V58" s="32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="W58" s="30">
         <v>1</v>
       </c>
       <c r="X58" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="Y58" s="23"/>
+        <v>446</v>
+      </c>
+      <c r="Y58" s="42" t="s">
+        <v>352</v>
+      </c>
       <c r="AQ58" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR58" s="22" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="K59" s="7">
         <v>4</v>
       </c>
       <c r="Q59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R59" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="R59" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="S59" s="7">
         <v>4</v>
       </c>
       <c r="U59" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="V59" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="V59" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="W59" s="7">
         <v>4</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y59" s="23"/>
+        <v>363</v>
+      </c>
+      <c r="Y59" s="42"/>
     </row>
     <row r="60" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K60" s="7">
         <v>4</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O60" s="7">
         <v>4</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S60" s="7">
         <v>4</v>
       </c>
       <c r="U60" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W60" s="7">
         <v>4</v>
       </c>
       <c r="X60" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y60" s="22" t="s">
-        <v>354</v>
+        <v>364</v>
+      </c>
+      <c r="Y60" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA60" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC60" s="7">
         <v>4</v>
       </c>
       <c r="AE60" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG60" s="7">
         <v>4</v>
       </c>
       <c r="AM60" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO60" s="7">
         <v>4</v>
       </c>
       <c r="AQ60" s="22" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="AR60" s="22" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="K61" s="7">
         <v>4</v>
       </c>
       <c r="M61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N61" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="O61" s="7">
         <v>4</v>
       </c>
       <c r="Q61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R61" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="R61" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="S61" s="7">
         <v>4</v>
       </c>
       <c r="U61" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W61" s="17">
         <v>4</v>
       </c>
       <c r="X61" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y61" s="22" t="s">
-        <v>354</v>
+        <v>365</v>
+      </c>
+      <c r="Y61" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA61" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB61" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC61" s="7">
         <v>4</v>
       </c>
       <c r="AE61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF61" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="AF61" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="AG61" s="7">
         <v>4</v>
       </c>
       <c r="AM61" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AN61" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO61" s="7">
         <v>4</v>
       </c>
       <c r="AR61" s="22" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K62" s="7">
         <v>4</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S62" s="7">
         <v>4</v>
       </c>
       <c r="U62" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V62" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W62" s="17">
         <v>4</v>
       </c>
       <c r="X62" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y62" s="22" t="s">
-        <v>354</v>
+        <v>366</v>
+      </c>
+      <c r="Y62" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AR62" s="22" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X63" s="19"/>
-      <c r="Y63" s="23"/>
+      <c r="Y63" s="42"/>
     </row>
     <row r="64" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="25"/>
       <c r="X64" s="19"/>
-      <c r="Y64" s="23"/>
+      <c r="Y64" s="42"/>
     </row>
     <row r="65" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="26" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C65" s="27"/>
       <c r="M65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O65" s="7">
+        <v>2</v>
+      </c>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="42"/>
+      <c r="AA65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC65" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI65" t="s">
         <v>100</v>
       </c>
-      <c r="N65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O65" s="7">
-        <v>2</v>
-      </c>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="23"/>
-      <c r="AA65" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC65" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>101</v>
-      </c>
       <c r="AJ65" t="s">
         <v>23</v>
       </c>
@@ -5675,7 +5639,7 @@
         <v>2</v>
       </c>
       <c r="AM65" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AN65" s="7" t="s">
         <v>23</v>
@@ -5686,25 +5650,25 @@
     </row>
     <row r="66" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="28" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C66" s="25"/>
       <c r="M66" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O66" s="7">
         <v>2</v>
       </c>
       <c r="X66" s="19"/>
-      <c r="Y66" s="23"/>
+      <c r="Y66" s="42"/>
       <c r="AA66" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC66" s="7">
         <v>2</v>
       </c>
       <c r="AM66" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO66" s="7">
         <v>2</v>
@@ -5712,24 +5676,24 @@
     </row>
     <row r="67" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M67" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M67" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="N67" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O67" s="7">
         <v>1</v>
       </c>
       <c r="X67" s="19"/>
-      <c r="Y67" s="23"/>
+      <c r="Y67" s="42"/>
       <c r="AA67" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB67" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC67" s="7">
         <v>1</v>
@@ -5737,24 +5701,24 @@
     </row>
     <row r="68" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O68" s="7">
         <v>1</v>
       </c>
       <c r="X68" s="19"/>
-      <c r="Y68" s="23"/>
+      <c r="Y68" s="42"/>
       <c r="AA68" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB68" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC68" s="7">
         <v>1</v>
@@ -5762,30 +5726,30 @@
     </row>
     <row r="69" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M69" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" s="7">
+        <v>2</v>
+      </c>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="42"/>
+      <c r="AA69" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC69" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI69" t="s">
         <v>106</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O69" s="7">
-        <v>2</v>
-      </c>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="23"/>
-      <c r="AA69" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB69" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC69" s="7">
-        <v>2</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>107</v>
       </c>
       <c r="AJ69" t="s">
         <v>23</v>
@@ -5796,18 +5760,18 @@
     </row>
     <row r="70" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
       <c r="X70" s="19"/>
-      <c r="Y70" s="23"/>
+      <c r="Y70" s="42"/>
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
       <c r="AM70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN70" t="s">
         <v>23</v>
@@ -5818,33 +5782,33 @@
     </row>
     <row r="71" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M71" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N71" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N71" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="O71" s="7">
         <v>2</v>
       </c>
       <c r="X71" s="19"/>
-      <c r="Y71" s="23"/>
+      <c r="Y71" s="42"/>
       <c r="AA71" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB71" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="AB71" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="AC71" s="7">
         <v>4</v>
       </c>
       <c r="AM71" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN71" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="AN71" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="AO71" s="7">
         <v>4</v>
@@ -5852,21 +5816,21 @@
     </row>
     <row r="72" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="N72" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O72">
         <v>4</v>
       </c>
       <c r="X72" s="19"/>
-      <c r="Y72" s="23"/>
+      <c r="Y72" s="42"/>
       <c r="AA72" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB72" s="7"/>
       <c r="AC72" s="7">
@@ -5875,298 +5839,290 @@
     </row>
     <row r="73" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X73" s="19"/>
-      <c r="Y73" s="23"/>
+      <c r="Y73" s="42"/>
     </row>
     <row r="74" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="X74" s="19"/>
-      <c r="Y74" s="23"/>
+      <c r="Y74" s="42"/>
     </row>
     <row r="75" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75" s="7">
+        <v>1</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O75" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="R75" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S75" s="7">
+        <v>1</v>
+      </c>
+      <c r="U75" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="V75" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="W75" s="30">
+        <v>1</v>
+      </c>
+      <c r="X75" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y75" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" s="7">
-        <v>1</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N75" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O75" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="R75" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="S75" s="7">
-        <v>1</v>
-      </c>
-      <c r="U75" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="V75" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="W75" s="30">
-        <v>1</v>
-      </c>
-      <c r="X75" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y75" s="22" t="s">
-        <v>354</v>
-      </c>
       <c r="AA75" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB75" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC75" s="7">
         <v>1</v>
       </c>
       <c r="AQ75" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR75" s="22" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
+      <c r="M76" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" s="7">
-        <v>1</v>
-      </c>
-      <c r="M76" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="N76" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O76" s="7">
         <v>1</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S76" s="7">
         <v>1</v>
       </c>
       <c r="U76" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V76" s="32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="W76" s="30">
         <v>1</v>
       </c>
       <c r="X76" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y76" s="22" t="s">
-        <v>354</v>
+        <v>367</v>
+      </c>
+      <c r="Y76" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA76" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB76" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC76" s="7">
         <v>1</v>
       </c>
       <c r="AQ76" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR76" s="22" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S77" s="7">
         <v>1</v>
       </c>
       <c r="U77" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V77" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W77" s="7">
         <v>1</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y77" s="22" t="s">
-        <v>354</v>
+        <v>368</v>
+      </c>
+      <c r="Y77" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA77" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB77" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC77" s="7">
         <v>1</v>
       </c>
       <c r="AQ77" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AR77" s="22" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78" s="7">
         <v>1</v>
       </c>
       <c r="X78" s="19"/>
-      <c r="Y78" s="23"/>
+      <c r="Y78" s="42"/>
     </row>
     <row r="79" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G79" s="7">
         <v>1</v>
       </c>
       <c r="X79" s="19"/>
-      <c r="Y79" s="23"/>
+      <c r="Y79" s="42"/>
     </row>
     <row r="80" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1</v>
+      </c>
+      <c r="M80" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" s="7">
-        <v>1</v>
-      </c>
-      <c r="M80" s="7" t="s">
+      <c r="N80" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="O80" s="7">
         <v>2</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S80" s="7">
         <v>1</v>
       </c>
-      <c r="U80" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="V80" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="W80" s="43">
-        <v>1</v>
-      </c>
-      <c r="X80" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y80" s="23"/>
+      <c r="U80" s="41"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="42"/>
     </row>
     <row r="81" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E81" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1</v>
+      </c>
+      <c r="M81" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" s="7">
-        <v>1</v>
-      </c>
-      <c r="M81" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="N81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O81" s="7">
+        <v>2</v>
+      </c>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="42"/>
+      <c r="AA81" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O81" s="7">
-        <v>2</v>
-      </c>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="23"/>
-      <c r="AA81" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="AB81" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC81" s="7">
         <v>1</v>
@@ -6174,125 +6130,125 @@
     </row>
     <row r="82" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G82" s="7">
         <v>1</v>
       </c>
       <c r="X82" s="19"/>
-      <c r="Y82" s="23"/>
+      <c r="Y82" s="42"/>
     </row>
     <row r="83" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S83" s="7">
         <v>1</v>
       </c>
       <c r="U83" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V83" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W83" s="7">
         <v>1</v>
       </c>
       <c r="X83" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y83" s="22" t="s">
-        <v>354</v>
+        <v>369</v>
+      </c>
+      <c r="Y83" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA83" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB83" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC83" s="7">
         <v>1</v>
       </c>
       <c r="AQ83" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AR83" s="22" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O84" s="7">
         <v>2</v>
       </c>
       <c r="X84" s="19"/>
-      <c r="Y84" s="23"/>
+      <c r="Y84" s="42"/>
     </row>
     <row r="85" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M85" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N85" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N85" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="O85" s="7">
         <v>1</v>
       </c>
       <c r="X85" s="19"/>
-      <c r="Y85" s="23"/>
+      <c r="Y85" s="42"/>
     </row>
     <row r="86" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M86" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N86" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N86" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="O86" s="7">
         <v>1</v>
       </c>
       <c r="X86" s="19"/>
-      <c r="Y86" s="23"/>
+      <c r="Y86" s="42"/>
       <c r="AA86" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB86" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="AB86" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="AC86" s="7">
         <v>1</v>
@@ -6300,24 +6256,24 @@
     </row>
     <row r="87" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O87" s="7">
+        <v>1</v>
+      </c>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="42"/>
+      <c r="AA87" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O87" s="7">
-        <v>1</v>
-      </c>
-      <c r="X87" s="19"/>
-      <c r="Y87" s="23"/>
-      <c r="AA87" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="AB87" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC87" s="7">
         <v>1</v>
@@ -6325,71 +6281,65 @@
     </row>
     <row r="88" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X88" s="19"/>
-      <c r="Y88" s="23"/>
+      <c r="Y88" s="42"/>
     </row>
     <row r="89" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="X89" s="19"/>
-      <c r="Y89" s="23"/>
+      <c r="Y89" s="42"/>
     </row>
     <row r="90" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G90" s="7">
+        <v>1</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K90" s="7">
+        <v>1</v>
+      </c>
+      <c r="M90" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G90" s="7">
-        <v>1</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K90" s="7">
-        <v>1</v>
-      </c>
-      <c r="M90" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="N90" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O90" s="7">
         <v>1</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R90" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S90" s="7">
         <v>1</v>
       </c>
-      <c r="U90" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="V90" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="W90" s="7">
-        <v>1</v>
-      </c>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
       <c r="X90" s="20"/>
-      <c r="Y90" s="23"/>
+      <c r="Y90" s="42"/>
       <c r="AA90" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB90" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC90" s="7">
         <v>1</v>
@@ -6397,31 +6347,31 @@
     </row>
     <row r="91" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7">
         <v>22</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7">
         <v>22</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N91" s="7"/>
       <c r="O91" s="7">
         <v>22</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R91" s="7"/>
       <c r="S91" s="7">
@@ -6431,16 +6381,16 @@
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
       <c r="X91" s="20"/>
-      <c r="Y91" s="23"/>
+      <c r="Y91" s="42"/>
       <c r="AA91" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB91" s="7"/>
       <c r="AC91" s="7">
         <v>22</v>
       </c>
       <c r="AE91" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF91" s="7"/>
       <c r="AG91" s="7">
@@ -6449,10 +6399,10 @@
     </row>
     <row r="92" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7">
@@ -6462,9 +6412,9 @@
       <c r="V92" s="7"/>
       <c r="W92" s="7"/>
       <c r="X92" s="20"/>
-      <c r="Y92" s="23"/>
+      <c r="Y92" s="42"/>
       <c r="AA92" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB92" s="7"/>
       <c r="AC92" s="7">
@@ -6473,54 +6423,54 @@
     </row>
     <row r="93" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7">
         <v>22</v>
       </c>
       <c r="X93" s="19"/>
-      <c r="Y93" s="23"/>
+      <c r="Y93" s="42"/>
     </row>
     <row r="94" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G94" s="7">
         <v>2</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K94" s="7">
         <v>2</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O94" s="7">
         <v>2</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S94" s="7">
         <v>2</v>
@@ -6529,12 +6479,12 @@
       <c r="V94" s="1"/>
       <c r="W94" s="7"/>
       <c r="X94" s="20"/>
-      <c r="Y94" s="23"/>
+      <c r="Y94" s="42"/>
       <c r="AA94" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC94" s="7">
         <v>2</v>
@@ -6542,22 +6492,22 @@
     </row>
     <row r="95" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J95" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K95" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K95" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q95" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="R95" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S95" s="7">
         <v>2</v>
@@ -6566,12 +6516,12 @@
       <c r="V95" s="1"/>
       <c r="W95" s="7"/>
       <c r="X95" s="20"/>
-      <c r="Y95" s="23"/>
+      <c r="Y95" s="42"/>
       <c r="AA95" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC95" s="7">
         <v>2</v>
@@ -6579,21 +6529,21 @@
     </row>
     <row r="96" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X96" s="19"/>
-      <c r="Y96" s="23"/>
+      <c r="Y96" s="42"/>
     </row>
     <row r="97" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="X97" s="19"/>
-      <c r="Y97" s="23"/>
+      <c r="Y97" s="42"/>
     </row>
     <row r="98" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J98" s="7">
         <v>0</v>
@@ -6602,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R98" s="7">
         <v>0</v>
@@ -6611,7 +6561,7 @@
         <v>2</v>
       </c>
       <c r="U98" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V98" s="7">
         <v>0</v>
@@ -6620,9 +6570,9 @@
         <v>2</v>
       </c>
       <c r="X98" s="20"/>
-      <c r="Y98" s="23"/>
+      <c r="Y98" s="42"/>
       <c r="AA98" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB98" s="7">
         <v>0</v>
@@ -6633,256 +6583,256 @@
     </row>
     <row r="99" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X99" s="19"/>
-      <c r="Y99" s="23"/>
+      <c r="Y99" s="42"/>
     </row>
     <row r="100" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X100" s="19"/>
-      <c r="Y100" s="23"/>
+      <c r="Y100" s="42"/>
     </row>
     <row r="101" spans="2:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="35" t="s">
-        <v>403</v>
+      <c r="B101" s="34" t="s">
+        <v>398</v>
       </c>
       <c r="X101" s="19"/>
-      <c r="Y101" s="23"/>
+      <c r="Y101" s="42"/>
     </row>
     <row r="102" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7">
         <v>1</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N102" s="21" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="O102" s="7">
         <v>1</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R102" s="7"/>
       <c r="S102" s="7">
         <v>1</v>
       </c>
       <c r="U102" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V102" s="33" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="W102" s="30">
         <v>1</v>
       </c>
       <c r="X102" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y102" s="22" t="s">
-        <v>354</v>
+        <v>393</v>
+      </c>
+      <c r="Y102" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA102" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB102" s="7"/>
       <c r="AC102">
         <v>1</v>
       </c>
       <c r="AM102" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN102" s="7"/>
       <c r="AO102">
         <v>1</v>
       </c>
       <c r="AQ102" s="22" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AR102" s="22" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="21" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G103" s="7">
         <v>1</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O103" s="7">
         <v>1</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R103" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S103" s="7">
         <v>1</v>
       </c>
       <c r="U103" s="32" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="V103" s="32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="W103" s="30">
         <v>1</v>
       </c>
       <c r="X103" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="Y103" s="22" t="s">
-        <v>354</v>
+        <v>396</v>
+      </c>
+      <c r="Y103" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA103" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB103" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC103" s="7">
         <v>1</v>
       </c>
       <c r="AQ103" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR103" s="22" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G104" s="7">
         <v>1</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O104" s="7">
         <v>1</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R104" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S104" s="7">
         <v>1</v>
       </c>
       <c r="U104" s="32" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="V104" s="32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="W104" s="30">
         <v>1</v>
       </c>
       <c r="X104" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y104" s="22" t="s">
-        <v>354</v>
+        <v>397</v>
+      </c>
+      <c r="Y104" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA104" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB104" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC104" s="7">
         <v>1</v>
       </c>
       <c r="AQ104" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR104" s="22" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N105" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S105">
         <v>1</v>
       </c>
       <c r="U105" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V105" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="W105" s="37">
-        <v>2</v>
-      </c>
-      <c r="X105" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y105" s="22" t="s">
-        <v>354</v>
+        <v>456</v>
+      </c>
+      <c r="W105" s="36">
+        <v>2</v>
+      </c>
+      <c r="X105" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y105" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AQ105" s="29" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AR105" s="22" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>23</v>
@@ -6891,13 +6841,13 @@
         <v>1</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="N106" s="29" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R106" s="7" t="s">
         <v>23</v>
@@ -6906,200 +6856,200 @@
         <v>1</v>
       </c>
       <c r="U106" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V106" s="29" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="W106" s="30">
         <v>2</v>
       </c>
       <c r="X106" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y106" s="22" t="s">
-        <v>354</v>
+        <v>400</v>
+      </c>
+      <c r="Y106" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AQ106" s="22" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AR106" s="22" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E107" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F107" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="G107" s="7">
         <v>1</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="N107" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O107">
         <v>2</v>
       </c>
       <c r="U107" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="V107" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="W107" s="30">
+        <v>2</v>
+      </c>
+      <c r="X107" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y107" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ107" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="V107" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="W107" s="30">
-        <v>2</v>
-      </c>
-      <c r="X107" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y107" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ107" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="AR107" s="22" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="22" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F108" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1</v>
+      </c>
+      <c r="M108" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G108" s="7">
-        <v>1</v>
-      </c>
-      <c r="M108" s="16" t="s">
-        <v>148</v>
-      </c>
       <c r="N108" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O108">
+        <v>2</v>
+      </c>
+      <c r="U108" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="O108">
-        <v>2</v>
-      </c>
-      <c r="U108" s="30" t="s">
-        <v>148</v>
-      </c>
       <c r="V108" s="29" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="W108" s="30">
         <v>2</v>
       </c>
       <c r="X108" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y108" s="22" t="s">
-        <v>354</v>
+        <v>405</v>
+      </c>
+      <c r="Y108" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AQ108" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR108" s="22" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G109" s="7">
         <v>1</v>
       </c>
       <c r="U109" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V109" s="29" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="W109" s="30">
         <v>2</v>
       </c>
       <c r="X109" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="Y109" s="22" t="s">
-        <v>354</v>
+        <v>459</v>
+      </c>
+      <c r="Y109" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AM109" s="7"/>
       <c r="AN109" s="7"/>
       <c r="AO109" s="7"/>
       <c r="AQ109" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR109" s="22" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="22" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="U110" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="V110" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="V110" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="W110" s="30">
+        <v>2</v>
+      </c>
+      <c r="X110" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="W110" s="30">
-        <v>2</v>
-      </c>
-      <c r="X110" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y110" s="22" t="s">
-        <v>354</v>
+      <c r="Y110" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AM110" s="7"/>
       <c r="AN110" s="7"/>
       <c r="AO110" s="7"/>
       <c r="AQ110" s="21" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AR110" s="22" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="X111" s="19"/>
-      <c r="Y111" s="23"/>
+      <c r="Y111" s="42"/>
     </row>
     <row r="112" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="X112" s="19"/>
-      <c r="Y112" s="23"/>
+      <c r="Y112" s="42"/>
       <c r="AI112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AJ112" t="s">
         <v>23</v>
@@ -7110,12 +7060,12 @@
     </row>
     <row r="113" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="X113" s="19"/>
-      <c r="Y113" s="23"/>
+      <c r="Y113" s="42"/>
       <c r="AI113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ113" t="s">
         <v>23</v>
@@ -7126,12 +7076,12 @@
     </row>
     <row r="114" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="X114" s="19"/>
-      <c r="Y114" s="23"/>
+      <c r="Y114" s="42"/>
       <c r="AI114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ114" t="s">
         <v>23</v>
@@ -7142,12 +7092,12 @@
     </row>
     <row r="115" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X115" s="19"/>
-      <c r="Y115" s="23"/>
+      <c r="Y115" s="42"/>
       <c r="AI115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AJ115" t="s">
         <v>23</v>
@@ -7158,12 +7108,12 @@
     </row>
     <row r="116" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="X116" s="19"/>
-      <c r="Y116" s="23"/>
+      <c r="Y116" s="42"/>
       <c r="AI116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AJ116" t="s">
         <v>23</v>
@@ -7174,82 +7124,82 @@
     </row>
     <row r="117" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X117" s="19"/>
-      <c r="Y117" s="23"/>
+      <c r="Y117" s="42"/>
     </row>
     <row r="118" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="39" t="s">
-        <v>417</v>
+      <c r="B118" s="38" t="s">
+        <v>412</v>
       </c>
       <c r="X118" s="19"/>
-      <c r="Y118" s="23"/>
+      <c r="Y118" s="42"/>
     </row>
     <row r="119" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="21" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="7">
         <v>1</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7">
         <v>1</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N119" s="7"/>
       <c r="O119" s="7">
         <v>1</v>
       </c>
       <c r="Q119" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R119" s="7"/>
       <c r="S119" s="7">
         <v>1</v>
       </c>
       <c r="U119" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V119" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W119" s="30">
         <v>1</v>
       </c>
       <c r="X119" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y119" s="22" t="s">
-        <v>354</v>
+        <v>419</v>
+      </c>
+      <c r="Y119" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA119" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB119" s="7"/>
       <c r="AC119" s="7">
         <v>1</v>
       </c>
       <c r="AQ119" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AR119" s="22" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>23</v>
@@ -7258,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="Q120" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R120" s="7" t="s">
         <v>23</v>
@@ -7267,7 +7217,7 @@
         <v>4</v>
       </c>
       <c r="U120" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V120" s="30" t="s">
         <v>23</v>
@@ -7276,13 +7226,13 @@
         <v>2</v>
       </c>
       <c r="X120" s="31" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y120" s="22" t="s">
-        <v>354</v>
+        <v>420</v>
+      </c>
+      <c r="Y120" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA120" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB120" s="7" t="s">
         <v>23</v>
@@ -7291,54 +7241,54 @@
         <v>4</v>
       </c>
       <c r="AQ120" s="22" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AR120" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="7">
         <v>1</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7">
         <v>1</v>
       </c>
       <c r="Q121" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R121" s="7"/>
       <c r="S121" s="7">
         <v>1</v>
       </c>
       <c r="U121" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V121" s="32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="W121" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="X121" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="X121" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y121" s="22" t="s">
-        <v>354</v>
+      <c r="Y121" s="50" t="s">
+        <v>352</v>
       </c>
       <c r="AA121" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB121" s="7"/>
       <c r="AC121" s="7">
@@ -7348,103 +7298,103 @@
     </row>
     <row r="122" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="7">
         <v>1</v>
       </c>
       <c r="Q122" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R122" s="7"/>
       <c r="S122" s="7">
         <v>1</v>
       </c>
       <c r="U122" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="V122" s="38" t="s">
-        <v>407</v>
+        <v>64</v>
+      </c>
+      <c r="V122" s="37" t="s">
+        <v>402</v>
       </c>
       <c r="W122" s="30">
         <v>2</v>
       </c>
       <c r="X122" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y122" s="23"/>
+        <v>422</v>
+      </c>
+      <c r="Y122" s="42"/>
       <c r="AA122" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB122" s="7"/>
       <c r="AC122" s="7">
         <v>1</v>
       </c>
       <c r="AQ122" s="22" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AR122" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="39" t="s">
-        <v>418</v>
+      <c r="B123" s="38" t="s">
+        <v>413</v>
       </c>
       <c r="X123" s="19"/>
-      <c r="Y123" s="23"/>
+      <c r="Y123" s="42"/>
     </row>
     <row r="124" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="21" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F124" s="7"/>
       <c r="G124" s="7">
         <v>1</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7">
         <v>1</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N124" s="7"/>
       <c r="O124" s="7">
         <v>1</v>
       </c>
       <c r="Q124" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R124" s="7"/>
       <c r="S124" s="7">
         <v>1</v>
       </c>
       <c r="U124" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V124" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W124" s="30">
         <v>1</v>
       </c>
       <c r="X124" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y124" s="23"/>
+        <v>423</v>
+      </c>
+      <c r="Y124" s="42"/>
       <c r="AA124" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB124" s="7"/>
       <c r="AC124" s="7">
@@ -7453,10 +7403,10 @@
     </row>
     <row r="125" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>23</v>
@@ -7465,7 +7415,7 @@
         <v>4</v>
       </c>
       <c r="Q125" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R125" s="7" t="s">
         <v>23</v>
@@ -7483,11 +7433,11 @@
         <v>2</v>
       </c>
       <c r="X125" s="31" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y125" s="23"/>
+        <v>424</v>
+      </c>
+      <c r="Y125" s="42"/>
       <c r="AA125" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB125" s="7" t="s">
         <v>23</v>
@@ -7496,52 +7446,52 @@
         <v>4</v>
       </c>
       <c r="AQ125" s="22" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AR125" s="16" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F126" s="7"/>
       <c r="G126" s="7">
         <v>1</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7">
         <v>1</v>
       </c>
       <c r="Q126" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R126" s="7"/>
       <c r="S126" s="7">
         <v>1</v>
       </c>
       <c r="U126" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V126" s="32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="W126" s="32" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="X126" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="Y126" s="23"/>
+        <v>425</v>
+      </c>
+      <c r="Y126" s="42"/>
       <c r="AA126" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB126" s="7"/>
       <c r="AC126" s="7">
@@ -7551,103 +7501,103 @@
     </row>
     <row r="127" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="7">
         <v>1</v>
       </c>
       <c r="Q127" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R127" s="7"/>
       <c r="S127" s="7">
         <v>1</v>
       </c>
       <c r="U127" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="V127" s="38" t="s">
-        <v>407</v>
+        <v>66</v>
+      </c>
+      <c r="V127" s="37" t="s">
+        <v>402</v>
       </c>
       <c r="W127" s="30">
         <v>2</v>
       </c>
       <c r="X127" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y127" s="23"/>
+        <v>426</v>
+      </c>
+      <c r="Y127" s="42"/>
       <c r="AA127" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB127" s="7"/>
       <c r="AC127" s="7">
         <v>1</v>
       </c>
       <c r="AQ127" s="22" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AR127" s="16" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="39" t="s">
-        <v>419</v>
+      <c r="B128" s="38" t="s">
+        <v>414</v>
       </c>
       <c r="X128" s="19"/>
-      <c r="Y128" s="23"/>
+      <c r="Y128" s="42"/>
     </row>
     <row r="129" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="21" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="7">
         <v>1</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7">
         <v>1</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N129" s="7"/>
       <c r="O129" s="7">
         <v>1</v>
       </c>
       <c r="Q129" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R129" s="7"/>
       <c r="S129" s="7">
         <v>1</v>
       </c>
       <c r="U129" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V129" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W129" s="30">
         <v>1</v>
       </c>
       <c r="X129" s="31" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y129" s="23"/>
+        <v>427</v>
+      </c>
+      <c r="Y129" s="42"/>
       <c r="AA129" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB129" s="7"/>
       <c r="AC129" s="7">
@@ -7656,10 +7606,10 @@
     </row>
     <row r="130" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>23</v>
@@ -7668,7 +7618,7 @@
         <v>4</v>
       </c>
       <c r="Q130" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R130" s="7" t="s">
         <v>23</v>
@@ -7686,11 +7636,11 @@
         <v>2</v>
       </c>
       <c r="X130" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y130" s="23"/>
+        <v>428</v>
+      </c>
+      <c r="Y130" s="42"/>
       <c r="AA130" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB130" s="7" t="s">
         <v>23</v>
@@ -7699,52 +7649,52 @@
         <v>4</v>
       </c>
       <c r="AQ130" s="22" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AR130" s="16" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="7">
         <v>1</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7">
         <v>1</v>
       </c>
       <c r="Q131" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R131" s="7"/>
       <c r="S131" s="7">
         <v>1</v>
       </c>
       <c r="U131" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V131" s="32" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="W131" s="32" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="X131" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y131" s="23"/>
+        <v>429</v>
+      </c>
+      <c r="Y131" s="42"/>
       <c r="AA131" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB131" s="7"/>
       <c r="AC131" s="7">
@@ -7754,47 +7704,47 @@
     </row>
     <row r="132" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="7">
         <v>1</v>
       </c>
       <c r="Q132" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R132" s="7"/>
       <c r="S132" s="7">
         <v>1</v>
       </c>
       <c r="U132" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="V132" s="38" t="s">
-        <v>407</v>
+        <v>67</v>
+      </c>
+      <c r="V132" s="37" t="s">
+        <v>402</v>
       </c>
       <c r="W132" s="30">
         <v>2</v>
       </c>
       <c r="X132" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y132" s="23"/>
+        <v>430</v>
+      </c>
+      <c r="Y132" s="42"/>
       <c r="AA132" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB132" s="7"/>
       <c r="AC132" s="7">
         <v>1</v>
       </c>
       <c r="AQ132" s="22" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AR132" s="16" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7805,7 +7755,7 @@
       <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
       <c r="S133" s="7"/>
-      <c r="Y133" s="23"/>
+      <c r="Y133" s="42"/>
       <c r="AA133" s="7"/>
       <c r="AB133" s="7"/>
       <c r="AC133" s="7"/>
@@ -7814,30 +7764,26 @@
     <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7"/>
       <c r="E134" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="7">
         <v>1</v>
       </c>
       <c r="Q134" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R134" s="7"/>
       <c r="S134" s="7">
         <v>1</v>
       </c>
-      <c r="U134" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="U134" s="7"/>
       <c r="V134" s="7"/>
-      <c r="W134" s="7">
-        <v>1</v>
-      </c>
+      <c r="W134" s="7"/>
       <c r="X134" s="20"/>
-      <c r="Y134" s="23"/>
+      <c r="Y134" s="42"/>
       <c r="AA134" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB134" s="7"/>
       <c r="AC134" s="7">
@@ -7847,7 +7793,7 @@
     <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="E135" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>23</v>
@@ -7856,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="M135" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N135" s="7" t="s">
         <v>23</v>
@@ -7865,7 +7811,7 @@
         <v>2</v>
       </c>
       <c r="Q135" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R135" s="7" t="s">
         <v>23</v>
@@ -7873,19 +7819,13 @@
       <c r="S135" s="7">
         <v>2</v>
       </c>
-      <c r="U135" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="V135" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W135" s="7">
-        <v>2</v>
-      </c>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
       <c r="X135" s="20"/>
-      <c r="Y135" s="23"/>
+      <c r="Y135" s="42"/>
       <c r="AA135" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB135" s="7" t="s">
         <v>23</v>
@@ -7897,792 +7837,840 @@
     <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
       <c r="E136" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G136" s="7">
+        <v>1</v>
+      </c>
+      <c r="M136" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="O136" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="S136" s="7">
+        <v>1</v>
+      </c>
+      <c r="U136" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="W136" s="7">
+        <v>1</v>
+      </c>
+      <c r="X136" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y136" s="42"/>
+      <c r="AA136" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y137" s="42"/>
+    </row>
+    <row r="138" spans="2:44" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G136" s="7">
-        <v>1</v>
-      </c>
-      <c r="M136" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="O136" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="S136" s="7">
-        <v>1</v>
-      </c>
-      <c r="U136" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="W136" s="7">
-        <v>1</v>
-      </c>
-      <c r="X136" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y136" s="23"/>
-      <c r="AA136" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC136" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y137" s="23"/>
-    </row>
-    <row r="138" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B138" s="2" t="s">
+      <c r="Y138" s="42"/>
+    </row>
+    <row r="139" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="Y138" s="23"/>
-    </row>
-    <row r="139" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B139" s="7" t="s">
+      <c r="Y139" s="42"/>
+      <c r="AI139" t="s">
         <v>163</v>
       </c>
-      <c r="Y139" s="23"/>
-      <c r="AI139" t="s">
+      <c r="AJ139" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="AJ139" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B140" s="7" t="s">
+      <c r="Y140" s="42"/>
+      <c r="AI140" t="s">
         <v>165</v>
       </c>
-      <c r="Y140" s="23"/>
-      <c r="AI140" t="s">
+      <c r="AJ140" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AJ140" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B141" s="7" t="s">
+      <c r="Y141" s="42"/>
+      <c r="AI141" t="s">
         <v>167</v>
       </c>
-      <c r="Y141" s="23"/>
-      <c r="AI141" t="s">
+      <c r="AJ141" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="AJ141" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B142" s="7" t="s">
+      <c r="Y142" s="42"/>
+      <c r="AI142" t="s">
         <v>169</v>
       </c>
-      <c r="Y142" s="23"/>
-      <c r="AI142" t="s">
+      <c r="AJ142" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AJ142" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B143" s="7" t="s">
+      <c r="Y143" s="42"/>
+      <c r="AI143" t="s">
         <v>171</v>
       </c>
-      <c r="Y143" s="23"/>
-      <c r="AI143" t="s">
+      <c r="AJ143" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="AJ143" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="2:44" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B144" s="7" t="s">
+      <c r="Y144" s="42"/>
+      <c r="AI144" t="s">
         <v>173</v>
       </c>
-      <c r="Y144" s="23"/>
-      <c r="AI144" t="s">
+      <c r="AJ144" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
         <v>174</v>
       </c>
-      <c r="AJ144" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
+      <c r="Y145" s="42"/>
+      <c r="AI145" t="s">
         <v>175</v>
       </c>
-      <c r="Y145" s="23"/>
-      <c r="AI145" t="s">
+      <c r="AJ145" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AJ145" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B146" s="7" t="s">
+      <c r="Y146" s="42"/>
+      <c r="AI146" t="s">
         <v>177</v>
       </c>
-      <c r="Y146" s="23"/>
-      <c r="AI146" t="s">
-        <v>178</v>
-      </c>
       <c r="AJ146" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK146">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y147" s="42"/>
+      <c r="AI147" t="s">
         <v>179</v>
       </c>
-      <c r="Y147" s="23"/>
-      <c r="AI147" t="s">
-        <v>180</v>
-      </c>
       <c r="AJ147" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK147">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y148" s="42"/>
+      <c r="AI148" t="s">
         <v>181</v>
       </c>
-      <c r="AI148" t="s">
-        <v>182</v>
-      </c>
       <c r="AJ148" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK148">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y149" s="42"/>
+      <c r="AI149" t="s">
         <v>183</v>
       </c>
-      <c r="AI149" t="s">
-        <v>184</v>
-      </c>
       <c r="AJ149" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK149">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y150" s="42"/>
+      <c r="AI150" t="s">
         <v>185</v>
       </c>
-      <c r="AI150" t="s">
-        <v>186</v>
-      </c>
       <c r="AJ150" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK150">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y151" s="42"/>
+      <c r="AI151" t="s">
         <v>187</v>
       </c>
-      <c r="AI151" t="s">
-        <v>188</v>
-      </c>
       <c r="AJ151" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK151">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y152" s="42"/>
+      <c r="AI152" t="s">
         <v>189</v>
       </c>
-      <c r="AI152" t="s">
-        <v>190</v>
-      </c>
       <c r="AJ152" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK152">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y153" s="42"/>
+      <c r="AI153" t="s">
         <v>191</v>
       </c>
-      <c r="AI153" t="s">
-        <v>192</v>
-      </c>
       <c r="AJ153" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK153">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y154" s="42"/>
+      <c r="AI154" t="s">
         <v>193</v>
       </c>
-      <c r="AI154" t="s">
-        <v>194</v>
-      </c>
       <c r="AJ154" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK154">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y155" s="42"/>
+      <c r="AI155" t="s">
         <v>195</v>
       </c>
-      <c r="AI155" t="s">
-        <v>196</v>
-      </c>
       <c r="AJ155" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y156" s="42"/>
+      <c r="AI156" t="s">
         <v>197</v>
       </c>
-      <c r="AI156" t="s">
-        <v>198</v>
-      </c>
       <c r="AJ156" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK156">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y157" s="42"/>
+      <c r="AI157" t="s">
         <v>199</v>
       </c>
-      <c r="AI157" t="s">
-        <v>200</v>
-      </c>
       <c r="AJ157" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK157">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y158" s="42"/>
+      <c r="AI158" t="s">
         <v>201</v>
-      </c>
-      <c r="AI158" t="s">
-        <v>202</v>
       </c>
       <c r="AK158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y159" s="42"/>
+      <c r="AI159" t="s">
         <v>203</v>
-      </c>
-      <c r="AI159" t="s">
-        <v>204</v>
       </c>
       <c r="AK159">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y160" s="42"/>
+      <c r="AI160" t="s">
         <v>205</v>
-      </c>
-      <c r="AI160" t="s">
-        <v>206</v>
       </c>
       <c r="AK160">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y161" s="42"/>
+      <c r="AI161" t="s">
         <v>207</v>
-      </c>
-      <c r="AI161" t="s">
-        <v>208</v>
       </c>
       <c r="AK161">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y162" s="42"/>
+      <c r="AI162" t="s">
         <v>209</v>
-      </c>
-      <c r="AI162" t="s">
-        <v>210</v>
       </c>
       <c r="AK162">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y163" s="42"/>
+      <c r="AI163" t="s">
         <v>211</v>
-      </c>
-      <c r="AI163" t="s">
-        <v>212</v>
       </c>
       <c r="AK163">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y164" s="42"/>
+      <c r="AI164" t="s">
         <v>213</v>
-      </c>
-      <c r="AI164" t="s">
-        <v>214</v>
       </c>
       <c r="AK164">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y165" s="42"/>
+      <c r="AI165" t="s">
         <v>215</v>
-      </c>
-      <c r="AI165" t="s">
-        <v>216</v>
       </c>
       <c r="AK165">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y166" s="42"/>
+      <c r="AI166" t="s">
         <v>217</v>
-      </c>
-      <c r="AI166" t="s">
-        <v>218</v>
       </c>
       <c r="AK166">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y167" s="42"/>
+      <c r="AI167" t="s">
         <v>219</v>
-      </c>
-      <c r="AI167" t="s">
-        <v>220</v>
       </c>
       <c r="AK167">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y168" s="42"/>
+      <c r="AI168" t="s">
         <v>221</v>
-      </c>
-      <c r="AI168" t="s">
-        <v>222</v>
       </c>
       <c r="AK168">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y169" s="42"/>
+      <c r="AI169" t="s">
         <v>223</v>
-      </c>
-      <c r="AI169" t="s">
-        <v>224</v>
       </c>
       <c r="AK169">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y170" s="42"/>
+      <c r="AI170" t="s">
         <v>225</v>
       </c>
-      <c r="AI170" t="s">
+      <c r="AJ170" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AJ170" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B171" s="1" t="s">
+      <c r="Y171" s="42"/>
+      <c r="AI171" t="s">
         <v>227</v>
       </c>
-      <c r="AI171" t="s">
+      <c r="AJ171" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AJ171" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B172" s="1" t="s">
+      <c r="Y172" s="42"/>
+      <c r="AI172" t="s">
         <v>229</v>
       </c>
-      <c r="AI172" t="s">
+      <c r="AJ172" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="AJ172" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B173" s="7" t="s">
+      <c r="Y173" s="42"/>
+      <c r="AI173" t="s">
         <v>231</v>
       </c>
-      <c r="AI173" t="s">
+      <c r="AJ173" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="AJ173" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B174" s="7" t="s">
+      <c r="Y174" s="42"/>
+      <c r="AI174" t="s">
         <v>233</v>
       </c>
-      <c r="AI174" t="s">
+      <c r="AJ174" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AJ174" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B175" s="7" t="s">
+      <c r="Y175" s="42"/>
+      <c r="AI175" t="s">
         <v>235</v>
       </c>
-      <c r="AI175" t="s">
+      <c r="AJ175" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AJ175" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="2:37" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B176" s="7" t="s">
+      <c r="Y176" s="42"/>
+      <c r="AI176" t="s">
         <v>237</v>
       </c>
-      <c r="AI176" t="s">
+      <c r="AJ176" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="AJ176" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B177" s="7" t="s">
+      <c r="Y177" s="42"/>
+      <c r="AI177" t="s">
         <v>239</v>
       </c>
-      <c r="AI177" t="s">
+      <c r="AJ177" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="AJ177" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B178" s="7" t="s">
+      <c r="Y178" s="42"/>
+      <c r="AI178" t="s">
         <v>241</v>
       </c>
-      <c r="AI178" t="s">
+      <c r="AJ178" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="AJ178" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B179" s="7" t="s">
+      <c r="Y179" s="42"/>
+      <c r="AI179" t="s">
         <v>243</v>
       </c>
-      <c r="AI179" t="s">
+      <c r="AJ179" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B180" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="AJ179" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B180" s="7" t="s">
+      <c r="Y180" s="42"/>
+      <c r="AI180" t="s">
         <v>245</v>
       </c>
-      <c r="AI180" t="s">
+      <c r="AJ180" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="AJ180" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B181" s="7" t="s">
+      <c r="Y181" s="42"/>
+      <c r="AI181" t="s">
         <v>247</v>
       </c>
-      <c r="AI181" t="s">
+      <c r="AJ181" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="7"/>
+      <c r="Y182" s="42"/>
+    </row>
+    <row r="183" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AJ181" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B182" s="7"/>
-    </row>
-    <row r="183" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B183" s="2" t="s">
+      <c r="Y183" s="42"/>
+    </row>
+    <row r="184" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="184" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B184" s="7" t="s">
+      <c r="Y184" s="42"/>
+      <c r="AM184" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN184" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="AM184" t="s">
+      <c r="Y185" s="42"/>
+      <c r="AM185" t="s">
         <v>58</v>
       </c>
-      <c r="AN184" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B185" s="7" t="s">
+      <c r="AN185" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AM185" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN185" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B186" s="7" t="s">
+      <c r="Y186" s="42"/>
+      <c r="AM186" t="s">
         <v>252</v>
       </c>
-      <c r="AM186" t="s">
+      <c r="AN186" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AN186" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B187" s="7" t="s">
+      <c r="Y187" s="42"/>
+      <c r="AM187" t="s">
         <v>254</v>
       </c>
-      <c r="AM187" t="s">
+      <c r="AN187" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="AN187" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B188" s="7" t="s">
+      <c r="Y188" s="42"/>
+      <c r="AM188" t="s">
         <v>256</v>
       </c>
-      <c r="AM188" t="s">
+      <c r="AN188" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AN188" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B189" s="7" t="s">
+      <c r="Y189" s="42"/>
+      <c r="AM189" t="s">
         <v>258</v>
       </c>
-      <c r="AM189" t="s">
+      <c r="AN189" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="AN189" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B190" s="7" t="s">
+      <c r="Y190" s="42"/>
+      <c r="AM190" t="s">
         <v>260</v>
       </c>
-      <c r="AM190" t="s">
+      <c r="AN190" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="AN190" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B191" s="7" t="s">
+      <c r="Y191" s="42"/>
+      <c r="AM191" t="s">
         <v>262</v>
       </c>
-      <c r="AM191" t="s">
+      <c r="AN191" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="AN191" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B192" s="7" t="s">
+      <c r="Y192" s="42"/>
+      <c r="AM192" t="s">
         <v>264</v>
       </c>
-      <c r="AM192" t="s">
+      <c r="AN192" t="s">
         <v>265</v>
       </c>
-      <c r="AN192" t="s">
+      <c r="AO192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="AO192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B193" s="7" t="s">
+      <c r="Y193" s="42"/>
+      <c r="AM193" t="s">
         <v>267</v>
       </c>
-      <c r="AM193" t="s">
+      <c r="AN193" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="AN193" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B194" s="7" t="s">
+      <c r="Y194" s="42"/>
+      <c r="AM194" t="s">
         <v>269</v>
       </c>
-      <c r="AM194" t="s">
+      <c r="AN194" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AN194" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="2:41" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B195" s="7" t="s">
+      <c r="Y195" s="42"/>
+      <c r="AM195" t="s">
         <v>271</v>
-      </c>
-      <c r="AM195" t="s">
-        <v>272</v>
       </c>
       <c r="AO195">
         <v>4</v>
@@ -8690,15 +8678,19 @@
     </row>
     <row r="196" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B196" s="7"/>
+      <c r="Y196" s="42"/>
     </row>
     <row r="197" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B197" s="7"/>
+      <c r="Y197" s="42"/>
     </row>
     <row r="198" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B198" s="7"/>
+      <c r="Y198" s="42"/>
     </row>
     <row r="199" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B199" s="7"/>
+      <c r="Y199" s="42"/>
     </row>
     <row r="200" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B200" s="7"/>
@@ -8779,44 +8771,44 @@
   <sheetData>
     <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="3">
         <v>39171</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="3">
         <v>39224</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="3">
         <v>40920</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Optolink_Logger_v3.xlsx
+++ b/Optolink_Logger_v3.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Viessmann-Control\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="510" windowWidth="25080" windowHeight="11445"/>
   </bookViews>
@@ -25,7 +20,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="V3" authorId="0" shapeId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="0" shapeId="0">
+    <comment ref="AF3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN3" authorId="0" shapeId="0">
+    <comment ref="AN3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB11" authorId="0" shapeId="0">
+    <comment ref="AB11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N26" authorId="0" shapeId="0">
+    <comment ref="N26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N30" authorId="0" shapeId="0">
+    <comment ref="N30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB42" authorId="0" shapeId="0">
+    <comment ref="AB42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC70" authorId="0" shapeId="0">
+    <comment ref="AC70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O78" authorId="0" shapeId="0">
+    <comment ref="O78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O79" authorId="0" shapeId="0">
+    <comment ref="O79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O82" authorId="0" shapeId="0">
+    <comment ref="O82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O83" authorId="0" shapeId="0">
+    <comment ref="O83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G89" authorId="0" shapeId="0">
+    <comment ref="G89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K89" authorId="0" shapeId="0">
+    <comment ref="K89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O89" authorId="0" shapeId="0">
+    <comment ref="O89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S89" authorId="0" shapeId="0">
+    <comment ref="S89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W89" authorId="0" shapeId="0">
+    <comment ref="W89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC89" authorId="0" shapeId="0">
+    <comment ref="AC89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL89" authorId="0" shapeId="0">
+    <comment ref="AL89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G90" authorId="0" shapeId="0">
+    <comment ref="G90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W90" authorId="0" shapeId="0">
+    <comment ref="W90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC90" authorId="0" shapeId="0">
+    <comment ref="AC90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G91" authorId="0" shapeId="0">
+    <comment ref="G91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G92" authorId="0" shapeId="0">
+    <comment ref="G92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K92" authorId="0" shapeId="0">
+    <comment ref="K92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O92" authorId="0" shapeId="0">
+    <comment ref="O92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S92" authorId="0" shapeId="0">
+    <comment ref="S92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W92" authorId="0" shapeId="0">
+    <comment ref="W92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC92" authorId="0" shapeId="0">
+    <comment ref="AC92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K93" authorId="0" shapeId="0">
+    <comment ref="K93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S93" authorId="0" shapeId="0">
+    <comment ref="S93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W93" authorId="0" shapeId="0">
+    <comment ref="W93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC93" authorId="0" shapeId="0">
+    <comment ref="AC93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G100" authorId="0" shapeId="0">
+    <comment ref="G100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O100" authorId="0" shapeId="0">
+    <comment ref="O100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S100" authorId="0" shapeId="0">
+    <comment ref="S100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W100" authorId="0" shapeId="0">
+    <comment ref="W100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC100" authorId="0" shapeId="0">
+    <comment ref="AC100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO100" authorId="0" shapeId="0">
+    <comment ref="AO100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G114" authorId="0" shapeId="0">
+    <comment ref="G114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -585,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K114" authorId="0" shapeId="0">
+    <comment ref="K114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -601,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O114" authorId="0" shapeId="0">
+    <comment ref="O114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S114" authorId="0" shapeId="0">
+    <comment ref="S114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W114" authorId="0" shapeId="0">
+    <comment ref="W114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC114" authorId="0" shapeId="0">
+    <comment ref="AC114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G116" authorId="0" shapeId="0">
+    <comment ref="G116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -679,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K116" authorId="0" shapeId="0">
+    <comment ref="K116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S116" authorId="0" shapeId="0">
+    <comment ref="S116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -707,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W116" authorId="0" shapeId="0">
+    <comment ref="W116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC116" authorId="0" shapeId="0">
+    <comment ref="AC116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G117" authorId="0" shapeId="0">
+    <comment ref="G117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -750,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S117" authorId="0" shapeId="0">
+    <comment ref="S117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -765,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W117" authorId="0" shapeId="0">
+    <comment ref="W117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC117" authorId="0" shapeId="0">
+    <comment ref="AC117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G118" authorId="0" shapeId="0">
+    <comment ref="G118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -808,7 +803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S118" authorId="0" shapeId="0">
+    <comment ref="S118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W118" authorId="0" shapeId="0">
+    <comment ref="W118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -834,7 +829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC118" authorId="0" shapeId="0">
+    <comment ref="AC118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -847,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G123" authorId="0" shapeId="0">
+    <comment ref="G123" authorId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S123" authorId="0" shapeId="0">
+    <comment ref="S123" authorId="0">
       <text>
         <r>
           <rPr>
@@ -873,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W123" authorId="0" shapeId="0">
+    <comment ref="W123" authorId="0">
       <text>
         <r>
           <rPr>
@@ -886,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC123" authorId="0" shapeId="0">
+    <comment ref="AC123" authorId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G128" authorId="0" shapeId="0">
+    <comment ref="G128" authorId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S128" authorId="0" shapeId="0">
+    <comment ref="S128" authorId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W128" authorId="0" shapeId="0">
+    <comment ref="W128" authorId="0">
       <text>
         <r>
           <rPr>
@@ -938,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC128" authorId="0" shapeId="0">
+    <comment ref="AC128" authorId="0">
       <text>
         <r>
           <rPr>
@@ -951,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5208" authorId="0" shapeId="0">
+    <comment ref="G5208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -963,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5208" authorId="0" shapeId="0">
+    <comment ref="S5208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -975,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5208" authorId="0" shapeId="0">
+    <comment ref="W5208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -987,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5209" authorId="0" shapeId="0">
+    <comment ref="G5209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -999,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5209" authorId="0" shapeId="0">
+    <comment ref="S5209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1011,7 +1006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5209" authorId="0" shapeId="0">
+    <comment ref="W5209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1028,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="486">
   <si>
     <t>V333MW1</t>
   </si>
@@ -2425,16 +2420,89 @@
   </si>
   <si>
     <t>DT</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>Scaled</t>
+  </si>
+  <si>
+    <t>0x6600</t>
+  </si>
+  <si>
+    <t>0x2098</t>
+  </si>
+  <si>
+    <t>Raw value (hex)</t>
+  </si>
+  <si>
+    <t>0x8100</t>
+  </si>
+  <si>
+    <t>short - float</t>
+  </si>
+  <si>
+    <t>0xEC00</t>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>0x6D00</t>
+  </si>
+  <si>
+    <t>0xED00</t>
+  </si>
+  <si>
+    <t>0xC800</t>
+  </si>
+  <si>
+    <t>0x7800</t>
+  </si>
+  <si>
+    <t>0xFF</t>
+  </si>
+  <si>
+    <t>0x00720000</t>
+  </si>
+  <si>
+    <t>0x4D119E00</t>
+  </si>
+  <si>
+    <t>2877.532471 hours</t>
+  </si>
+  <si>
+    <t>uint</t>
+  </si>
+  <si>
+    <t>0xB1083400</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x32FF</t>
+  </si>
+  <si>
+    <t>short float</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2648,7 +2716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2738,6 +2806,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2750,13 +2831,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2913,7 +2990,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2945,10 +3022,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2980,7 +3056,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3156,17 +3231,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AR5209"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AV5209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="U24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="T76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="AV110" sqref="AV110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
@@ -3213,7 +3288,7 @@
     <col min="43" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:48" ht="18" customHeight="1">
       <c r="B1" s="10" t="s">
         <v>280</v>
       </c>
@@ -3257,54 +3332,54 @@
       <c r="AO1" s="15"/>
       <c r="AP1" s="15"/>
     </row>
-    <row r="2" spans="2:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="45" t="s">
+    <row r="2" spans="2:48" ht="21.75" customHeight="1">
+      <c r="E2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="I2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="M2" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="Q2" s="45" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="I2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="M2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="Q2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="U2" s="45" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="U2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="AA2" s="45" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="AA2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AE2" s="47" t="s">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AE2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AI2" s="47" t="s">
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AI2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AM2" s="47" t="s">
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AM2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-    </row>
-    <row r="3" spans="2:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+    </row>
+    <row r="3" spans="2:48" ht="27.75" customHeight="1">
       <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
@@ -3351,7 +3426,7 @@
         <v>11</v>
       </c>
       <c r="X3" s="12"/>
-      <c r="Y3" s="49" t="s">
+      <c r="Y3" s="47" t="s">
         <v>460</v>
       </c>
       <c r="AA3" s="9" t="s">
@@ -3398,8 +3473,17 @@
       <c r="AR3" s="22" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="4" spans="2:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS3" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT3" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="AU3" s="45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="2:48" ht="21.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>281</v>
       </c>
@@ -3487,19 +3571,28 @@
       <c r="AR4" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="5" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS4" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT4" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="AU4">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="5" spans="2:48" ht="12.75" customHeight="1">
       <c r="X5" s="19"/>
       <c r="Y5" s="42"/>
     </row>
-    <row r="6" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:48" ht="12.75" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>282</v>
       </c>
       <c r="X6" s="19"/>
       <c r="Y6" s="42"/>
     </row>
-    <row r="7" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:48" ht="12.75" customHeight="1">
       <c r="B7" s="7" t="s">
         <v>283</v>
       </c>
@@ -3560,8 +3653,20 @@
       <c r="AR7" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="8" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS7" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT7" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="AU7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AV7" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="2:48" ht="12.75" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>284</v>
       </c>
@@ -3613,8 +3718,20 @@
       <c r="AR8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="9" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS8" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT8" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="AU8">
+        <v>12.9</v>
+      </c>
+      <c r="AV8" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="2:48" ht="12.75" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>349</v>
       </c>
@@ -3684,8 +3801,20 @@
       <c r="AR9" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="10" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS9" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT9" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="AU9">
+        <v>23.6</v>
+      </c>
+      <c r="AV9" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="2:48" ht="12.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>285</v>
       </c>
@@ -3740,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:48" ht="12.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>286</v>
       </c>
@@ -3766,7 +3895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:48" ht="12.75" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>287</v>
       </c>
@@ -3792,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:48" ht="12.75" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>288</v>
       </c>
@@ -3856,8 +3985,17 @@
       <c r="AR13" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="14" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS13" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT13" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="AV13" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="2:48" ht="12.75" customHeight="1">
       <c r="B14" s="7" t="s">
         <v>289</v>
       </c>
@@ -3912,7 +4050,7 @@
       <c r="X14" s="39"/>
       <c r="Y14" s="42"/>
     </row>
-    <row r="15" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:48" ht="12.75" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>290</v>
       </c>
@@ -3958,7 +4096,7 @@
       <c r="X15" s="39"/>
       <c r="Y15" s="42"/>
     </row>
-    <row r="16" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:48" ht="12.75" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>291</v>
       </c>
@@ -3983,7 +4121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:48" ht="12.75" customHeight="1">
       <c r="B17" s="7" t="s">
         <v>292</v>
       </c>
@@ -4062,8 +4200,20 @@
       <c r="AR17" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="18" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS17" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT17" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="AU17" s="45">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AV17" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48" ht="12.75" customHeight="1">
       <c r="B18" s="7" t="s">
         <v>293</v>
       </c>
@@ -4133,8 +4283,20 @@
       <c r="AR18" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="19" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS18" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT18" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="AU18" s="45">
+        <v>10.9</v>
+      </c>
+      <c r="AV18" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="2:48" ht="12.75" customHeight="1">
       <c r="B19" s="7" t="s">
         <v>294</v>
       </c>
@@ -4150,7 +4312,7 @@
       <c r="X19" s="19"/>
       <c r="Y19" s="42"/>
     </row>
-    <row r="20" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:48" ht="12.75" customHeight="1">
       <c r="B20" s="7" t="s">
         <v>295</v>
       </c>
@@ -4166,7 +4328,7 @@
       <c r="X20" s="19"/>
       <c r="Y20" s="42"/>
     </row>
-    <row r="21" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:48" ht="12.75" customHeight="1">
       <c r="B21" s="7" t="s">
         <v>296</v>
       </c>
@@ -4182,7 +4344,7 @@
       <c r="X21" s="19"/>
       <c r="Y21" s="42"/>
     </row>
-    <row r="22" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:48" ht="12.75" customHeight="1">
       <c r="B22" s="7" t="s">
         <v>297</v>
       </c>
@@ -4198,7 +4360,7 @@
       <c r="X22" s="19"/>
       <c r="Y22" s="42"/>
     </row>
-    <row r="23" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:48" ht="12.75" customHeight="1">
       <c r="B23" s="7" t="s">
         <v>298</v>
       </c>
@@ -4223,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:48" ht="12.75" customHeight="1">
       <c r="B24" s="7" t="s">
         <v>299</v>
       </c>
@@ -4278,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:48" ht="12.75" customHeight="1">
       <c r="B25" s="7" t="s">
         <v>300</v>
       </c>
@@ -4303,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:48" ht="12.75" customHeight="1">
       <c r="B26" s="7" t="s">
         <v>301</v>
       </c>
@@ -4313,8 +4475,8 @@
       <c r="X26" s="20"/>
       <c r="Y26" s="42"/>
     </row>
-    <row r="27" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+    <row r="27" spans="2:48" ht="12.75" customHeight="1">
+      <c r="B27" s="49" t="s">
         <v>310</v>
       </c>
       <c r="I27" s="7" t="s">
@@ -4350,11 +4512,11 @@
       <c r="X27" s="20"/>
       <c r="Y27" s="42"/>
     </row>
-    <row r="28" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:48" ht="12.75" customHeight="1">
       <c r="X28" s="19"/>
       <c r="Y28" s="42"/>
     </row>
-    <row r="29" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:48" ht="12.75" customHeight="1">
       <c r="B29" s="7" t="s">
         <v>302</v>
       </c>
@@ -4418,7 +4580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:48" ht="12.75" customHeight="1">
       <c r="B30" s="21" t="s">
         <v>431</v>
       </c>
@@ -4506,8 +4668,20 @@
       <c r="AR30" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="31" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS30" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT30" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="AU30" s="45">
+        <v>23.7</v>
+      </c>
+      <c r="AV30" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="2:48" ht="12.75" customHeight="1">
       <c r="B31" s="21" t="s">
         <v>432</v>
       </c>
@@ -4589,8 +4763,20 @@
       <c r="AR31" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="32" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS31" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT31" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU31" s="54">
+        <v>20</v>
+      </c>
+      <c r="AV31" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="2:48" ht="12.75" customHeight="1">
       <c r="B32" s="7" t="s">
         <v>303</v>
       </c>
@@ -4630,7 +4816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:48" ht="12.75" customHeight="1">
       <c r="B33" s="7" t="s">
         <v>304</v>
       </c>
@@ -4688,11 +4874,23 @@
       <c r="AQ33" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="AR33" t="s">
+      <c r="AR33" s="45" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="34" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS33" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT33" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU33" s="54">
+        <v>20</v>
+      </c>
+      <c r="AV33" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="2:48" ht="12.75" customHeight="1">
       <c r="B34" s="7" t="s">
         <v>305</v>
       </c>
@@ -4744,8 +4942,20 @@
       <c r="AR34" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="35" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS34" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT34" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="AU34" s="54">
+        <v>12</v>
+      </c>
+      <c r="AV34" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="2:48" ht="12.75" customHeight="1">
       <c r="B35" s="21" t="s">
         <v>437</v>
       </c>
@@ -4786,7 +4996,7 @@
       </c>
       <c r="AQ35" s="22"/>
     </row>
-    <row r="36" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:48" ht="12.75" customHeight="1">
       <c r="B36" s="21" t="s">
         <v>438</v>
       </c>
@@ -4818,7 +5028,7 @@
       </c>
       <c r="AQ36" s="22"/>
     </row>
-    <row r="37" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:48" ht="12.75" customHeight="1">
       <c r="B37" s="21" t="s">
         <v>439</v>
       </c>
@@ -4838,7 +5048,7 @@
       <c r="Y37" s="42"/>
       <c r="AQ37" s="22"/>
     </row>
-    <row r="38" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:48" ht="12.75" customHeight="1">
       <c r="B38" s="7" t="s">
         <v>306</v>
       </c>
@@ -4866,18 +5076,18 @@
       <c r="X38" s="20"/>
       <c r="Y38" s="42"/>
     </row>
-    <row r="39" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:48" ht="12.75" customHeight="1">
       <c r="X39" s="19"/>
       <c r="Y39" s="42"/>
     </row>
-    <row r="40" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:48" ht="12.75" customHeight="1">
       <c r="B40" s="2" t="s">
         <v>307</v>
       </c>
       <c r="X40" s="19"/>
       <c r="Y40" s="42"/>
     </row>
-    <row r="41" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:48" ht="12.75" customHeight="1">
       <c r="B41" s="7" t="s">
         <v>291</v>
       </c>
@@ -4893,7 +5103,7 @@
       <c r="X41" s="19"/>
       <c r="Y41" s="42"/>
     </row>
-    <row r="42" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:48" ht="12.75" customHeight="1">
       <c r="B42" s="7" t="s">
         <v>298</v>
       </c>
@@ -4948,7 +5158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:48" ht="12.75" customHeight="1">
       <c r="B43" s="7" t="s">
         <v>308</v>
       </c>
@@ -4964,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:48" ht="12.75" customHeight="1">
       <c r="B44" s="7" t="s">
         <v>299</v>
       </c>
@@ -4998,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:48" ht="12.75" customHeight="1">
       <c r="B45" s="7" t="s">
         <v>300</v>
       </c>
@@ -5023,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:48" ht="12.75" customHeight="1">
       <c r="B46" s="7" t="s">
         <v>309</v>
       </c>
@@ -5039,7 +5249,7 @@
       <c r="X46" s="19"/>
       <c r="Y46" s="42"/>
     </row>
-    <row r="47" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:48" ht="12.75" customHeight="1">
       <c r="B47" s="7" t="s">
         <v>310</v>
       </c>
@@ -5082,7 +5292,7 @@
       <c r="X47" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="Y47" s="50" t="s">
+      <c r="Y47" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA47" s="7" t="s">
@@ -5109,8 +5319,18 @@
       <c r="AR47" s="22" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="48" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS47" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT47" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU47" s="45"/>
+      <c r="AV47" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="2:48" ht="12.75" customHeight="1">
       <c r="B48" s="7" t="s">
         <v>294</v>
       </c>
@@ -5126,7 +5346,7 @@
       <c r="X48" s="19"/>
       <c r="Y48" s="42"/>
     </row>
-    <row r="49" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:48" ht="12.75" customHeight="1">
       <c r="B49" s="7" t="s">
         <v>295</v>
       </c>
@@ -5142,7 +5362,7 @@
       <c r="X49" s="19"/>
       <c r="Y49" s="42"/>
     </row>
-    <row r="50" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:48" ht="12.75" customHeight="1">
       <c r="B50" s="7" t="s">
         <v>296</v>
       </c>
@@ -5158,7 +5378,7 @@
       <c r="X50" s="19"/>
       <c r="Y50" s="42"/>
     </row>
-    <row r="51" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:48" ht="12.75" customHeight="1">
       <c r="B51" s="7" t="s">
         <v>297</v>
       </c>
@@ -5174,18 +5394,18 @@
       <c r="X51" s="19"/>
       <c r="Y51" s="42"/>
     </row>
-    <row r="52" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:48" ht="12.75" customHeight="1">
       <c r="X52" s="19"/>
       <c r="Y52" s="42"/>
     </row>
-    <row r="53" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:48" ht="12.75" customHeight="1">
       <c r="B53" s="2" t="s">
         <v>311</v>
       </c>
       <c r="X53" s="19"/>
       <c r="Y53" s="42"/>
     </row>
-    <row r="54" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:48" ht="12.75" customHeight="1">
       <c r="B54" s="7" t="s">
         <v>312</v>
       </c>
@@ -5213,7 +5433,7 @@
       <c r="X54" s="20"/>
       <c r="Y54" s="42"/>
     </row>
-    <row r="55" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:48" ht="12.75" customHeight="1">
       <c r="B55" s="7" t="s">
         <v>313</v>
       </c>
@@ -5247,7 +5467,7 @@
       <c r="X55" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="Y55" s="50" t="s">
+      <c r="Y55" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA55" s="7" t="s">
@@ -5262,8 +5482,18 @@
       <c r="AR55" s="22" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="56" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS55" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT55" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="AU55" s="45"/>
+      <c r="AV55" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56" spans="2:48" ht="12.75" customHeight="1">
       <c r="B56" s="7" t="s">
         <v>314</v>
       </c>
@@ -5291,7 +5521,7 @@
       <c r="X56" s="20"/>
       <c r="Y56" s="42"/>
     </row>
-    <row r="57" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:48" ht="12.75" customHeight="1">
       <c r="B57" s="21" t="s">
         <v>388</v>
       </c>
@@ -5334,8 +5564,14 @@
       <c r="AR57" s="22" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="58" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS57" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT57" s="45" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="2:48" ht="12.75" customHeight="1">
       <c r="B58" s="21" t="s">
         <v>389</v>
       </c>
@@ -5378,8 +5614,14 @@
       <c r="AR58" s="22" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="59" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS58" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT58" s="45" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="2:48" ht="12.75" customHeight="1">
       <c r="B59" s="7" t="s">
         <v>315</v>
       </c>
@@ -5415,7 +5657,7 @@
       </c>
       <c r="Y59" s="42"/>
     </row>
-    <row r="60" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:48" ht="12.75" customHeight="1">
       <c r="B60" s="6" t="s">
         <v>316</v>
       </c>
@@ -5446,7 +5688,7 @@
       <c r="X60" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="Y60" s="50" t="s">
+      <c r="Y60" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA60" s="7" t="s">
@@ -5473,8 +5715,14 @@
       <c r="AR60" s="22" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="61" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS60" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT60" s="45" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61" spans="2:48" ht="12.75" customHeight="1">
       <c r="B61" s="6" t="s">
         <v>317</v>
       </c>
@@ -5517,7 +5765,7 @@
       <c r="X61" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="Y61" s="50" t="s">
+      <c r="Y61" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA61" s="7" t="s">
@@ -5550,8 +5798,20 @@
       <c r="AR61" s="22" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="62" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS61" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT61" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AU61" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="AV61" s="45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62" spans="2:48" ht="12.75" customHeight="1">
       <c r="B62" s="6" t="s">
         <v>318</v>
       </c>
@@ -5585,18 +5845,30 @@
       <c r="X62" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="Y62" s="50" t="s">
+      <c r="Y62" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AR62" s="22" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="63" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS62" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT62" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="AU62">
+        <v>947.249146</v>
+      </c>
+      <c r="AV62" s="45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="X63" s="19"/>
       <c r="Y63" s="42"/>
     </row>
-    <row r="64" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B64" s="24" t="s">
         <v>98</v>
       </c>
@@ -5604,7 +5876,7 @@
       <c r="X64" s="19"/>
       <c r="Y64" s="42"/>
     </row>
-    <row r="65" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B65" s="26" t="s">
         <v>371</v>
       </c>
@@ -5648,7 +5920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B66" s="28" t="s">
         <v>374</v>
       </c>
@@ -5674,7 +5946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B67" s="7" t="s">
         <v>102</v>
       </c>
@@ -5699,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B68" s="7" t="s">
         <v>373</v>
       </c>
@@ -5724,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B69" s="7" t="s">
         <v>372</v>
       </c>
@@ -5758,7 +6030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B70" s="7" t="s">
         <v>107</v>
       </c>
@@ -5780,7 +6052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B71" s="6" t="s">
         <v>375</v>
       </c>
@@ -5814,7 +6086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B72" s="7" t="s">
         <v>376</v>
       </c>
@@ -5837,18 +6109,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:48" ht="12.75" customHeight="1">
       <c r="X73" s="19"/>
       <c r="Y73" s="42"/>
     </row>
-    <row r="74" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:48" ht="12.75" customHeight="1">
       <c r="B74" s="2" t="s">
         <v>319</v>
       </c>
       <c r="X74" s="19"/>
       <c r="Y74" s="42"/>
     </row>
-    <row r="75" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:48" ht="12.75" customHeight="1">
       <c r="B75" s="8" t="s">
         <v>350</v>
       </c>
@@ -5891,7 +6163,7 @@
       <c r="X75" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="Y75" s="50" t="s">
+      <c r="Y75" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA75" s="7" t="s">
@@ -5909,8 +6181,17 @@
       <c r="AR75" s="22" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="76" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS75" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT75" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:48" ht="12.75" customHeight="1">
       <c r="B76" s="21" t="s">
         <v>435</v>
       </c>
@@ -5953,7 +6234,7 @@
       <c r="X76" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="Y76" s="50" t="s">
+      <c r="Y76" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA76" s="7" t="s">
@@ -5971,8 +6252,17 @@
       <c r="AR76" s="22" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="77" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS76" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT76" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="AU76" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:48" ht="12.75" customHeight="1">
       <c r="B77" s="7" t="s">
         <v>320</v>
       </c>
@@ -6006,7 +6296,7 @@
       <c r="X77" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="Y77" s="50" t="s">
+      <c r="Y77" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA77" s="7" t="s">
@@ -6024,8 +6314,18 @@
       <c r="AR77" s="22" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="78" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS77" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT77" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="AU77" s="45"/>
+      <c r="AV77" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="2:48" ht="12.75" customHeight="1">
       <c r="B78" s="7" t="s">
         <v>321</v>
       </c>
@@ -6041,7 +6341,7 @@
       <c r="X78" s="19"/>
       <c r="Y78" s="42"/>
     </row>
-    <row r="79" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:48" ht="12.75" customHeight="1">
       <c r="B79" s="7" t="s">
         <v>322</v>
       </c>
@@ -6057,7 +6357,7 @@
       <c r="X79" s="19"/>
       <c r="Y79" s="42"/>
     </row>
-    <row r="80" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:48" ht="12.75" customHeight="1">
       <c r="B80" s="7" t="s">
         <v>323</v>
       </c>
@@ -6094,7 +6394,7 @@
       <c r="X80" s="39"/>
       <c r="Y80" s="42"/>
     </row>
-    <row r="81" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:48" ht="12.75" customHeight="1">
       <c r="B81" s="7" t="s">
         <v>324</v>
       </c>
@@ -6128,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:48" ht="12.75" customHeight="1">
       <c r="B82" s="7" t="s">
         <v>325</v>
       </c>
@@ -6144,7 +6444,7 @@
       <c r="X82" s="19"/>
       <c r="Y82" s="42"/>
     </row>
-    <row r="83" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:48" ht="12.75" customHeight="1">
       <c r="B83" s="7" t="s">
         <v>326</v>
       </c>
@@ -6178,7 +6478,7 @@
       <c r="X83" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="Y83" s="50" t="s">
+      <c r="Y83" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA83" s="7" t="s">
@@ -6196,8 +6496,18 @@
       <c r="AR83" s="22" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="84" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS83" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT83" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="AU83" s="45"/>
+      <c r="AV83" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" spans="2:48" ht="12.75" customHeight="1">
       <c r="B84" s="7" t="s">
         <v>327</v>
       </c>
@@ -6213,7 +6523,7 @@
       <c r="X84" s="19"/>
       <c r="Y84" s="42"/>
     </row>
-    <row r="85" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:48" ht="12.75" customHeight="1">
       <c r="B85" s="7" t="s">
         <v>328</v>
       </c>
@@ -6229,7 +6539,7 @@
       <c r="X85" s="19"/>
       <c r="Y85" s="42"/>
     </row>
-    <row r="86" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:48" ht="12.75" customHeight="1">
       <c r="B86" s="7" t="s">
         <v>329</v>
       </c>
@@ -6254,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:48" ht="12.75" customHeight="1">
       <c r="B87" s="7" t="s">
         <v>330</v>
       </c>
@@ -6279,18 +6589,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:48" ht="12.75" customHeight="1">
       <c r="X88" s="19"/>
       <c r="Y88" s="42"/>
     </row>
-    <row r="89" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:48" ht="12.75" customHeight="1">
       <c r="B89" s="2" t="s">
         <v>331</v>
       </c>
       <c r="X89" s="19"/>
       <c r="Y89" s="42"/>
     </row>
-    <row r="90" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:48" ht="12.75" customHeight="1">
       <c r="B90" s="7" t="s">
         <v>332</v>
       </c>
@@ -6345,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:48" ht="12.75" customHeight="1">
       <c r="B91" s="7" t="s">
         <v>333</v>
       </c>
@@ -6397,7 +6707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:48" ht="12.75" customHeight="1">
       <c r="B92" s="7" t="s">
         <v>334</v>
       </c>
@@ -6421,7 +6731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:48" ht="12.75" customHeight="1">
       <c r="B93" s="7" t="s">
         <v>335</v>
       </c>
@@ -6435,7 +6745,7 @@
       <c r="X93" s="19"/>
       <c r="Y93" s="42"/>
     </row>
-    <row r="94" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:48" ht="12.75" customHeight="1">
       <c r="B94" s="7" t="s">
         <v>336</v>
       </c>
@@ -6490,7 +6800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:48" ht="12.75" customHeight="1">
       <c r="B95" s="7" t="s">
         <v>337</v>
       </c>
@@ -6527,18 +6837,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="X96" s="19"/>
       <c r="Y96" s="42"/>
     </row>
-    <row r="97" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B97" s="2" t="s">
         <v>338</v>
       </c>
       <c r="X97" s="19"/>
       <c r="Y97" s="42"/>
     </row>
-    <row r="98" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B98" s="6" t="s">
         <v>339</v>
       </c>
@@ -6581,22 +6891,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="X99" s="19"/>
       <c r="Y99" s="42"/>
     </row>
-    <row r="100" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:48" ht="12.75" customHeight="1">
       <c r="X100" s="19"/>
       <c r="Y100" s="42"/>
     </row>
-    <row r="101" spans="2:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:48" ht="24.75" customHeight="1">
       <c r="B101" s="34" t="s">
         <v>398</v>
       </c>
       <c r="X101" s="19"/>
       <c r="Y101" s="42"/>
     </row>
-    <row r="102" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:48" ht="12.75" customHeight="1">
       <c r="B102" s="7" t="s">
         <v>340</v>
       </c>
@@ -6635,7 +6945,7 @@
       <c r="X102" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="Y102" s="50" t="s">
+      <c r="Y102" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA102" s="7" t="s">
@@ -6659,7 +6969,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="103" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:48" ht="12.75" customHeight="1">
       <c r="B103" s="21" t="s">
         <v>379</v>
       </c>
@@ -6702,7 +7012,7 @@
       <c r="X103" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="Y103" s="50" t="s">
+      <c r="Y103" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA103" s="7" t="s">
@@ -6721,7 +7031,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="104" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:48" ht="12.75" customHeight="1">
       <c r="B104" s="21" t="s">
         <v>380</v>
       </c>
@@ -6764,7 +7074,7 @@
       <c r="X104" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="Y104" s="50" t="s">
+      <c r="Y104" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA104" s="7" t="s">
@@ -6783,7 +7093,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="105" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:48" ht="12.75" customHeight="1">
       <c r="B105" t="s">
         <v>341</v>
       </c>
@@ -6817,7 +7127,7 @@
       <c r="X105" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="Y105" s="50" t="s">
+      <c r="Y105" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AQ105" s="29" t="s">
@@ -6827,7 +7137,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="106" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:48" ht="12.75" customHeight="1">
       <c r="B106" t="s">
         <v>342</v>
       </c>
@@ -6867,7 +7177,7 @@
       <c r="X106" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="Y106" s="50" t="s">
+      <c r="Y106" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AQ106" s="22" t="s">
@@ -6877,7 +7187,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="107" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:48" ht="12.75" customHeight="1">
       <c r="B107" t="s">
         <v>343</v>
       </c>
@@ -6911,7 +7221,7 @@
       <c r="X107" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="Y107" s="50" t="s">
+      <c r="Y107" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AQ107" s="7" t="s">
@@ -6921,7 +7231,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:48" ht="12.75" customHeight="1">
       <c r="B108" s="22" t="s">
         <v>386</v>
       </c>
@@ -6955,7 +7265,7 @@
       <c r="X108" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="Y108" s="50" t="s">
+      <c r="Y108" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AQ108" s="7" t="s">
@@ -6965,7 +7275,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:48" ht="12.75" customHeight="1">
       <c r="B109" t="s">
         <v>345</v>
       </c>
@@ -6990,7 +7300,7 @@
       <c r="X109" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="Y109" s="50" t="s">
+      <c r="Y109" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AM109" s="7"/>
@@ -7003,7 +7313,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="110" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:48" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B110" s="22" t="s">
         <v>444</v>
       </c>
@@ -7022,7 +7332,7 @@
       <c r="X110" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="Y110" s="50" t="s">
+      <c r="Y110" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AM110" s="7"/>
@@ -7034,15 +7344,27 @@
       <c r="AR110" s="22" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS110" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT110" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="AU110" s="16">
+        <v>-20.6</v>
+      </c>
+      <c r="AV110" s="45" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="111" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B111" s="5" t="s">
         <v>346</v>
       </c>
       <c r="X111" s="19"/>
       <c r="Y111" s="42"/>
     </row>
-    <row r="112" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B112" t="s">
         <v>343</v>
       </c>
@@ -7058,7 +7380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B113" t="s">
         <v>344</v>
       </c>
@@ -7074,7 +7396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B114" t="s">
         <v>347</v>
       </c>
@@ -7090,7 +7412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B115" t="s">
         <v>341</v>
       </c>
@@ -7106,7 +7428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:48" ht="12.75" hidden="1" customHeight="1">
       <c r="B116" t="s">
         <v>342</v>
       </c>
@@ -7122,18 +7444,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:48" ht="12.75" customHeight="1">
       <c r="X117" s="19"/>
       <c r="Y117" s="42"/>
     </row>
-    <row r="118" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:48" ht="12.75" customHeight="1">
       <c r="B118" s="38" t="s">
         <v>412</v>
       </c>
       <c r="X118" s="19"/>
       <c r="Y118" s="42"/>
     </row>
-    <row r="119" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:48" ht="12.75" customHeight="1">
       <c r="B119" s="21" t="s">
         <v>409</v>
       </c>
@@ -7177,7 +7499,7 @@
       <c r="X119" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="Y119" s="50" t="s">
+      <c r="Y119" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA119" s="7" t="s">
@@ -7193,8 +7515,17 @@
       <c r="AR119" s="22" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="120" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS119" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT119" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="AU119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:48" ht="12.75" customHeight="1">
       <c r="B120" s="21" t="s">
         <v>410</v>
       </c>
@@ -7228,7 +7559,7 @@
       <c r="X120" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="Y120" s="50" t="s">
+      <c r="Y120" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA120" s="7" t="s">
@@ -7246,8 +7577,20 @@
       <c r="AR120" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="121" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS120" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT120" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="AU120" s="45">
+        <v>12.9</v>
+      </c>
+      <c r="AV120" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="121" spans="2:48" ht="12.75" customHeight="1">
       <c r="B121" s="21" t="s">
         <v>348</v>
       </c>
@@ -7284,7 +7627,7 @@
       <c r="X121" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="Y121" s="50" t="s">
+      <c r="Y121" s="48" t="s">
         <v>352</v>
       </c>
       <c r="AA121" s="7" t="s">
@@ -7294,9 +7637,24 @@
       <c r="AC121" s="7">
         <v>1</v>
       </c>
-      <c r="AQ121" s="22"/>
-    </row>
-    <row r="122" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ121" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR121" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="AS121" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT121" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="AU121" s="45">
+        <v>0</v>
+      </c>
+      <c r="AV121" s="45"/>
+    </row>
+    <row r="122" spans="2:48" ht="12.75" customHeight="1">
       <c r="B122" s="21" t="s">
         <v>411</v>
       </c>
@@ -7326,7 +7684,9 @@
       <c r="X122" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="Y122" s="42"/>
+      <c r="Y122" s="46" t="s">
+        <v>352</v>
+      </c>
       <c r="AA122" s="7" t="s">
         <v>157</v>
       </c>
@@ -7340,15 +7700,27 @@
       <c r="AR122" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="123" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS122" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT122" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU122" s="54">
+        <v>20</v>
+      </c>
+      <c r="AV122" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="123" spans="2:48" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B123" s="38" t="s">
         <v>413</v>
       </c>
       <c r="X123" s="19"/>
       <c r="Y123" s="42"/>
     </row>
-    <row r="124" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:48" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B124" s="21" t="s">
         <v>409</v>
       </c>
@@ -7392,7 +7764,10 @@
       <c r="X124" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="Y124" s="42"/>
+      <c r="Y124" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z124" s="45"/>
       <c r="AA124" s="7" t="s">
         <v>154</v>
       </c>
@@ -7400,8 +7775,27 @@
       <c r="AC124" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD124" s="45"/>
+      <c r="AE124" s="45"/>
+      <c r="AF124" s="45"/>
+      <c r="AG124" s="45"/>
+      <c r="AH124" s="45"/>
+      <c r="AI124" s="45"/>
+      <c r="AJ124" s="45"/>
+      <c r="AK124" s="45"/>
+      <c r="AL124" s="45"/>
+      <c r="AM124" s="45"/>
+      <c r="AN124" s="45"/>
+      <c r="AO124" s="45"/>
+      <c r="AP124" s="45"/>
+      <c r="AQ124" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR124" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="125" spans="2:48" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B125" s="21" t="s">
         <v>410</v>
       </c>
@@ -7435,7 +7829,10 @@
       <c r="X125" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="Y125" s="42"/>
+      <c r="Y125" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z125" s="45"/>
       <c r="AA125" s="7" t="s">
         <v>155</v>
       </c>
@@ -7445,14 +7842,27 @@
       <c r="AC125" s="7">
         <v>4</v>
       </c>
+      <c r="AD125" s="45"/>
+      <c r="AE125" s="45"/>
+      <c r="AF125" s="45"/>
+      <c r="AG125" s="45"/>
+      <c r="AH125" s="45"/>
+      <c r="AI125" s="45"/>
+      <c r="AJ125" s="45"/>
+      <c r="AK125" s="45"/>
+      <c r="AL125" s="45"/>
+      <c r="AM125" s="45"/>
+      <c r="AN125" s="45"/>
+      <c r="AO125" s="45"/>
+      <c r="AP125" s="45"/>
       <c r="AQ125" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="AR125" s="16" t="s">
+      <c r="AR125" s="45" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="126" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:48" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B126" s="21" t="s">
         <v>348</v>
       </c>
@@ -7489,7 +7899,10 @@
       <c r="X126" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="Y126" s="42"/>
+      <c r="Y126" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z126" s="45"/>
       <c r="AA126" s="7" t="s">
         <v>156</v>
       </c>
@@ -7497,9 +7910,27 @@
       <c r="AC126" s="7">
         <v>1</v>
       </c>
-      <c r="AQ126" s="22"/>
-    </row>
-    <row r="127" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD126" s="45"/>
+      <c r="AE126" s="45"/>
+      <c r="AF126" s="45"/>
+      <c r="AG126" s="45"/>
+      <c r="AH126" s="45"/>
+      <c r="AI126" s="45"/>
+      <c r="AJ126" s="45"/>
+      <c r="AK126" s="45"/>
+      <c r="AL126" s="45"/>
+      <c r="AM126" s="45"/>
+      <c r="AN126" s="45"/>
+      <c r="AO126" s="45"/>
+      <c r="AP126" s="45"/>
+      <c r="AQ126" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR126" s="45" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="127" spans="2:48" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B127" s="21" t="s">
         <v>411</v>
       </c>
@@ -7529,7 +7960,10 @@
       <c r="X127" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="Y127" s="42"/>
+      <c r="Y127" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z127" s="45"/>
       <c r="AA127" s="7" t="s">
         <v>157</v>
       </c>
@@ -7537,21 +7971,34 @@
       <c r="AC127" s="7">
         <v>1</v>
       </c>
+      <c r="AD127" s="45"/>
+      <c r="AE127" s="45"/>
+      <c r="AF127" s="45"/>
+      <c r="AG127" s="45"/>
+      <c r="AH127" s="45"/>
+      <c r="AI127" s="45"/>
+      <c r="AJ127" s="45"/>
+      <c r="AK127" s="45"/>
+      <c r="AL127" s="45"/>
+      <c r="AM127" s="45"/>
+      <c r="AN127" s="45"/>
+      <c r="AO127" s="45"/>
+      <c r="AP127" s="45"/>
       <c r="AQ127" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="AR127" s="16" t="s">
+      <c r="AR127" s="45" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="128" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:48" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B128" s="38" t="s">
         <v>414</v>
       </c>
       <c r="X128" s="19"/>
       <c r="Y128" s="42"/>
     </row>
-    <row r="129" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:46" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B129" s="21" t="s">
         <v>409</v>
       </c>
@@ -7595,7 +8042,10 @@
       <c r="X129" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="Y129" s="42"/>
+      <c r="Y129" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z129" s="45"/>
       <c r="AA129" s="7" t="s">
         <v>154</v>
       </c>
@@ -7603,8 +8053,27 @@
       <c r="AC129" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD129" s="45"/>
+      <c r="AE129" s="45"/>
+      <c r="AF129" s="45"/>
+      <c r="AG129" s="45"/>
+      <c r="AH129" s="45"/>
+      <c r="AI129" s="45"/>
+      <c r="AJ129" s="45"/>
+      <c r="AK129" s="45"/>
+      <c r="AL129" s="45"/>
+      <c r="AM129" s="45"/>
+      <c r="AN129" s="45"/>
+      <c r="AO129" s="45"/>
+      <c r="AP129" s="45"/>
+      <c r="AQ129" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR129" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="130" spans="2:46" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B130" s="21" t="s">
         <v>410</v>
       </c>
@@ -7638,7 +8107,10 @@
       <c r="X130" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="Y130" s="42"/>
+      <c r="Y130" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z130" s="45"/>
       <c r="AA130" s="7" t="s">
         <v>155</v>
       </c>
@@ -7648,14 +8120,27 @@
       <c r="AC130" s="7">
         <v>4</v>
       </c>
+      <c r="AD130" s="45"/>
+      <c r="AE130" s="45"/>
+      <c r="AF130" s="45"/>
+      <c r="AG130" s="45"/>
+      <c r="AH130" s="45"/>
+      <c r="AI130" s="45"/>
+      <c r="AJ130" s="45"/>
+      <c r="AK130" s="45"/>
+      <c r="AL130" s="45"/>
+      <c r="AM130" s="45"/>
+      <c r="AN130" s="45"/>
+      <c r="AO130" s="45"/>
+      <c r="AP130" s="45"/>
       <c r="AQ130" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="AR130" s="16" t="s">
+      <c r="AR130" s="45" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:46" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B131" s="21" t="s">
         <v>348</v>
       </c>
@@ -7692,7 +8177,10 @@
       <c r="X131" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="Y131" s="42"/>
+      <c r="Y131" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z131" s="45"/>
       <c r="AA131" s="7" t="s">
         <v>156</v>
       </c>
@@ -7700,9 +8188,27 @@
       <c r="AC131" s="7">
         <v>1</v>
       </c>
-      <c r="AQ131" s="22"/>
-    </row>
-    <row r="132" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD131" s="45"/>
+      <c r="AE131" s="45"/>
+      <c r="AF131" s="45"/>
+      <c r="AG131" s="45"/>
+      <c r="AH131" s="45"/>
+      <c r="AI131" s="45"/>
+      <c r="AJ131" s="45"/>
+      <c r="AK131" s="45"/>
+      <c r="AL131" s="45"/>
+      <c r="AM131" s="45"/>
+      <c r="AN131" s="45"/>
+      <c r="AO131" s="45"/>
+      <c r="AP131" s="45"/>
+      <c r="AQ131" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR131" s="45" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="132" spans="2:46" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B132" s="21" t="s">
         <v>411</v>
       </c>
@@ -7732,7 +8238,10 @@
       <c r="X132" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="Y132" s="42"/>
+      <c r="Y132" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z132" s="45"/>
       <c r="AA132" s="7" t="s">
         <v>157</v>
       </c>
@@ -7740,14 +8249,27 @@
       <c r="AC132" s="7">
         <v>1</v>
       </c>
+      <c r="AD132" s="45"/>
+      <c r="AE132" s="45"/>
+      <c r="AF132" s="45"/>
+      <c r="AG132" s="45"/>
+      <c r="AH132" s="45"/>
+      <c r="AI132" s="45"/>
+      <c r="AJ132" s="45"/>
+      <c r="AK132" s="45"/>
+      <c r="AL132" s="45"/>
+      <c r="AM132" s="45"/>
+      <c r="AN132" s="45"/>
+      <c r="AO132" s="45"/>
+      <c r="AP132" s="45"/>
       <c r="AQ132" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="AR132" s="16" t="s">
+      <c r="AR132" s="45" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="133" spans="2:44" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:46" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B133" s="21"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
@@ -7761,7 +8283,7 @@
       <c r="AC133" s="7"/>
       <c r="AQ133" s="22"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:46" ht="12.75" customHeight="1">
       <c r="B134" s="7"/>
       <c r="E134" s="7" t="s">
         <v>158</v>
@@ -7790,7 +8312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:46" ht="12.75" customHeight="1">
       <c r="B135" s="7"/>
       <c r="E135" s="7" t="s">
         <v>159</v>
@@ -7834,7 +8356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:46" ht="12.75" customHeight="1">
       <c r="B136" s="7"/>
       <c r="E136" s="7" t="s">
         <v>160</v>
@@ -7870,17 +8392,26 @@
       <c r="AC136" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR136" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="AS136" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AT136" s="45" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="137" spans="2:46" ht="12.75" customHeight="1">
       <c r="Y137" s="42"/>
     </row>
-    <row r="138" spans="2:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:46" hidden="1">
       <c r="B138" s="2" t="s">
         <v>161</v>
       </c>
       <c r="Y138" s="42"/>
     </row>
-    <row r="139" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:46" ht="25.5" hidden="1">
       <c r="B139" s="7" t="s">
         <v>162</v>
       </c>
@@ -7895,7 +8426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:46" ht="25.5" hidden="1">
       <c r="B140" s="7" t="s">
         <v>164</v>
       </c>
@@ -7910,7 +8441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:46" ht="25.5" hidden="1">
       <c r="B141" s="7" t="s">
         <v>166</v>
       </c>
@@ -7925,7 +8456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:46" ht="25.5" hidden="1">
       <c r="B142" s="7" t="s">
         <v>168</v>
       </c>
@@ -7940,7 +8471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:46" ht="25.5" hidden="1">
       <c r="B143" s="7" t="s">
         <v>170</v>
       </c>
@@ -7955,7 +8486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="2:44" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:46" ht="25.5" hidden="1">
       <c r="B144" s="7" t="s">
         <v>172</v>
       </c>
@@ -7970,7 +8501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:37" ht="25.5" hidden="1">
       <c r="B145" t="s">
         <v>174</v>
       </c>
@@ -7985,7 +8516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:37" ht="25.5" hidden="1">
       <c r="B146" s="7" t="s">
         <v>176</v>
       </c>
@@ -8000,7 +8531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:37" ht="25.5" hidden="1">
       <c r="B147" s="7" t="s">
         <v>178</v>
       </c>
@@ -8015,7 +8546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:37" ht="25.5" hidden="1">
       <c r="B148" s="7" t="s">
         <v>180</v>
       </c>
@@ -8030,7 +8561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:37" ht="25.5" hidden="1">
       <c r="B149" s="7" t="s">
         <v>182</v>
       </c>
@@ -8045,7 +8576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:37" ht="25.5" hidden="1">
       <c r="B150" s="7" t="s">
         <v>184</v>
       </c>
@@ -8060,7 +8591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:37" ht="25.5" hidden="1">
       <c r="B151" s="7" t="s">
         <v>186</v>
       </c>
@@ -8075,7 +8606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:37" ht="25.5" hidden="1">
       <c r="B152" s="7" t="s">
         <v>188</v>
       </c>
@@ -8090,7 +8621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:37" ht="25.5" hidden="1">
       <c r="B153" s="7" t="s">
         <v>190</v>
       </c>
@@ -8105,7 +8636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:37" ht="25.5" hidden="1">
       <c r="B154" s="7" t="s">
         <v>192</v>
       </c>
@@ -8120,7 +8651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:37" ht="25.5" hidden="1">
       <c r="B155" s="7" t="s">
         <v>194</v>
       </c>
@@ -8135,7 +8666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:37" ht="25.5" hidden="1">
       <c r="B156" s="7" t="s">
         <v>196</v>
       </c>
@@ -8150,7 +8681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:37" ht="25.5" hidden="1">
       <c r="B157" s="7" t="s">
         <v>198</v>
       </c>
@@ -8165,7 +8696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:37" ht="25.5" hidden="1">
       <c r="B158" s="7" t="s">
         <v>200</v>
       </c>
@@ -8177,7 +8708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:37" ht="25.5" hidden="1">
       <c r="B159" s="7" t="s">
         <v>202</v>
       </c>
@@ -8189,7 +8720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:37" ht="25.5" hidden="1">
       <c r="B160" s="7" t="s">
         <v>204</v>
       </c>
@@ -8201,7 +8732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:37" ht="25.5" hidden="1">
       <c r="B161" s="7" t="s">
         <v>206</v>
       </c>
@@ -8213,7 +8744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:37" ht="25.5" hidden="1">
       <c r="B162" s="7" t="s">
         <v>208</v>
       </c>
@@ -8225,7 +8756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:37" ht="25.5" hidden="1">
       <c r="B163" s="7" t="s">
         <v>210</v>
       </c>
@@ -8237,7 +8768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:37" ht="25.5" hidden="1">
       <c r="B164" s="7" t="s">
         <v>212</v>
       </c>
@@ -8249,7 +8780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:37" ht="25.5" hidden="1">
       <c r="B165" s="7" t="s">
         <v>214</v>
       </c>
@@ -8261,7 +8792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:37" ht="25.5" hidden="1">
       <c r="B166" s="7" t="s">
         <v>216</v>
       </c>
@@ -8273,7 +8804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:37" ht="25.5" hidden="1">
       <c r="B167" s="7" t="s">
         <v>218</v>
       </c>
@@ -8285,7 +8816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:37" ht="25.5" hidden="1">
       <c r="B168" s="7" t="s">
         <v>220</v>
       </c>
@@ -8297,7 +8828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:37" ht="25.5" hidden="1">
       <c r="B169" s="7" t="s">
         <v>222</v>
       </c>
@@ -8309,7 +8840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:37" ht="25.5" hidden="1">
       <c r="B170" s="7" t="s">
         <v>224</v>
       </c>
@@ -8324,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:37" ht="25.5" hidden="1">
       <c r="B171" s="1" t="s">
         <v>226</v>
       </c>
@@ -8339,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:37" ht="25.5" hidden="1">
       <c r="B172" s="1" t="s">
         <v>228</v>
       </c>
@@ -8354,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:37" ht="25.5" hidden="1">
       <c r="B173" s="7" t="s">
         <v>230</v>
       </c>
@@ -8369,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:37" ht="25.5" hidden="1">
       <c r="B174" s="7" t="s">
         <v>232</v>
       </c>
@@ -8384,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:37" ht="25.5" hidden="1">
       <c r="B175" s="7" t="s">
         <v>234</v>
       </c>
@@ -8399,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:37" ht="25.5" hidden="1">
       <c r="B176" s="7" t="s">
         <v>236</v>
       </c>
@@ -8414,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:41" ht="25.5" hidden="1">
       <c r="B177" s="7" t="s">
         <v>238</v>
       </c>
@@ -8429,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:41" ht="25.5" hidden="1">
       <c r="B178" s="7" t="s">
         <v>240</v>
       </c>
@@ -8444,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:41" ht="25.5" hidden="1">
       <c r="B179" s="7" t="s">
         <v>242</v>
       </c>
@@ -8459,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:41" ht="25.5" hidden="1">
       <c r="B180" s="7" t="s">
         <v>244</v>
       </c>
@@ -8474,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:41" ht="25.5" hidden="1">
       <c r="B181" s="7" t="s">
         <v>246</v>
       </c>
@@ -8489,17 +9020,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:41" hidden="1">
       <c r="B182" s="7"/>
       <c r="Y182" s="42"/>
     </row>
-    <row r="183" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:41" hidden="1">
       <c r="B183" s="2" t="s">
         <v>248</v>
       </c>
       <c r="Y183" s="42"/>
     </row>
-    <row r="184" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:41" ht="25.5" hidden="1">
       <c r="B184" s="7" t="s">
         <v>249</v>
       </c>
@@ -8514,7 +9045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:41" ht="25.5" hidden="1">
       <c r="B185" s="7" t="s">
         <v>250</v>
       </c>
@@ -8529,7 +9060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:41" ht="25.5" hidden="1">
       <c r="B186" s="7" t="s">
         <v>251</v>
       </c>
@@ -8544,7 +9075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:41" ht="25.5" hidden="1">
       <c r="B187" s="7" t="s">
         <v>253</v>
       </c>
@@ -8559,7 +9090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:41" ht="25.5" hidden="1">
       <c r="B188" s="7" t="s">
         <v>255</v>
       </c>
@@ -8574,7 +9105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:41" ht="25.5" hidden="1">
       <c r="B189" s="7" t="s">
         <v>257</v>
       </c>
@@ -8589,7 +9120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:41" ht="25.5" hidden="1">
       <c r="B190" s="7" t="s">
         <v>259</v>
       </c>
@@ -8604,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:41" ht="25.5" hidden="1">
       <c r="B191" s="7" t="s">
         <v>261</v>
       </c>
@@ -8619,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:41" ht="25.5" hidden="1">
       <c r="B192" s="7" t="s">
         <v>263</v>
       </c>
@@ -8634,7 +9165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:41" ht="25.5" hidden="1">
       <c r="B193" s="7" t="s">
         <v>266</v>
       </c>
@@ -8649,7 +9180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:41" ht="25.5" hidden="1">
       <c r="B194" s="7" t="s">
         <v>268</v>
       </c>
@@ -8664,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:41" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:41" ht="25.5" hidden="1">
       <c r="B195" s="7" t="s">
         <v>270</v>
       </c>
@@ -8676,66 +9207,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:41">
       <c r="B196" s="7"/>
       <c r="Y196" s="42"/>
     </row>
-    <row r="197" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:41">
       <c r="B197" s="7"/>
       <c r="Y197" s="42"/>
     </row>
-    <row r="198" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:41">
       <c r="B198" s="7"/>
       <c r="Y198" s="42"/>
     </row>
-    <row r="199" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:41">
       <c r="B199" s="7"/>
       <c r="Y199" s="42"/>
     </row>
-    <row r="200" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:41">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:41">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:41">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:41">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:41">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:41">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:41">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:41">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:41">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2">
       <c r="B213" s="7"/>
     </row>
-    <row r="5208" spans="7:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5209" spans="7:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5208" spans="7:23" ht="12.75" customHeight="1"/>
+    <row r="5209" spans="7:23" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AA2:AC2"/>
@@ -8756,12 +9287,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
@@ -8769,7 +9300,7 @@
     <col min="5" max="5" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="12.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>272</v>
       </c>
@@ -8783,7 +9314,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="12.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>275</v>
       </c>
@@ -8797,7 +9328,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="12.75" customHeight="1">
       <c r="B5" s="7" t="s">
         <v>277</v>
       </c>

--- a/Optolink_Logger_v3.xlsx
+++ b/Optolink_Logger_v3.xlsx
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="489">
   <si>
     <t>V333MW1</t>
   </si>
@@ -2492,6 +2492,15 @@
   </si>
   <si>
     <t>short float</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>Secs</t>
   </si>
 </sst>
 </file>
@@ -2716,7 +2725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2834,6 +2843,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3232,13 +3242,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AV5209"/>
+  <dimension ref="B1:AW5209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="T76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="T85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV110" sqref="AV110"/>
+      <selection pane="bottomRight" activeCell="V73" sqref="V73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3530,7 +3540,7 @@
         <v>2098</v>
       </c>
       <c r="W4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X4" s="19" t="s">
         <v>351</v>
@@ -5346,7 +5356,7 @@
       <c r="X48" s="19"/>
       <c r="Y48" s="42"/>
     </row>
-    <row r="49" spans="2:48" ht="12.75" customHeight="1">
+    <row r="49" spans="2:49" ht="12.75" customHeight="1">
       <c r="B49" s="7" t="s">
         <v>295</v>
       </c>
@@ -5362,7 +5372,7 @@
       <c r="X49" s="19"/>
       <c r="Y49" s="42"/>
     </row>
-    <row r="50" spans="2:48" ht="12.75" customHeight="1">
+    <row r="50" spans="2:49" ht="12.75" customHeight="1">
       <c r="B50" s="7" t="s">
         <v>296</v>
       </c>
@@ -5378,7 +5388,7 @@
       <c r="X50" s="19"/>
       <c r="Y50" s="42"/>
     </row>
-    <row r="51" spans="2:48" ht="12.75" customHeight="1">
+    <row r="51" spans="2:49" ht="12.75" customHeight="1">
       <c r="B51" s="7" t="s">
         <v>297</v>
       </c>
@@ -5394,18 +5404,18 @@
       <c r="X51" s="19"/>
       <c r="Y51" s="42"/>
     </row>
-    <row r="52" spans="2:48" ht="12.75" customHeight="1">
+    <row r="52" spans="2:49" ht="12.75" customHeight="1">
       <c r="X52" s="19"/>
       <c r="Y52" s="42"/>
     </row>
-    <row r="53" spans="2:48" ht="12.75" customHeight="1">
+    <row r="53" spans="2:49" ht="12.75" customHeight="1">
       <c r="B53" s="2" t="s">
         <v>311</v>
       </c>
       <c r="X53" s="19"/>
       <c r="Y53" s="42"/>
     </row>
-    <row r="54" spans="2:48" ht="12.75" customHeight="1">
+    <row r="54" spans="2:49" ht="12.75" customHeight="1">
       <c r="B54" s="7" t="s">
         <v>312</v>
       </c>
@@ -5433,7 +5443,7 @@
       <c r="X54" s="20"/>
       <c r="Y54" s="42"/>
     </row>
-    <row r="55" spans="2:48" ht="12.75" customHeight="1">
+    <row r="55" spans="2:49" ht="12.75" customHeight="1">
       <c r="B55" s="7" t="s">
         <v>313</v>
       </c>
@@ -5493,7 +5503,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="56" spans="2:48" ht="12.75" customHeight="1">
+    <row r="56" spans="2:49" ht="12.75" customHeight="1">
       <c r="B56" s="7" t="s">
         <v>314</v>
       </c>
@@ -5521,7 +5531,7 @@
       <c r="X56" s="20"/>
       <c r="Y56" s="42"/>
     </row>
-    <row r="57" spans="2:48" ht="12.75" customHeight="1">
+    <row r="57" spans="2:49" ht="12.75" customHeight="1">
       <c r="B57" s="21" t="s">
         <v>388</v>
       </c>
@@ -5571,7 +5581,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="58" spans="2:48" ht="12.75" customHeight="1">
+    <row r="58" spans="2:49" ht="12.75" customHeight="1">
       <c r="B58" s="21" t="s">
         <v>389</v>
       </c>
@@ -5621,7 +5631,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="2:48" ht="12.75" customHeight="1">
+    <row r="59" spans="2:49" ht="12.75" customHeight="1">
       <c r="B59" s="7" t="s">
         <v>315</v>
       </c>
@@ -5657,7 +5667,7 @@
       </c>
       <c r="Y59" s="42"/>
     </row>
-    <row r="60" spans="2:48" ht="12.75" customHeight="1">
+    <row r="60" spans="2:49" ht="12.75" customHeight="1">
       <c r="B60" s="6" t="s">
         <v>316</v>
       </c>
@@ -5722,7 +5732,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="2:48" ht="12.75" customHeight="1">
+    <row r="61" spans="2:49" ht="12.75" customHeight="1">
       <c r="B61" s="6" t="s">
         <v>317</v>
       </c>
@@ -5756,8 +5766,8 @@
       <c r="U61" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V61" s="17" t="s">
-        <v>94</v>
+      <c r="V61" s="55" t="s">
+        <v>488</v>
       </c>
       <c r="W61" s="17">
         <v>4</v>
@@ -5810,8 +5820,12 @@
       <c r="AV61" s="45" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="62" spans="2:48" ht="12.75" customHeight="1">
+      <c r="AW61">
+        <f>9*(16^3)+14*(16^2)</f>
+        <v>40448</v>
+      </c>
+    </row>
+    <row r="62" spans="2:49" ht="12.75" customHeight="1">
       <c r="B62" s="6" t="s">
         <v>318</v>
       </c>
@@ -5836,8 +5850,8 @@
       <c r="U62" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="V62" s="17" t="s">
-        <v>94</v>
+      <c r="V62" s="55" t="s">
+        <v>488</v>
       </c>
       <c r="W62" s="17">
         <v>4</v>
@@ -5864,11 +5878,11 @@
         <v>480</v>
       </c>
     </row>
-    <row r="63" spans="2:48" ht="12.75" hidden="1" customHeight="1">
+    <row r="63" spans="2:49" ht="12.75" hidden="1" customHeight="1">
       <c r="X63" s="19"/>
       <c r="Y63" s="42"/>
     </row>
-    <row r="64" spans="2:48" ht="12.75" hidden="1" customHeight="1">
+    <row r="64" spans="2:49" ht="12.75" hidden="1" customHeight="1">
       <c r="B64" s="24" t="s">
         <v>98</v>
       </c>
@@ -7121,8 +7135,8 @@
       <c r="V105" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="W105" s="36">
-        <v>2</v>
+      <c r="W105" s="36" t="s">
+        <v>487</v>
       </c>
       <c r="X105" s="35" t="s">
         <v>399</v>
@@ -7135,6 +7149,18 @@
       </c>
       <c r="AR105" s="22" t="s">
         <v>458</v>
+      </c>
+      <c r="AS105" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT105" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="AU105">
+        <v>1.4</v>
+      </c>
+      <c r="AV105" s="45" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="2:48" ht="12.75" customHeight="1">
@@ -7186,6 +7212,12 @@
       <c r="AR106" s="22" t="s">
         <v>457</v>
       </c>
+      <c r="AS106" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT106" s="45" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="107" spans="2:48" ht="12.75" customHeight="1">
       <c r="B107" t="s">
@@ -7229,6 +7261,18 @@
       </c>
       <c r="AR107" s="22" t="s">
         <v>448</v>
+      </c>
+      <c r="AS107" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT107" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="AU107" s="54">
+        <v>5</v>
+      </c>
+      <c r="AV107" s="45" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="2:48" ht="12.75" customHeight="1">
@@ -7997,6 +8041,10 @@
       </c>
       <c r="X128" s="19"/>
       <c r="Y128" s="42"/>
+      <c r="AU128" s="16">
+        <f>3*16+2</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="129" spans="2:46" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="B129" s="21" t="s">
